--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T329"/>
+  <dimension ref="A1:T331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11960,20 +11960,20 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M145" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N145" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O145" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P145" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12040,20 +12040,20 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M146" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O146" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P146" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N147" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O147" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P147" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12204,16 +12204,16 @@
         </is>
       </c>
       <c r="M148" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N148" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O148" t="n">
         <v>14500</v>
       </c>
-      <c r="O148" t="n">
-        <v>15000</v>
-      </c>
       <c r="P148" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12247,7 +12247,7 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -12287,13 +12287,13 @@
         <v>240</v>
       </c>
       <c r="N149" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O149" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P149" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12360,20 +12360,20 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M150" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N150" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O150" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P150" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12440,20 +12440,20 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M151" t="n">
         <v>240</v>
       </c>
       <c r="N151" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O151" t="n">
         <v>12000</v>
       </c>
-      <c r="O151" t="n">
-        <v>12500</v>
-      </c>
       <c r="P151" t="n">
-        <v>12250</v>
+        <v>11750</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1750</v>
+        <v>1679</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N152" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O152" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="P152" t="n">
-        <v>9250</v>
+        <v>14250</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1321</v>
+        <v>2036</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M153" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N153" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O153" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P153" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T153" t="n">
         <v>7</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N154" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O154" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P154" t="n">
-        <v>13750</v>
+        <v>9250</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1964</v>
+        <v>1321</v>
       </c>
       <c r="T154" t="n">
         <v>7</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N155" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O155" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P155" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T155" t="n">
         <v>7</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N156" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O156" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P156" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T156" t="n">
         <v>7</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12924,16 +12924,16 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N157" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O157" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P157" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T157" t="n">
         <v>7</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -13007,13 +13007,13 @@
         <v>240</v>
       </c>
       <c r="N158" t="n">
-        <v>14000</v>
+        <v>20500</v>
       </c>
       <c r="O158" t="n">
-        <v>14500</v>
+        <v>21000</v>
       </c>
       <c r="P158" t="n">
-        <v>14250</v>
+        <v>20750</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>2036</v>
+        <v>2964</v>
       </c>
       <c r="T158" t="n">
         <v>7</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13087,13 +13087,13 @@
         <v>240</v>
       </c>
       <c r="N159" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="O159" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="P159" t="n">
-        <v>11250</v>
+        <v>17750</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>1607</v>
+        <v>2536</v>
       </c>
       <c r="T159" t="n">
         <v>7</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13160,20 +13160,20 @@
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M160" t="n">
         <v>240</v>
       </c>
       <c r="N160" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O160" t="n">
         <v>14500</v>
       </c>
-      <c r="O160" t="n">
-        <v>15000</v>
-      </c>
       <c r="P160" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T160" t="n">
         <v>7</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13240,20 +13240,20 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M161" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N161" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P161" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T161" t="n">
         <v>7</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>240</v>
       </c>
       <c r="N162" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O162" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P162" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T162" t="n">
         <v>7</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O163" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P163" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T163" t="n">
         <v>7</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M164" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N164" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O164" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P164" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T164" t="n">
         <v>7</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N165" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O165" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P165" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T165" t="n">
         <v>7</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N166" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O166" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P166" t="n">
-        <v>22500</v>
+        <v>13750</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>3214</v>
+        <v>1964</v>
       </c>
       <c r="T166" t="n">
         <v>7</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N167" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O167" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P167" t="n">
-        <v>20500</v>
+        <v>11750</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>2929</v>
+        <v>1679</v>
       </c>
       <c r="T167" t="n">
         <v>7</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N168" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O168" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P168" t="n">
-        <v>18500</v>
+        <v>22500</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>2643</v>
+        <v>3214</v>
       </c>
       <c r="T168" t="n">
         <v>7</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M169" t="n">
         <v>300</v>
       </c>
       <c r="N169" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="O169" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P169" t="n">
-        <v>14750</v>
+        <v>20500</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>2107</v>
+        <v>2929</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N170" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O170" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P170" t="n">
-        <v>12750</v>
+        <v>18500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1821</v>
+        <v>2643</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O171" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P171" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T171" t="n">
         <v>7</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N172" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O172" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P172" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T172" t="n">
         <v>7</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O173" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P173" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T173" t="n">
         <v>7</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
         <v>240</v>
       </c>
       <c r="N174" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O174" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P174" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T174" t="n">
         <v>7</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O175" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P175" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T175" t="n">
         <v>7</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>240</v>
       </c>
       <c r="N176" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O176" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P176" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M177" t="n">
         <v>200</v>
       </c>
       <c r="N177" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O177" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P177" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T177" t="n">
         <v>7</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N178" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O178" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P178" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M179" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O179" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="P179" t="n">
-        <v>19250</v>
+        <v>10750</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>2750</v>
+        <v>1536</v>
       </c>
       <c r="T179" t="n">
         <v>7</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N180" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="O180" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P180" t="n">
-        <v>16250</v>
+        <v>20750</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>2321</v>
+        <v>2964</v>
       </c>
       <c r="T180" t="n">
         <v>7</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M181" t="n">
         <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O181" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="P181" t="n">
-        <v>11750</v>
+        <v>19250</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>1679</v>
+        <v>2750</v>
       </c>
       <c r="T181" t="n">
         <v>7</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
         <v>300</v>
       </c>
       <c r="N182" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="O182" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="P182" t="n">
-        <v>17750</v>
+        <v>16250</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>2536</v>
+        <v>2321</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O183" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P183" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T183" t="n">
         <v>7</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M184" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="O184" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P184" t="n">
-        <v>13750</v>
+        <v>17750</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>1964</v>
+        <v>2536</v>
       </c>
       <c r="T184" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M185" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O185" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P185" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T185" t="n">
         <v>7</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M186" t="n">
         <v>240</v>
       </c>
       <c r="N186" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O186" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P186" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T186" t="n">
         <v>7</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M187" t="n">
         <v>240</v>
       </c>
       <c r="N187" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="O187" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P187" t="n">
-        <v>12750</v>
+        <v>17750</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>1821</v>
+        <v>2536</v>
       </c>
       <c r="T187" t="n">
         <v>7</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>240</v>
       </c>
       <c r="N188" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O188" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P188" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T188" t="n">
         <v>7</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N189" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O189" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P189" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T189" t="n">
         <v>7</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M190" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N190" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O190" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P190" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T190" t="n">
         <v>7</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="O191" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="P191" t="n">
-        <v>16250</v>
+        <v>17750</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>2321</v>
+        <v>2536</v>
       </c>
       <c r="T191" t="n">
         <v>7</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N192" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O192" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P192" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T192" t="n">
         <v>7</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O193" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P193" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T193" t="n">
         <v>7</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N194" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O194" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P194" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T194" t="n">
         <v>7</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N195" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O195" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P195" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T195" t="n">
         <v>7</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N196" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O196" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P196" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T196" t="n">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N197" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O197" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P197" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N198" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O198" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P198" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T198" t="n">
         <v>7</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M199" t="n">
         <v>200</v>
       </c>
       <c r="N199" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="O199" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P199" t="n">
-        <v>13750</v>
+        <v>18750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1964</v>
+        <v>2679</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N200" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="O200" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="P200" t="n">
-        <v>14250</v>
+        <v>16750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>2036</v>
+        <v>2393</v>
       </c>
       <c r="T200" t="n">
         <v>7</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N201" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O201" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="P201" t="n">
-        <v>11250</v>
+        <v>13750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1607</v>
+        <v>1964</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16520,20 +16520,20 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M202" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O202" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P202" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T202" t="n">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16600,20 +16600,20 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M203" t="n">
         <v>240</v>
       </c>
       <c r="N203" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O203" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="P203" t="n">
-        <v>13750</v>
+        <v>11250</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1964</v>
+        <v>1607</v>
       </c>
       <c r="T203" t="n">
         <v>7</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N204" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O204" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P204" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M205" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N205" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O205" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P205" t="n">
-        <v>16250</v>
+        <v>13750</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>2321</v>
+        <v>1964</v>
       </c>
       <c r="T205" t="n">
         <v>7</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N206" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O206" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P206" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T206" t="n">
         <v>7</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M207" t="n">
         <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O207" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P207" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T207" t="n">
         <v>7</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N208" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O208" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P208" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T208" t="n">
         <v>7</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N209" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O209" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P209" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T209" t="n">
         <v>7</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N210" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O210" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P210" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T210" t="n">
         <v>7</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N211" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O211" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P211" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T211" t="n">
         <v>7</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O212" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P212" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T212" t="n">
         <v>7</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M213" t="n">
         <v>240</v>
       </c>
       <c r="N213" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="O213" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P213" t="n">
-        <v>12250</v>
+        <v>19750</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>1750</v>
+        <v>2821</v>
       </c>
       <c r="T213" t="n">
         <v>7</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O214" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P214" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T214" t="n">
         <v>7</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M215" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N215" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O215" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P215" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T215" t="n">
         <v>7</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N216" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O216" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P216" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T216" t="n">
         <v>7</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O217" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P217" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O218" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N219" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O219" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P219" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N220" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="O220" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P220" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>2679</v>
+        <v>2250</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M221" t="n">
         <v>300</v>
       </c>
       <c r="N221" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O221" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P221" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N222" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O222" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T222" t="n">
         <v>7</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18200,11 +18200,11 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
         <v>15500</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N224" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O224" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P224" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T224" t="n">
         <v>7</v>
@@ -18360,20 +18360,20 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O225" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P225" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T225" t="n">
         <v>7</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N226" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O226" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P226" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O227" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M228" t="n">
         <v>240</v>
       </c>
       <c r="N228" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O228" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>13750</v>
+        <v>14750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1964</v>
+        <v>2107</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18760,11 +18760,11 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N230" t="n">
         <v>11500</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N231" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O231" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P231" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N232" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O232" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P232" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O233" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P233" t="n">
-        <v>16250</v>
+        <v>9750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>2321</v>
+        <v>1393</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O234" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="P234" t="n">
-        <v>13250</v>
+        <v>18250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1893</v>
+        <v>2607</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="O235" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="P235" t="n">
-        <v>22750</v>
+        <v>16250</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>3250</v>
+        <v>2321</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="O236" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P236" t="n">
-        <v>20750</v>
+        <v>13250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>2964</v>
+        <v>1893</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N237" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="O237" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P237" t="n">
-        <v>24750</v>
+        <v>22750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>3536</v>
+        <v>3250</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N238" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="O238" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P238" t="n">
-        <v>19750</v>
+        <v>20750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>2821</v>
+        <v>2964</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N239" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O239" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P239" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N240" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O240" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P240" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N241" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P241" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>240</v>
       </c>
       <c r="N242" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P242" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M243" t="n">
         <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O243" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P243" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P244" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O245" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P245" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P246" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M247" t="n">
         <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O247" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P247" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N248" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O248" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P248" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P249" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M250" t="n">
         <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O250" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P250" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N251" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O251" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P251" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O252" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P252" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="O253" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P253" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>2536</v>
+        <v>1679</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O254" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P254" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O255" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P255" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O256" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P256" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O257" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P257" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P258" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O259" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P259" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N260" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O260" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O261" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P261" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N262" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O262" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P262" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N263" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O263" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P263" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="O264" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>19750</v>
+        <v>12750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2821</v>
+        <v>1821</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O265" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P265" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
         <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O266" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P266" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P267" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>240</v>
       </c>
       <c r="N268" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O268" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P268" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N269" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O269" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22040,11 +22040,11 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N271" t="n">
         <v>11500</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
         <v>240</v>
       </c>
       <c r="N272" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O272" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N273" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O273" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O274" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P274" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O275" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P275" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="O276" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>18750</v>
+        <v>12750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>2679</v>
+        <v>1821</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P277" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N278" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P278" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N279" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O279" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O280" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P280" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>240</v>
       </c>
       <c r="N281" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O281" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P281" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>300</v>
       </c>
       <c r="N282" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O282" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P282" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O283" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P283" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N284" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O284" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P284" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23160,11 +23160,11 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N285" t="n">
         <v>14500</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
         <v>200</v>
       </c>
       <c r="N286" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P286" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N287" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O287" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P287" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O288" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P288" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O289" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P289" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1750</v>
+        <v>1393</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O290" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="P290" t="n">
-        <v>10250</v>
+        <v>14250</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1464</v>
+        <v>2036</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P291" t="n">
-        <v>14750</v>
+        <v>12250</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2107</v>
+        <v>1750</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
         <v>300</v>
       </c>
       <c r="N292" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P292" t="n">
-        <v>12750</v>
+        <v>10250</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1821</v>
+        <v>1464</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N293" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O293" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O294" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P294" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M295" t="n">
         <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O295" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P295" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N296" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O296" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P296" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O297" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="P297" t="n">
-        <v>15250</v>
+        <v>15750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2179</v>
+        <v>2250</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N298" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O298" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P298" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1893</v>
+        <v>1679</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="P299" t="n">
-        <v>11250</v>
+        <v>15250</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1607</v>
+        <v>2179</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P300" t="n">
-        <v>14750</v>
+        <v>13250</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O301" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P301" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O302" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P302" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O303" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P303" t="n">
-        <v>16250</v>
+        <v>12750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2321</v>
+        <v>1821</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O304" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P304" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>240</v>
       </c>
       <c r="N305" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O305" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P305" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>240</v>
       </c>
       <c r="N306" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O306" t="n">
         <v>14500</v>
       </c>
-      <c r="O306" t="n">
-        <v>15000</v>
-      </c>
       <c r="P306" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N307" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O307" t="n">
         <v>12500</v>
       </c>
-      <c r="O307" t="n">
-        <v>13000</v>
-      </c>
       <c r="P307" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O308" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P308" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N309" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O309" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P309" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="N310" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="O310" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P310" t="n">
-        <v>15750</v>
+        <v>9750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2250</v>
+        <v>1393</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N311" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O311" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P311" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N312" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O312" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="P312" t="n">
-        <v>17250</v>
+        <v>15750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2464</v>
+        <v>2250</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N313" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O313" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="P313" t="n">
-        <v>15250</v>
+        <v>11750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>2179</v>
+        <v>1679</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>240</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O314" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="P314" t="n">
-        <v>12250</v>
+        <v>17250</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1750</v>
+        <v>2464</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
         <v>240</v>
       </c>
       <c r="N315" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O315" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P315" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O316" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P316" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N317" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O317" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P317" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>300</v>
       </c>
       <c r="N318" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O318" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P318" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O319" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P319" t="n">
-        <v>18500</v>
+        <v>12750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2643</v>
+        <v>1821</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25967,13 +25967,13 @@
         <v>300</v>
       </c>
       <c r="N320" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P320" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O321" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P321" t="n">
-        <v>13750</v>
+        <v>18500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1964</v>
+        <v>2643</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N322" t="n">
         <v>15500</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N323" t="n">
         <v>13500</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>240</v>
       </c>
       <c r="N324" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P324" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N325" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O325" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>19500</v>
+        <v>13750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2786</v>
+        <v>1964</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O326" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P326" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2357</v>
+        <v>1679</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N327" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O327" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="P327" t="n">
-        <v>15250</v>
+        <v>19500</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2179</v>
+        <v>2786</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26607,13 +26607,13 @@
         <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O328" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P328" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26680,35 +26680,195 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M329" t="n">
+        <v>200</v>
+      </c>
+      <c r="N329" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O329" t="n">
+        <v>15500</v>
+      </c>
+      <c r="P329" t="n">
+        <v>15250</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S329" t="n">
+        <v>2179</v>
+      </c>
+      <c r="T329" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>8</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E330" t="n">
+        <v>4</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M330" t="n">
+        <v>300</v>
+      </c>
+      <c r="N330" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O330" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P330" t="n">
+        <v>12750</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S330" t="n">
+        <v>1821</v>
+      </c>
+      <c r="T330" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>8</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E331" t="n">
+        <v>4</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M329" t="n">
+      <c r="M331" t="n">
         <v>300</v>
       </c>
-      <c r="N329" t="n">
+      <c r="N331" t="n">
         <v>10500</v>
       </c>
-      <c r="O329" t="n">
+      <c r="O331" t="n">
         <v>11000</v>
       </c>
-      <c r="P329" t="n">
+      <c r="P331" t="n">
         <v>10750</v>
       </c>
-      <c r="Q329" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R329" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S329" t="n">
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S331" t="n">
         <v>1536</v>
       </c>
-      <c r="T329" t="n">
+      <c r="T331" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T331"/>
+  <dimension ref="A1:T333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E92" t="n">
         <v>4</v>
@@ -7720,20 +7720,20 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N92" t="n">
-        <v>17000</v>
+        <v>21500</v>
       </c>
       <c r="O92" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="P92" t="n">
-        <v>17500</v>
+        <v>21750</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="S92" t="n">
-        <v>2500</v>
+        <v>3107</v>
       </c>
       <c r="T92" t="n">
         <v>7</v>
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44215</v>
+        <v>44414</v>
       </c>
       <c r="E93" t="n">
         <v>4</v>
@@ -7800,20 +7800,20 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N93" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="O93" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P93" t="n">
-        <v>15500</v>
+        <v>17750</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="S93" t="n">
-        <v>2214</v>
+        <v>2536</v>
       </c>
       <c r="T93" t="n">
         <v>7</v>
@@ -7880,20 +7880,20 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N94" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="O94" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P94" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="S94" t="n">
-        <v>1821</v>
+        <v>2500</v>
       </c>
       <c r="T94" t="n">
         <v>7</v>
@@ -7927,7 +7927,7 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E95" t="n">
         <v>4</v>
@@ -7960,20 +7960,20 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N95" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O95" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P95" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="S95" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T95" t="n">
         <v>7</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44308</v>
+        <v>44215</v>
       </c>
       <c r="E96" t="n">
         <v>4</v>
@@ -8040,11 +8040,11 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N96" t="n">
         <v>12500</v>
@@ -8120,20 +8120,20 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N97" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O97" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P97" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="S97" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T97" t="n">
         <v>7</v>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E98" t="n">
         <v>4</v>
@@ -8200,20 +8200,20 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N98" t="n">
-        <v>24500</v>
+        <v>12500</v>
       </c>
       <c r="O98" t="n">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="P98" t="n">
-        <v>24750</v>
+        <v>12750</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         </is>
       </c>
       <c r="S98" t="n">
-        <v>3536</v>
+        <v>1821</v>
       </c>
       <c r="T98" t="n">
         <v>7</v>
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44403</v>
+        <v>44308</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
@@ -8280,20 +8280,20 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N99" t="n">
-        <v>20500</v>
+        <v>10500</v>
       </c>
       <c r="O99" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P99" t="n">
-        <v>20750</v>
+        <v>10750</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="S99" t="n">
-        <v>2964</v>
+        <v>1536</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -8360,20 +8360,20 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N100" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O100" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P100" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="S100" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T100" t="n">
         <v>7</v>
@@ -8407,7 +8407,7 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
@@ -8440,20 +8440,20 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N101" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="O101" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P101" t="n">
-        <v>16250</v>
+        <v>20750</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         </is>
       </c>
       <c r="S101" t="n">
-        <v>2321</v>
+        <v>2964</v>
       </c>
       <c r="T101" t="n">
         <v>7</v>
@@ -8487,7 +8487,7 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44239</v>
+        <v>44403</v>
       </c>
       <c r="E102" t="n">
         <v>4</v>
@@ -8520,20 +8520,20 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N102" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O102" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P102" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="S102" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T102" t="n">
         <v>7</v>
@@ -8600,20 +8600,20 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N103" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O103" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P103" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         </is>
       </c>
       <c r="S103" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T103" t="n">
         <v>7</v>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E104" t="n">
         <v>4</v>
@@ -8680,20 +8680,20 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N104" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="O104" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P104" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="S104" t="n">
-        <v>3393</v>
+        <v>1964</v>
       </c>
       <c r="T104" t="n">
         <v>7</v>
@@ -8727,7 +8727,7 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44379</v>
+        <v>44239</v>
       </c>
       <c r="E105" t="n">
         <v>4</v>
@@ -8760,20 +8760,20 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N105" t="n">
-        <v>21500</v>
+        <v>11500</v>
       </c>
       <c r="O105" t="n">
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="P105" t="n">
-        <v>21750</v>
+        <v>11750</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="S105" t="n">
-        <v>3107</v>
+        <v>1679</v>
       </c>
       <c r="T105" t="n">
         <v>7</v>
@@ -8840,20 +8840,20 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N106" t="n">
-        <v>15500</v>
+        <v>23500</v>
       </c>
       <c r="O106" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P106" t="n">
-        <v>15750</v>
+        <v>23750</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="S106" t="n">
-        <v>2250</v>
+        <v>3393</v>
       </c>
       <c r="T106" t="n">
         <v>7</v>
@@ -8887,7 +8887,7 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E107" t="n">
         <v>4</v>
@@ -8920,20 +8920,20 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>300</v>
       </c>
       <c r="N107" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O107" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P107" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="S107" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T107" t="n">
         <v>7</v>
@@ -8967,7 +8967,7 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44306</v>
+        <v>44379</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -9000,20 +9000,20 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M108" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N108" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O108" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P108" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="S108" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
@@ -9080,20 +9080,20 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N109" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O109" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P109" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
@@ -9106,7 +9106,7 @@
         </is>
       </c>
       <c r="S109" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T109" t="n">
         <v>7</v>
@@ -9127,7 +9127,7 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E110" t="n">
         <v>4</v>
@@ -9160,20 +9160,20 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M110" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N110" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="O110" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P110" t="n">
-        <v>18750</v>
+        <v>12750</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         </is>
       </c>
       <c r="S110" t="n">
-        <v>2679</v>
+        <v>1821</v>
       </c>
       <c r="T110" t="n">
         <v>7</v>
@@ -9207,7 +9207,7 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44340</v>
+        <v>44306</v>
       </c>
       <c r="E111" t="n">
         <v>4</v>
@@ -9240,20 +9240,20 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N111" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O111" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P111" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         </is>
       </c>
       <c r="S111" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T111" t="n">
         <v>7</v>
@@ -9320,20 +9320,20 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N112" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O112" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P112" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="S112" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T112" t="n">
         <v>7</v>
@@ -9367,7 +9367,7 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E113" t="n">
         <v>4</v>
@@ -9400,20 +9400,20 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N113" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O113" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P113" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="S113" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T113" t="n">
         <v>7</v>
@@ -9447,7 +9447,7 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44174</v>
+        <v>44340</v>
       </c>
       <c r="E114" t="n">
         <v>4</v>
@@ -9480,20 +9480,20 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M114" t="n">
         <v>240</v>
       </c>
       <c r="N114" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O114" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P114" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         </is>
       </c>
       <c r="S114" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -9560,20 +9560,20 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N115" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="O115" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P115" t="n">
-        <v>13750</v>
+        <v>17750</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="S115" t="n">
-        <v>1964</v>
+        <v>2536</v>
       </c>
       <c r="T115" t="n">
         <v>7</v>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E116" t="n">
         <v>4</v>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="M116" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N116" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O116" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P116" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         </is>
       </c>
       <c r="S116" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T116" t="n">
         <v>7</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44221</v>
+        <v>44174</v>
       </c>
       <c r="E117" t="n">
         <v>4</v>
@@ -9724,16 +9724,16 @@
         </is>
       </c>
       <c r="M117" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N117" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="O117" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P117" t="n">
-        <v>11750</v>
+        <v>13750</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="S117" t="n">
-        <v>1679</v>
+        <v>1964</v>
       </c>
       <c r="T117" t="n">
         <v>7</v>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E118" t="n">
         <v>4</v>
@@ -9800,11 +9800,11 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N118" t="n">
         <v>14500</v>
@@ -9847,7 +9847,7 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44271</v>
+        <v>44221</v>
       </c>
       <c r="E119" t="n">
         <v>4</v>
@@ -9880,20 +9880,20 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M119" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="N119" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O119" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P119" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="S119" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T119" t="n">
         <v>7</v>
@@ -9960,20 +9960,20 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N120" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O120" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P120" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T120" t="n">
         <v>7</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E121" t="n">
         <v>4</v>
@@ -10040,20 +10040,20 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="N121" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O121" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P121" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
@@ -10066,7 +10066,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T121" t="n">
         <v>7</v>
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="E122" t="n">
         <v>4</v>
@@ -10120,20 +10120,20 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N122" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O122" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P122" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>1750</v>
+        <v>1393</v>
       </c>
       <c r="T122" t="n">
         <v>7</v>
@@ -10200,20 +10200,20 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N123" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O123" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="P123" t="n">
-        <v>10244</v>
+        <v>14250</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="S123" t="n">
-        <v>1463</v>
+        <v>2036</v>
       </c>
       <c r="T123" t="n">
         <v>7</v>
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44162</v>
+        <v>44280</v>
       </c>
       <c r="E124" t="n">
         <v>4</v>
@@ -10280,20 +10280,20 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M124" t="n">
         <v>300</v>
       </c>
       <c r="N124" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O124" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P124" t="n">
-        <v>14750</v>
+        <v>12250</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="S124" t="n">
-        <v>2107</v>
+        <v>1750</v>
       </c>
       <c r="T124" t="n">
         <v>7</v>
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44162</v>
+        <v>44280</v>
       </c>
       <c r="E125" t="n">
         <v>4</v>
@@ -10360,20 +10360,20 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N125" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O125" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P125" t="n">
-        <v>12750</v>
+        <v>10244</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         </is>
       </c>
       <c r="S125" t="n">
-        <v>1821</v>
+        <v>1463</v>
       </c>
       <c r="T125" t="n">
         <v>7</v>
@@ -10440,20 +10440,20 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M126" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N126" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O126" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P126" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="S126" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T126" t="n">
         <v>7</v>
@@ -10487,7 +10487,7 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E127" t="n">
         <v>4</v>
@@ -10520,20 +10520,20 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M127" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N127" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="O127" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P127" t="n">
-        <v>18750</v>
+        <v>12750</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>2679</v>
+        <v>1821</v>
       </c>
       <c r="T127" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44362</v>
+        <v>44162</v>
       </c>
       <c r="E128" t="n">
         <v>4</v>
@@ -10600,20 +10600,20 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M128" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N128" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O128" t="n">
-        <v>16500</v>
+        <v>11000</v>
       </c>
       <c r="P128" t="n">
-        <v>16250</v>
+        <v>10750</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>2321</v>
+        <v>1536</v>
       </c>
       <c r="T128" t="n">
         <v>7</v>
@@ -10680,20 +10680,20 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M129" t="n">
-        <v>260</v>
+        <v>440</v>
       </c>
       <c r="N129" t="n">
-        <v>13000</v>
+        <v>18500</v>
       </c>
       <c r="O129" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P129" t="n">
-        <v>13250</v>
+        <v>18750</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>1893</v>
+        <v>2679</v>
       </c>
       <c r="T129" t="n">
         <v>7</v>
@@ -10727,7 +10727,7 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -10760,20 +10760,20 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M130" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N130" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O130" t="n">
         <v>16500</v>
       </c>
-      <c r="O130" t="n">
-        <v>17000</v>
-      </c>
       <c r="P130" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -10786,7 +10786,7 @@
         </is>
       </c>
       <c r="S130" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T130" t="n">
         <v>7</v>
@@ -10807,7 +10807,7 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44175</v>
+        <v>44362</v>
       </c>
       <c r="E131" t="n">
         <v>4</v>
@@ -10840,20 +10840,20 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N131" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O131" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P131" t="n">
-        <v>14750</v>
+        <v>13250</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="T131" t="n">
         <v>7</v>
@@ -10920,20 +10920,20 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M132" t="n">
         <v>200</v>
       </c>
       <c r="N132" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O132" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P132" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="S132" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T132" t="n">
         <v>7</v>
@@ -10967,7 +10967,7 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44204</v>
+        <v>44175</v>
       </c>
       <c r="E133" t="n">
         <v>4</v>
@@ -11000,20 +11000,20 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M133" t="n">
         <v>300</v>
       </c>
       <c r="N133" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O133" t="n">
         <v>15000</v>
       </c>
-      <c r="O133" t="n">
-        <v>15500</v>
-      </c>
       <c r="P133" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
@@ -11026,7 +11026,7 @@
         </is>
       </c>
       <c r="S133" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T133" t="n">
         <v>7</v>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44204</v>
+        <v>44175</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
@@ -11080,20 +11080,20 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M134" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N134" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O134" t="n">
         <v>13000</v>
       </c>
-      <c r="O134" t="n">
-        <v>13500</v>
-      </c>
       <c r="P134" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
         </is>
       </c>
       <c r="S134" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
@@ -11160,20 +11160,20 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M135" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N135" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O135" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="P135" t="n">
-        <v>11250</v>
+        <v>15250</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="S135" t="n">
-        <v>1607</v>
+        <v>2179</v>
       </c>
       <c r="T135" t="n">
         <v>7</v>
@@ -11207,7 +11207,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E136" t="n">
         <v>4</v>
@@ -11240,20 +11240,20 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M136" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N136" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O136" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P136" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
@@ -11266,7 +11266,7 @@
         </is>
       </c>
       <c r="S136" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -11287,7 +11287,7 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44323</v>
+        <v>44204</v>
       </c>
       <c r="E137" t="n">
         <v>4</v>
@@ -11320,20 +11320,20 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M137" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N137" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="O137" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="P137" t="n">
-        <v>14250</v>
+        <v>11250</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="S137" t="n">
-        <v>2036</v>
+        <v>1607</v>
       </c>
       <c r="T137" t="n">
         <v>7</v>
@@ -11400,20 +11400,20 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M138" t="n">
         <v>240</v>
       </c>
       <c r="N138" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="O138" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="P138" t="n">
-        <v>11250</v>
+        <v>16250</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="S138" t="n">
-        <v>1607</v>
+        <v>2321</v>
       </c>
       <c r="T138" t="n">
         <v>7</v>
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E139" t="n">
         <v>4</v>
@@ -11480,20 +11480,20 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N139" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O139" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P139" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="S139" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T139" t="n">
         <v>7</v>
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44200</v>
+        <v>44323</v>
       </c>
       <c r="E140" t="n">
         <v>4</v>
@@ -11560,20 +11560,20 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M140" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N140" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O140" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="P140" t="n">
-        <v>13750</v>
+        <v>11250</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="S140" t="n">
-        <v>1964</v>
+        <v>1607</v>
       </c>
       <c r="T140" t="n">
         <v>7</v>
@@ -11640,20 +11640,20 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M141" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N141" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O141" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P141" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="S141" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T141" t="n">
         <v>7</v>
@@ -11687,7 +11687,7 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E142" t="n">
         <v>4</v>
@@ -11720,20 +11720,20 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M142" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N142" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="O142" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P142" t="n">
-        <v>24750</v>
+        <v>13750</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="S142" t="n">
-        <v>3536</v>
+        <v>1964</v>
       </c>
       <c r="T142" t="n">
         <v>7</v>
@@ -11767,7 +11767,7 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44385</v>
+        <v>44200</v>
       </c>
       <c r="E143" t="n">
         <v>4</v>
@@ -11800,20 +11800,20 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N143" t="n">
-        <v>22500</v>
+        <v>11500</v>
       </c>
       <c r="O143" t="n">
-        <v>23000</v>
+        <v>12000</v>
       </c>
       <c r="P143" t="n">
-        <v>22750</v>
+        <v>11750</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         </is>
       </c>
       <c r="S143" t="n">
-        <v>3250</v>
+        <v>1679</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -11880,20 +11880,20 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M144" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N144" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O144" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P144" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         </is>
       </c>
       <c r="S144" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T144" t="n">
         <v>7</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -11964,16 +11964,16 @@
         </is>
       </c>
       <c r="M145" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N145" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="O145" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P145" t="n">
-        <v>21750</v>
+        <v>22750</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="S145" t="n">
-        <v>3107</v>
+        <v>3250</v>
       </c>
       <c r="T145" t="n">
         <v>7</v>
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44413</v>
+        <v>44385</v>
       </c>
       <c r="E146" t="n">
         <v>4</v>
@@ -12047,13 +12047,13 @@
         <v>200</v>
       </c>
       <c r="N146" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="O146" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P146" t="n">
-        <v>17750</v>
+        <v>16750</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
@@ -12066,7 +12066,7 @@
         </is>
       </c>
       <c r="S146" t="n">
-        <v>2536</v>
+        <v>2393</v>
       </c>
       <c r="T146" t="n">
         <v>7</v>
@@ -12087,7 +12087,7 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E147" t="n">
         <v>4</v>
@@ -12120,20 +12120,20 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M147" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N147" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O147" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P147" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="S147" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T147" t="n">
         <v>7</v>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44176</v>
+        <v>44413</v>
       </c>
       <c r="E148" t="n">
         <v>4</v>
@@ -12200,20 +12200,20 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M148" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N148" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O148" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P148" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -12226,7 +12226,7 @@
         </is>
       </c>
       <c r="S148" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T148" t="n">
         <v>7</v>
@@ -12280,20 +12280,20 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M149" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N149" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O149" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P149" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="S149" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T149" t="n">
         <v>7</v>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N150" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O150" t="n">
         <v>14500</v>
       </c>
-      <c r="O150" t="n">
-        <v>15000</v>
-      </c>
       <c r="P150" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44222</v>
+        <v>44176</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12447,13 +12447,13 @@
         <v>240</v>
       </c>
       <c r="N151" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O151" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P151" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12520,20 +12520,20 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N152" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O152" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P152" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44273</v>
+        <v>44222</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12600,20 +12600,20 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M153" t="n">
         <v>240</v>
       </c>
       <c r="N153" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O153" t="n">
         <v>12000</v>
       </c>
-      <c r="O153" t="n">
-        <v>12500</v>
-      </c>
       <c r="P153" t="n">
-        <v>12250</v>
+        <v>11750</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>1750</v>
+        <v>1679</v>
       </c>
       <c r="T153" t="n">
         <v>7</v>
@@ -12680,20 +12680,20 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M154" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N154" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O154" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="P154" t="n">
-        <v>9250</v>
+        <v>14250</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>1321</v>
+        <v>2036</v>
       </c>
       <c r="T154" t="n">
         <v>7</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12760,20 +12760,20 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M155" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N155" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O155" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P155" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T155" t="n">
         <v>7</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44257</v>
+        <v>44273</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12840,20 +12840,20 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N156" t="n">
-        <v>13500</v>
+        <v>9000</v>
       </c>
       <c r="O156" t="n">
-        <v>14000</v>
+        <v>9500</v>
       </c>
       <c r="P156" t="n">
-        <v>13750</v>
+        <v>9250</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>1964</v>
+        <v>1321</v>
       </c>
       <c r="T156" t="n">
         <v>7</v>
@@ -12920,20 +12920,20 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N157" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O157" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P157" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="S157" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T157" t="n">
         <v>7</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N158" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O158" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P158" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T158" t="n">
         <v>7</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44400</v>
+        <v>44257</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N159" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O159" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P159" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T159" t="n">
         <v>7</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13167,13 +13167,13 @@
         <v>240</v>
       </c>
       <c r="N160" t="n">
-        <v>14000</v>
+        <v>20500</v>
       </c>
       <c r="O160" t="n">
-        <v>14500</v>
+        <v>21000</v>
       </c>
       <c r="P160" t="n">
-        <v>14250</v>
+        <v>20750</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>2036</v>
+        <v>2964</v>
       </c>
       <c r="T160" t="n">
         <v>7</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44225</v>
+        <v>44400</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13247,13 +13247,13 @@
         <v>240</v>
       </c>
       <c r="N161" t="n">
-        <v>11000</v>
+        <v>17500</v>
       </c>
       <c r="O161" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="P161" t="n">
-        <v>11250</v>
+        <v>17750</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1607</v>
+        <v>2536</v>
       </c>
       <c r="T161" t="n">
         <v>7</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13320,20 +13320,20 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M162" t="n">
         <v>240</v>
       </c>
       <c r="N162" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O162" t="n">
         <v>14500</v>
       </c>
-      <c r="O162" t="n">
-        <v>15000</v>
-      </c>
       <c r="P162" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T162" t="n">
         <v>7</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44295</v>
+        <v>44225</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13400,20 +13400,20 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M163" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N163" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O163" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P163" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T163" t="n">
         <v>7</v>
@@ -13480,20 +13480,20 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M164" t="n">
         <v>240</v>
       </c>
       <c r="N164" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O164" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P164" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         </is>
       </c>
       <c r="S164" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T164" t="n">
         <v>7</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13560,20 +13560,20 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M165" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O165" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P165" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T165" t="n">
         <v>7</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44194</v>
+        <v>44295</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13640,20 +13640,20 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M166" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N166" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O166" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P166" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T166" t="n">
         <v>7</v>
@@ -13720,20 +13720,20 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M167" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N167" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O167" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P167" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T167" t="n">
         <v>7</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13800,20 +13800,20 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M168" t="n">
-        <v>400</v>
+        <v>280</v>
       </c>
       <c r="N168" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O168" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P168" t="n">
-        <v>22500</v>
+        <v>13750</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>3214</v>
+        <v>1964</v>
       </c>
       <c r="T168" t="n">
         <v>7</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44390</v>
+        <v>44194</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13880,20 +13880,20 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M169" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O169" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P169" t="n">
-        <v>20500</v>
+        <v>11750</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>2929</v>
+        <v>1679</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -13960,20 +13960,20 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M170" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N170" t="n">
-        <v>18000</v>
+        <v>22000</v>
       </c>
       <c r="O170" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="P170" t="n">
-        <v>18500</v>
+        <v>22500</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>2643</v>
+        <v>3214</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -14040,20 +14040,20 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M171" t="n">
         <v>300</v>
       </c>
       <c r="N171" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="O171" t="n">
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="P171" t="n">
-        <v>14750</v>
+        <v>20500</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>2107</v>
+        <v>2929</v>
       </c>
       <c r="T171" t="n">
         <v>7</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44298</v>
+        <v>44390</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14120,20 +14120,20 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M172" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
-        <v>12500</v>
+        <v>18000</v>
       </c>
       <c r="O172" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P172" t="n">
-        <v>12750</v>
+        <v>18500</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>1821</v>
+        <v>2643</v>
       </c>
       <c r="T172" t="n">
         <v>7</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M173" t="n">
         <v>300</v>
       </c>
       <c r="N173" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O173" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P173" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T173" t="n">
         <v>7</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N174" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O174" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P174" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T174" t="n">
         <v>7</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44354</v>
+        <v>44298</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M175" t="n">
         <v>300</v>
       </c>
       <c r="N175" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O175" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P175" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T175" t="n">
         <v>7</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
         <v>240</v>
       </c>
       <c r="N176" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O176" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P176" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O177" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P177" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T177" t="n">
         <v>7</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44169</v>
+        <v>44354</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
         <v>240</v>
       </c>
       <c r="N178" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O178" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -14680,20 +14680,20 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
         <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O179" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P179" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T179" t="n">
         <v>7</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N180" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O180" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P180" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T180" t="n">
         <v>7</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44336</v>
+        <v>44169</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N181" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O181" t="n">
-        <v>19500</v>
+        <v>11000</v>
       </c>
       <c r="P181" t="n">
-        <v>19250</v>
+        <v>10750</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>2750</v>
+        <v>1536</v>
       </c>
       <c r="T181" t="n">
         <v>7</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44336</v>
+        <v>44410</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14924,16 +14924,16 @@
         </is>
       </c>
       <c r="M182" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N182" t="n">
-        <v>16000</v>
+        <v>20500</v>
       </c>
       <c r="O182" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P182" t="n">
-        <v>16250</v>
+        <v>20750</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>2321</v>
+        <v>2964</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>300</v>
       </c>
       <c r="N183" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O183" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="P183" t="n">
-        <v>11750</v>
+        <v>19250</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1679</v>
+        <v>2750</v>
       </c>
       <c r="T183" t="n">
         <v>7</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15080,20 +15080,20 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M184" t="n">
         <v>300</v>
       </c>
       <c r="N184" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="O184" t="n">
-        <v>18000</v>
+        <v>16500</v>
       </c>
       <c r="P184" t="n">
-        <v>17750</v>
+        <v>16250</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>2536</v>
+        <v>2321</v>
       </c>
       <c r="T184" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44172</v>
+        <v>44336</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15160,20 +15160,20 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M185" t="n">
         <v>300</v>
       </c>
       <c r="N185" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O185" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P185" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T185" t="n">
         <v>7</v>
@@ -15240,20 +15240,20 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M186" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N186" t="n">
-        <v>13500</v>
+        <v>17500</v>
       </c>
       <c r="O186" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="P186" t="n">
-        <v>13750</v>
+        <v>17750</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>1964</v>
+        <v>2536</v>
       </c>
       <c r="T186" t="n">
         <v>7</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15320,20 +15320,20 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M187" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O187" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P187" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T187" t="n">
         <v>7</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44214</v>
+        <v>44172</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15400,20 +15400,20 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M188" t="n">
         <v>240</v>
       </c>
       <c r="N188" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O188" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P188" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T188" t="n">
         <v>7</v>
@@ -15480,20 +15480,20 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M189" t="n">
         <v>240</v>
       </c>
       <c r="N189" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="O189" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P189" t="n">
-        <v>12750</v>
+        <v>17750</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1821</v>
+        <v>2536</v>
       </c>
       <c r="T189" t="n">
         <v>7</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15560,20 +15560,20 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M190" t="n">
         <v>240</v>
       </c>
       <c r="N190" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O190" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P190" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T190" t="n">
         <v>7</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44371</v>
+        <v>44214</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15640,20 +15640,20 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M191" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N191" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O191" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P191" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T191" t="n">
         <v>7</v>
@@ -15720,20 +15720,20 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M192" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N192" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O192" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P192" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T192" t="n">
         <v>7</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15800,20 +15800,20 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M193" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N193" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="O193" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="P193" t="n">
-        <v>16250</v>
+        <v>17750</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>2321</v>
+        <v>2536</v>
       </c>
       <c r="T193" t="n">
         <v>7</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44238</v>
+        <v>44371</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15880,20 +15880,20 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M194" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N194" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O194" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P194" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T194" t="n">
         <v>7</v>
@@ -15960,20 +15960,20 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N195" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O195" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P195" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T195" t="n">
         <v>7</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16040,20 +16040,20 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M196" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N196" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O196" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P196" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T196" t="n">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44320</v>
+        <v>44238</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16120,20 +16120,20 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M197" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N197" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O197" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P197" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
@@ -16200,20 +16200,20 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M198" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N198" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O198" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P198" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T198" t="n">
         <v>7</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16280,20 +16280,20 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M199" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N199" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O199" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44364</v>
+        <v>44320</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16360,20 +16360,20 @@
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M200" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N200" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O200" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P200" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T200" t="n">
         <v>7</v>
@@ -16440,20 +16440,20 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M201" t="n">
         <v>200</v>
       </c>
       <c r="N201" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="O201" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P201" t="n">
-        <v>13750</v>
+        <v>18750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1964</v>
+        <v>2679</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N202" t="n">
-        <v>14000</v>
+        <v>16500</v>
       </c>
       <c r="O202" t="n">
-        <v>14500</v>
+        <v>17000</v>
       </c>
       <c r="P202" t="n">
-        <v>14250</v>
+        <v>16750</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>2036</v>
+        <v>2393</v>
       </c>
       <c r="T202" t="n">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44224</v>
+        <v>44364</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
-        <v>11000</v>
+        <v>13500</v>
       </c>
       <c r="O203" t="n">
-        <v>11500</v>
+        <v>14000</v>
       </c>
       <c r="P203" t="n">
-        <v>11250</v>
+        <v>13750</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>1607</v>
+        <v>1964</v>
       </c>
       <c r="T203" t="n">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16680,20 +16680,20 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M204" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N204" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O204" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P204" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44260</v>
+        <v>44224</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M205" t="n">
         <v>240</v>
       </c>
       <c r="N205" t="n">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="O205" t="n">
-        <v>14000</v>
+        <v>11500</v>
       </c>
       <c r="P205" t="n">
-        <v>13750</v>
+        <v>11250</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1964</v>
+        <v>1607</v>
       </c>
       <c r="T205" t="n">
         <v>7</v>
@@ -16840,20 +16840,20 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N206" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O206" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P206" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T206" t="n">
         <v>7</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16920,20 +16920,20 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M207" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N207" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O207" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P207" t="n">
-        <v>16250</v>
+        <v>13750</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>2321</v>
+        <v>1964</v>
       </c>
       <c r="T207" t="n">
         <v>7</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O208" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P208" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T208" t="n">
         <v>7</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M209" t="n">
         <v>200</v>
       </c>
       <c r="N209" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O209" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P209" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T209" t="n">
         <v>7</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N210" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P210" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T210" t="n">
         <v>7</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N211" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P211" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T211" t="n">
         <v>7</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N212" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O212" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P212" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T212" t="n">
         <v>7</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N213" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O213" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P213" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T213" t="n">
         <v>7</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17480,20 +17480,20 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N214" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O214" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P214" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T214" t="n">
         <v>7</v>
@@ -17560,20 +17560,20 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M215" t="n">
         <v>240</v>
       </c>
       <c r="N215" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="O215" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P215" t="n">
-        <v>12250</v>
+        <v>19750</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1750</v>
+        <v>2821</v>
       </c>
       <c r="T215" t="n">
         <v>7</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17640,20 +17640,20 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M216" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N216" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O216" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T216" t="n">
         <v>7</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N217" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O217" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P217" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17800,20 +17800,20 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N218" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P218" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17880,20 +17880,20 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O219" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P219" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P220" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N221" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O221" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P221" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N222" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="O222" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P222" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>2679</v>
+        <v>2250</v>
       </c>
       <c r="T222" t="n">
         <v>7</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18200,20 +18200,20 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M223" t="n">
         <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O223" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P223" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T223" t="n">
         <v>7</v>
@@ -18280,20 +18280,20 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M224" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N224" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O224" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P224" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T224" t="n">
         <v>7</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18360,11 +18360,11 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N225" t="n">
         <v>15500</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18440,20 +18440,20 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M226" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N226" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O226" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P226" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N227" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O227" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P227" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N228" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O228" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P228" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N229" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O229" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P229" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M230" t="n">
         <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O230" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P230" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="O231" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P231" t="n">
-        <v>13750</v>
+        <v>14750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>1964</v>
+        <v>2107</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18920,11 +18920,11 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M232" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N232" t="n">
         <v>11500</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N233" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O233" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P233" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N234" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O234" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P234" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N235" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O235" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P235" t="n">
-        <v>16250</v>
+        <v>9750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>2321</v>
+        <v>1393</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M236" t="n">
         <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O236" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="P236" t="n">
-        <v>13250</v>
+        <v>18250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1893</v>
+        <v>2607</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N237" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="O237" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="P237" t="n">
-        <v>22750</v>
+        <v>16250</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>3250</v>
+        <v>2321</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M238" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N238" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="O238" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P238" t="n">
-        <v>20750</v>
+        <v>13250</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>2964</v>
+        <v>1893</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N239" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="O239" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P239" t="n">
-        <v>24750</v>
+        <v>22750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>3536</v>
+        <v>3250</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N240" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="O240" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P240" t="n">
-        <v>19750</v>
+        <v>20750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>2821</v>
+        <v>2964</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N241" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O241" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P241" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O242" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P242" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O243" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P243" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M244" t="n">
         <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O244" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P244" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>300</v>
       </c>
       <c r="N245" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O245" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P245" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N246" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O246" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P246" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O247" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P247" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O248" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P248" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44245</v>
+        <v>44294</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
         <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P249" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N250" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O250" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
         <v>240</v>
       </c>
       <c r="N251" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O251" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
         <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O252" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O253" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P253" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O254" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P254" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="O255" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P255" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>2536</v>
+        <v>1679</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N256" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O256" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P256" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O257" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P257" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P258" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O259" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P259" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N260" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P260" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O261" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P261" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N262" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O262" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P262" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O263" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N264" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N265" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O265" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P265" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="O266" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P266" t="n">
-        <v>19750</v>
+        <v>12750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>2821</v>
+        <v>1821</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O267" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P267" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>240</v>
       </c>
       <c r="N268" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O268" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P268" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O269" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P269" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M270" t="n">
         <v>240</v>
       </c>
       <c r="N270" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O270" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N271" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O271" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22120,7 +22120,7 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M272" t="n">
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22200,11 +22200,11 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
         <v>11500</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M274" t="n">
         <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O274" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P274" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O275" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P275" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O276" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P276" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N277" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O277" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="O278" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>18750</v>
+        <v>12750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>2679</v>
+        <v>1821</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O279" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P279" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N280" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O280" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P280" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O281" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O282" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P282" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
         <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P283" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
         <v>300</v>
       </c>
       <c r="N284" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O284" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P284" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O285" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N286" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O286" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P286" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23320,11 +23320,11 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
         <v>14500</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
         <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O288" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P288" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O289" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O290" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P290" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O291" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1750</v>
+        <v>1393</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N292" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O292" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="P292" t="n">
-        <v>10250</v>
+        <v>14250</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1464</v>
+        <v>2036</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P293" t="n">
-        <v>14750</v>
+        <v>12250</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>2107</v>
+        <v>1750</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
         <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P294" t="n">
-        <v>12750</v>
+        <v>10250</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1821</v>
+        <v>1464</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N295" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O295" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
         <v>300</v>
       </c>
       <c r="N296" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O296" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P297" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P298" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
         <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O299" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>15250</v>
+        <v>15750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2179</v>
+        <v>2250</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N300" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O300" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P300" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1893</v>
+        <v>1679</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N301" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O301" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="P301" t="n">
-        <v>11250</v>
+        <v>15250</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1607</v>
+        <v>2179</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P302" t="n">
-        <v>14750</v>
+        <v>13250</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N303" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O303" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P303" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O304" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O305" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>16250</v>
+        <v>12750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>2321</v>
+        <v>1821</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O306" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P306" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
         <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P307" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
         <v>240</v>
       </c>
       <c r="N308" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O308" t="n">
         <v>14500</v>
       </c>
-      <c r="O308" t="n">
-        <v>15000</v>
-      </c>
       <c r="P308" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O309" t="n">
         <v>12500</v>
       </c>
-      <c r="O309" t="n">
-        <v>13000</v>
-      </c>
       <c r="P309" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O310" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P310" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N311" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O311" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="N312" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="O312" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>15750</v>
+        <v>9750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2250</v>
+        <v>1393</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N313" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P313" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N314" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O314" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="P314" t="n">
-        <v>17250</v>
+        <v>15750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>2464</v>
+        <v>2250</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N315" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O315" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>15250</v>
+        <v>11750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2179</v>
+        <v>1679</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
         <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O316" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="P316" t="n">
-        <v>12250</v>
+        <v>17250</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1750</v>
+        <v>2464</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>240</v>
       </c>
       <c r="N317" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O317" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P317" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N318" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O318" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P318" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P319" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
         <v>300</v>
       </c>
       <c r="N320" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O320" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P320" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O321" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P321" t="n">
-        <v>18500</v>
+        <v>12750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2643</v>
+        <v>1821</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26127,13 +26127,13 @@
         <v>300</v>
       </c>
       <c r="N322" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O322" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P322" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N323" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O323" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P323" t="n">
-        <v>13750</v>
+        <v>18500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1964</v>
+        <v>2643</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N324" t="n">
         <v>15500</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N325" t="n">
         <v>13500</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P326" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N327" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O327" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P327" t="n">
-        <v>19500</v>
+        <v>13750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2786</v>
+        <v>1964</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O328" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P328" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2357</v>
+        <v>1679</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N329" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O329" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="P329" t="n">
-        <v>15250</v>
+        <v>19500</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2179</v>
+        <v>2786</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26767,13 +26767,13 @@
         <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O330" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P330" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26840,35 +26840,195 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M331" t="n">
+        <v>200</v>
+      </c>
+      <c r="N331" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O331" t="n">
+        <v>15500</v>
+      </c>
+      <c r="P331" t="n">
+        <v>15250</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S331" t="n">
+        <v>2179</v>
+      </c>
+      <c r="T331" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>8</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E332" t="n">
+        <v>4</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M332" t="n">
+        <v>300</v>
+      </c>
+      <c r="N332" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O332" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P332" t="n">
+        <v>12750</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S332" t="n">
+        <v>1821</v>
+      </c>
+      <c r="T332" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>8</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E333" t="n">
+        <v>4</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M331" t="n">
+      <c r="M333" t="n">
         <v>300</v>
       </c>
-      <c r="N331" t="n">
+      <c r="N333" t="n">
         <v>10500</v>
       </c>
-      <c r="O331" t="n">
+      <c r="O333" t="n">
         <v>11000</v>
       </c>
-      <c r="P331" t="n">
+      <c r="P333" t="n">
         <v>10750</v>
       </c>
-      <c r="Q331" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R331" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S331" t="n">
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S333" t="n">
         <v>1536</v>
       </c>
-      <c r="T331" t="n">
+      <c r="T333" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T361"/>
+  <dimension ref="A1:T363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18520,20 +18520,20 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M227" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="O227" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P227" t="n">
-        <v>15750</v>
+        <v>25500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>2250</v>
+        <v>3643</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44260</v>
+        <v>44438</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18600,20 +18600,20 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M228" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N228" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O228" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P228" t="n">
-        <v>13750</v>
+        <v>20500</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>1964</v>
+        <v>2929</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18680,20 +18680,20 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M229" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N229" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O229" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P229" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18760,20 +18760,20 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M230" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O230" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P230" t="n">
-        <v>16250</v>
+        <v>13750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>2321</v>
+        <v>1964</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44231</v>
+        <v>44260</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18840,20 +18840,20 @@
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M231" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N231" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O231" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P231" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18920,20 +18920,20 @@
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M232" t="n">
         <v>200</v>
       </c>
       <c r="N232" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O232" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P232" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N233" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="O233" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="P233" t="n">
-        <v>15750</v>
+        <v>14250</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>2250</v>
+        <v>2036</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44313</v>
+        <v>44231</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M234" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N234" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O234" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P234" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N235" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O235" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P235" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19240,20 +19240,20 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M236" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N236" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O236" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P236" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44330</v>
+        <v>44313</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19320,20 +19320,20 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N237" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O237" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P237" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19400,20 +19400,20 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M238" t="n">
         <v>240</v>
       </c>
       <c r="N238" t="n">
-        <v>12000</v>
+        <v>19500</v>
       </c>
       <c r="O238" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="P238" t="n">
-        <v>12250</v>
+        <v>19750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1750</v>
+        <v>2821</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19480,20 +19480,20 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="N239" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O239" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P239" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44193</v>
+        <v>44330</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19560,20 +19560,20 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O240" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P240" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19640,20 +19640,20 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N241" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P241" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O242" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P242" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44351</v>
+        <v>44193</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O243" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P243" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N244" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P244" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N245" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="O245" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P245" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>2679</v>
+        <v>2250</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M246" t="n">
         <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O246" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P246" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N247" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O247" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P247" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20200,11 +20200,11 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M248" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N248" t="n">
         <v>15500</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44196</v>
+        <v>44350</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O249" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P249" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N250" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O250" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P250" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20440,20 +20440,20 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N251" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O251" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P251" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44315</v>
+        <v>44196</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20520,20 +20520,20 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M252" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O252" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O253" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="O254" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="P254" t="n">
-        <v>13750</v>
+        <v>14750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1964</v>
+        <v>2107</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44278</v>
+        <v>44315</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20760,11 +20760,11 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M255" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N255" t="n">
         <v>11500</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N256" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O256" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P256" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N257" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O257" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P257" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44358</v>
+        <v>44278</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>16000</v>
+        <v>9500</v>
       </c>
       <c r="O258" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="P258" t="n">
-        <v>16250</v>
+        <v>9750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2321</v>
+        <v>1393</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>200</v>
       </c>
       <c r="N259" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O259" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="P259" t="n">
-        <v>13250</v>
+        <v>18250</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1893</v>
+        <v>2607</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>22500</v>
+        <v>16000</v>
       </c>
       <c r="O260" t="n">
-        <v>23000</v>
+        <v>16500</v>
       </c>
       <c r="P260" t="n">
-        <v>22750</v>
+        <v>16250</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>3250</v>
+        <v>2321</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44389</v>
+        <v>44358</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>20500</v>
+        <v>13000</v>
       </c>
       <c r="O261" t="n">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="P261" t="n">
-        <v>20750</v>
+        <v>13250</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>2964</v>
+        <v>1893</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="O262" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P262" t="n">
-        <v>24750</v>
+        <v>22750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>3536</v>
+        <v>3250</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44399</v>
+        <v>44389</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N263" t="n">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="O263" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P263" t="n">
-        <v>19750</v>
+        <v>20750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2821</v>
+        <v>2964</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O264" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P264" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N265" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O265" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P265" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44305</v>
+        <v>44399</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N266" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O266" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P266" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M267" t="n">
         <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O267" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P267" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M268" t="n">
         <v>300</v>
       </c>
       <c r="N268" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O268" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P268" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44294</v>
+        <v>44305</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P269" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N270" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O270" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P270" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N271" t="n">
-        <v>27500</v>
+        <v>12500</v>
       </c>
       <c r="O271" t="n">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="P271" t="n">
-        <v>27750</v>
+        <v>12750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>3964</v>
+        <v>1821</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44417</v>
+        <v>44294</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N272" t="n">
-        <v>22500</v>
+        <v>10500</v>
       </c>
       <c r="O272" t="n">
-        <v>23000</v>
+        <v>11000</v>
       </c>
       <c r="P272" t="n">
-        <v>22750</v>
+        <v>10750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>3250</v>
+        <v>1536</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M273" t="n">
         <v>160</v>
       </c>
       <c r="N273" t="n">
-        <v>17500</v>
+        <v>27500</v>
       </c>
       <c r="O273" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P273" t="n">
-        <v>17750</v>
+        <v>27750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>2536</v>
+        <v>3964</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22280,20 +22280,20 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M274" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>27000</v>
+        <v>22500</v>
       </c>
       <c r="O274" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P274" t="n">
-        <v>27500</v>
+        <v>22750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>3929</v>
+        <v>3250</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44419</v>
+        <v>44417</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N275" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="O275" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P275" t="n">
-        <v>22500</v>
+        <v>17750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>3214</v>
+        <v>2536</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M276" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N276" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P276" t="n">
-        <v>17500</v>
+        <v>27500</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>2500</v>
+        <v>3929</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N277" t="n">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="O277" t="n">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="P277" t="n">
-        <v>23750</v>
+        <v>22500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>3393</v>
+        <v>3214</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44245</v>
+        <v>44419</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P278" t="n">
-        <v>15750</v>
+        <v>17500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>2250</v>
+        <v>2500</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44245</v>
+        <v>44420</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22687,13 +22687,13 @@
         <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="O279" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P279" t="n">
-        <v>13750</v>
+        <v>23750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1964</v>
+        <v>3393</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N280" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O280" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P280" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
         <v>240</v>
       </c>
       <c r="N281" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O281" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P281" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
         <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O282" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P282" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O283" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N284" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O284" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P284" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44369</v>
+        <v>44181</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="O285" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2536</v>
+        <v>1679</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N286" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O286" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P286" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
         <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O287" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P287" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44161</v>
+        <v>44369</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N288" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O288" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P288" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O289" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N290" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O290" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P290" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44195</v>
+        <v>44161</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M291" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O291" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P291" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="N292" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O292" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O293" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P293" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44159</v>
+        <v>44195</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N294" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O294" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P294" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N295" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O295" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P295" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N296" t="n">
-        <v>19500</v>
+        <v>12500</v>
       </c>
       <c r="O296" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>19750</v>
+        <v>12750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2821</v>
+        <v>1821</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44333</v>
+        <v>44159</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N297" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O297" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P297" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
         <v>240</v>
       </c>
       <c r="N298" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O298" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P298" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="O299" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="P299" t="n">
-        <v>15750</v>
+        <v>16750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2250</v>
+        <v>2393</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44201</v>
+        <v>44333</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O300" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P300" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N301" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O301" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P301" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,7 +24520,7 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44277</v>
+        <v>44201</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24600,11 +24600,11 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N303" t="n">
         <v>11500</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>9500</v>
+        <v>13500</v>
       </c>
       <c r="O304" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="P304" t="n">
-        <v>9750</v>
+        <v>13750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1393</v>
+        <v>1964</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O305" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P305" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44309</v>
+        <v>44277</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
         <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O306" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P306" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N307" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O307" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P307" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N308" t="n">
-        <v>18500</v>
+        <v>12500</v>
       </c>
       <c r="O308" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P308" t="n">
-        <v>18750</v>
+        <v>12750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2679</v>
+        <v>1821</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44344</v>
+        <v>44309</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O309" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N310" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P310" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N311" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O311" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P311" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44319</v>
+        <v>44344</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N312" t="n">
-        <v>14500</v>
+        <v>12500</v>
       </c>
       <c r="O312" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P312" t="n">
-        <v>14750</v>
+        <v>12750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2107</v>
+        <v>1821</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
         <v>240</v>
       </c>
       <c r="N313" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O313" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P313" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M314" t="n">
         <v>300</v>
       </c>
       <c r="N314" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O314" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P314" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44316</v>
+        <v>44319</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N315" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O315" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P315" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N316" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O316" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P316" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,11 +25720,11 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N317" t="n">
         <v>14500</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44253</v>
+        <v>44316</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>200</v>
       </c>
       <c r="N318" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O319" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25960,20 +25960,20 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O320" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P320" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44281</v>
+        <v>44253</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M321" t="n">
         <v>240</v>
       </c>
       <c r="N321" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="O321" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="P321" t="n">
-        <v>12250</v>
+        <v>9750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1750</v>
+        <v>1393</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N322" t="n">
-        <v>10000</v>
+        <v>14000</v>
       </c>
       <c r="O322" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="P322" t="n">
-        <v>10250</v>
+        <v>14250</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1464</v>
+        <v>2036</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N323" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P323" t="n">
-        <v>14750</v>
+        <v>12250</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>2107</v>
+        <v>1750</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44160</v>
+        <v>44281</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>300</v>
       </c>
       <c r="N324" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="O324" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="P324" t="n">
-        <v>12750</v>
+        <v>10250</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1821</v>
+        <v>1464</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N325" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O325" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>300</v>
       </c>
       <c r="N326" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O326" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P326" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44186</v>
+        <v>44160</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
         <v>240</v>
       </c>
       <c r="N327" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O327" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P327" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O328" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P328" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M329" t="n">
         <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O329" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="P329" t="n">
-        <v>15250</v>
+        <v>15750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2179</v>
+        <v>2250</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44211</v>
+        <v>44186</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N330" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O330" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P330" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1893</v>
+        <v>1679</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O331" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="P331" t="n">
-        <v>11250</v>
+        <v>15250</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1607</v>
+        <v>2179</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>240</v>
       </c>
       <c r="N332" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P332" t="n">
-        <v>14750</v>
+        <v>13250</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44301</v>
+        <v>44211</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O333" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P333" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M334" t="n">
         <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O334" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P334" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O335" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P335" t="n">
-        <v>16250</v>
+        <v>12750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>2321</v>
+        <v>1821</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44232</v>
+        <v>44301</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O336" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P336" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27320,20 +27320,20 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M337" t="n">
         <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O337" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P337" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27400,20 +27400,20 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M338" t="n">
         <v>240</v>
       </c>
       <c r="N338" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O338" t="n">
         <v>14500</v>
       </c>
-      <c r="O338" t="n">
-        <v>15000</v>
-      </c>
       <c r="P338" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44270</v>
+        <v>44232</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N339" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O339" t="n">
         <v>12500</v>
       </c>
-      <c r="O339" t="n">
-        <v>13000</v>
-      </c>
       <c r="P339" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O340" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P340" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="N341" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O341" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44355</v>
+        <v>44270</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="N342" t="n">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="O342" t="n">
-        <v>16000</v>
+        <v>10000</v>
       </c>
       <c r="P342" t="n">
-        <v>15750</v>
+        <v>9750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2250</v>
+        <v>1393</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="N343" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O343" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P343" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N344" t="n">
-        <v>17000</v>
+        <v>15500</v>
       </c>
       <c r="O344" t="n">
-        <v>17500</v>
+        <v>16000</v>
       </c>
       <c r="P344" t="n">
-        <v>17250</v>
+        <v>15750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2464</v>
+        <v>2250</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44217</v>
+        <v>44355</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N345" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O345" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="P345" t="n">
-        <v>15250</v>
+        <v>11750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>2179</v>
+        <v>1679</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M346" t="n">
         <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O346" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="P346" t="n">
-        <v>12250</v>
+        <v>17250</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1750</v>
+        <v>2464</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
         <v>240</v>
       </c>
       <c r="N347" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O347" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P347" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44343</v>
+        <v>44217</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N348" t="n">
-        <v>15500</v>
+        <v>12000</v>
       </c>
       <c r="O348" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="P348" t="n">
-        <v>15750</v>
+        <v>12250</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O349" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P349" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28360,20 +28360,20 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M350" t="n">
         <v>300</v>
       </c>
       <c r="N350" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O350" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P350" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44376</v>
+        <v>44343</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28440,20 +28440,20 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M351" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N351" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O351" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P351" t="n">
-        <v>18500</v>
+        <v>12750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2643</v>
+        <v>1821</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28527,13 +28527,13 @@
         <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O352" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P352" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44208</v>
+        <v>44376</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N353" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="O353" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P353" t="n">
-        <v>13750</v>
+        <v>18500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1964</v>
+        <v>2643</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
         <v>15500</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44179</v>
+        <v>44208</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N355" t="n">
         <v>13500</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M356" t="n">
         <v>240</v>
       </c>
       <c r="N356" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O356" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P356" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N357" t="n">
-        <v>19000</v>
+        <v>13500</v>
       </c>
       <c r="O357" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P357" t="n">
-        <v>19500</v>
+        <v>13750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2786</v>
+        <v>1964</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44334</v>
+        <v>44179</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N358" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O358" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P358" t="n">
-        <v>16500</v>
+        <v>11750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2357</v>
+        <v>1679</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N359" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="O359" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="P359" t="n">
-        <v>15250</v>
+        <v>19500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2179</v>
+        <v>2786</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44168</v>
+        <v>44334</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29167,13 +29167,13 @@
         <v>300</v>
       </c>
       <c r="N360" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P360" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29240,35 +29240,195 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M361" t="n">
+        <v>200</v>
+      </c>
+      <c r="N361" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O361" t="n">
+        <v>15500</v>
+      </c>
+      <c r="P361" t="n">
+        <v>15250</v>
+      </c>
+      <c r="Q361" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R361" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S361" t="n">
+        <v>2179</v>
+      </c>
+      <c r="T361" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>8</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E362" t="n">
+        <v>4</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G362" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I362" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M362" t="n">
+        <v>300</v>
+      </c>
+      <c r="N362" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O362" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P362" t="n">
+        <v>12750</v>
+      </c>
+      <c r="Q362" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R362" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S362" t="n">
+        <v>1821</v>
+      </c>
+      <c r="T362" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>8</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="E363" t="n">
+        <v>4</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G363" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I363" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M361" t="n">
+      <c r="M363" t="n">
         <v>300</v>
       </c>
-      <c r="N361" t="n">
+      <c r="N363" t="n">
         <v>10500</v>
       </c>
-      <c r="O361" t="n">
+      <c r="O363" t="n">
         <v>11000</v>
       </c>
-      <c r="P361" t="n">
+      <c r="P363" t="n">
         <v>10750</v>
       </c>
-      <c r="Q361" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R361" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S361" t="n">
+      <c r="Q363" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R363" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S363" t="n">
         <v>1536</v>
       </c>
-      <c r="T361" t="n">
+      <c r="T363" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T373"/>
+  <dimension ref="A1:T375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="O364" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P364" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2214</v>
+        <v>3786</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N365" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O365" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P365" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N366" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O366" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P366" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N367" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O367" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P367" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
         <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="O368" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P368" t="n">
-        <v>24750</v>
+        <v>13750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>3536</v>
+        <v>1964</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N369" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="O369" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P369" t="n">
-        <v>19750</v>
+        <v>11750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2821</v>
+        <v>1679</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O370" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P370" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N371" t="n">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="O371" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P371" t="n">
-        <v>25750</v>
+        <v>19750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>3679</v>
+        <v>2821</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N372" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="O372" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P372" t="n">
-        <v>20750</v>
+        <v>16750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2964</v>
+        <v>2393</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30200,35 +30200,195 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
         <v>240</v>
       </c>
       <c r="N373" t="n">
+        <v>25500</v>
+      </c>
+      <c r="O373" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P373" t="n">
+        <v>25750</v>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S373" t="n">
+        <v>3679</v>
+      </c>
+      <c r="T373" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>8</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D374" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E374" t="n">
+        <v>4</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G374" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I374" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M374" t="n">
+        <v>240</v>
+      </c>
+      <c r="N374" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O374" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P374" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S374" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T374" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>8</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D375" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E375" t="n">
+        <v>4</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G375" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I375" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M375" t="n">
+        <v>240</v>
+      </c>
+      <c r="N375" t="n">
         <v>17500</v>
       </c>
-      <c r="O373" t="n">
+      <c r="O375" t="n">
         <v>18000</v>
       </c>
-      <c r="P373" t="n">
+      <c r="P375" t="n">
         <v>17750</v>
       </c>
-      <c r="Q373" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R373" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S373" t="n">
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S375" t="n">
         <v>2536</v>
       </c>
-      <c r="T373" t="n">
+      <c r="T375" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T375"/>
+  <dimension ref="A1:T377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27960,20 +27960,20 @@
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N345" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O345" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P345" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28040,20 +28040,20 @@
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O346" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P346" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M347" t="n">
         <v>240</v>
       </c>
       <c r="N347" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O347" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P347" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N348" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O348" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O349" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P349" t="n">
-        <v>20500</v>
+        <v>10750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2929</v>
+        <v>1536</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N351" t="n">
         <v>20000</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N352" t="n">
         <v>25000</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N353" t="n">
         <v>20000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="N354" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O354" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P354" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N355" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O355" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P355" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="N356" t="n">
-        <v>16500</v>
+        <v>26500</v>
       </c>
       <c r="O356" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="P356" t="n">
-        <v>16750</v>
+        <v>26750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2393</v>
+        <v>3821</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28920,20 +28920,20 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M357" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N357" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O357" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P357" t="n">
-        <v>14750</v>
+        <v>20646</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2107</v>
+        <v>2949</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
         <v>240</v>
       </c>
       <c r="N358" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O358" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P358" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N359" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P359" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M360" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O360" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P360" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
         <v>200</v>
       </c>
       <c r="N361" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O361" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P361" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
         <v>300</v>
       </c>
       <c r="N362" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O362" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P362" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2929</v>
+        <v>2107</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M363" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N363" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O363" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P363" t="n">
-        <v>18500</v>
+        <v>12750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2643</v>
+        <v>1821</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
         <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O364" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="P364" t="n">
-        <v>26500</v>
+        <v>20500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>3786</v>
+        <v>2929</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N365" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O365" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P365" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2929</v>
+        <v>2643</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M366" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N366" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="O366" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P366" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2214</v>
+        <v>3786</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N367" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O367" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P367" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N368" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O368" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P368" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N369" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O369" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P369" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
         <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="O370" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P370" t="n">
-        <v>24750</v>
+        <v>13750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>3536</v>
+        <v>1964</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N371" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="O371" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P371" t="n">
-        <v>19750</v>
+        <v>11750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2821</v>
+        <v>1679</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M372" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N372" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O372" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P372" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N373" t="n">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="O373" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P373" t="n">
-        <v>25750</v>
+        <v>19750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>3679</v>
+        <v>2821</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N374" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="O374" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P374" t="n">
-        <v>20750</v>
+        <v>16750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2964</v>
+        <v>2393</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30360,35 +30360,195 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M375" t="n">
         <v>240</v>
       </c>
       <c r="N375" t="n">
+        <v>25500</v>
+      </c>
+      <c r="O375" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P375" t="n">
+        <v>25750</v>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S375" t="n">
+        <v>3679</v>
+      </c>
+      <c r="T375" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>8</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D376" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E376" t="n">
+        <v>4</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G376" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I376" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M376" t="n">
+        <v>240</v>
+      </c>
+      <c r="N376" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O376" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P376" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S376" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T376" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>8</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D377" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E377" t="n">
+        <v>4</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G377" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I377" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M377" t="n">
+        <v>240</v>
+      </c>
+      <c r="N377" t="n">
         <v>17500</v>
       </c>
-      <c r="O375" t="n">
+      <c r="O377" t="n">
         <v>18000</v>
       </c>
-      <c r="P375" t="n">
+      <c r="P377" t="n">
         <v>17750</v>
       </c>
-      <c r="Q375" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R375" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S375" t="n">
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S377" t="n">
         <v>2536</v>
       </c>
-      <c r="T375" t="n">
+      <c r="T377" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T377"/>
+  <dimension ref="A1:T379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20600,20 +20600,20 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M253" t="n">
         <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>18000</v>
+        <v>25000</v>
       </c>
       <c r="O253" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="P253" t="n">
-        <v>18250</v>
+        <v>25500</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>2607</v>
+        <v>3643</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44358</v>
+        <v>44452</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20680,20 +20680,20 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M254" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N254" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O254" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P254" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20760,20 +20760,20 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M255" t="n">
         <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O255" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="P255" t="n">
-        <v>13250</v>
+        <v>18250</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1893</v>
+        <v>2607</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20840,20 +20840,20 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="O256" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="P256" t="n">
-        <v>17250</v>
+        <v>16250</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2464</v>
+        <v>2321</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44218</v>
+        <v>44358</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O257" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="P257" t="n">
-        <v>15250</v>
+        <v>13250</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2179</v>
+        <v>1893</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N258" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="O258" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="P258" t="n">
-        <v>12250</v>
+        <v>17250</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1750</v>
+        <v>2464</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44291</v>
+        <v>44218</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
         <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O259" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P259" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44291</v>
+        <v>44218</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21160,20 +21160,20 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M260" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O260" t="n">
         <v>12500</v>
       </c>
-      <c r="O260" t="n">
-        <v>13000</v>
-      </c>
       <c r="P260" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21240,20 +21240,20 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O261" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P261" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21320,20 +21320,20 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M262" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N262" t="n">
-        <v>28500</v>
+        <v>12500</v>
       </c>
       <c r="O262" t="n">
-        <v>29000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>28750</v>
+        <v>12750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>4107</v>
+        <v>1821</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44421</v>
+        <v>44291</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21400,20 +21400,20 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>23500</v>
+        <v>10500</v>
       </c>
       <c r="O263" t="n">
-        <v>24000</v>
+        <v>11000</v>
       </c>
       <c r="P263" t="n">
-        <v>23750</v>
+        <v>10750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>3393</v>
+        <v>1536</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21480,20 +21480,20 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M264" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N264" t="n">
-        <v>17500</v>
+        <v>28500</v>
       </c>
       <c r="O264" t="n">
-        <v>18000</v>
+        <v>29000</v>
       </c>
       <c r="P264" t="n">
-        <v>17750</v>
+        <v>28750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2536</v>
+        <v>4107</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21567,13 +21567,13 @@
         <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>26500</v>
+        <v>23500</v>
       </c>
       <c r="O265" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="P265" t="n">
-        <v>26750</v>
+        <v>23750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>3821</v>
+        <v>3393</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44434</v>
+        <v>44421</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>20500</v>
+        <v>17500</v>
       </c>
       <c r="O266" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P266" t="n">
-        <v>20750</v>
+        <v>17750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>2964</v>
+        <v>2536</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>17000</v>
+        <v>26500</v>
       </c>
       <c r="O267" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P267" t="n">
-        <v>17500</v>
+        <v>26750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2500</v>
+        <v>3821</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44215</v>
+        <v>44434</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21800,20 +21800,20 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M268" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="N268" t="n">
-        <v>15000</v>
+        <v>20500</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P268" t="n">
-        <v>15500</v>
+        <v>20750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2214</v>
+        <v>2964</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21880,20 +21880,20 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>12500</v>
+        <v>17000</v>
       </c>
       <c r="O269" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P269" t="n">
-        <v>12750</v>
+        <v>17500</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1821</v>
+        <v>2500</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21960,20 +21960,20 @@
       </c>
       <c r="L270" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M270" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N270" t="n">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="O270" t="n">
         <v>16000</v>
       </c>
       <c r="P270" t="n">
-        <v>15750</v>
+        <v>15500</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>2250</v>
+        <v>2214</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44194</v>
+        <v>44215</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O271" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P271" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N272" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="O272" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="P272" t="n">
-        <v>11750</v>
+        <v>15750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1679</v>
+        <v>2250</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="N273" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O273" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P273" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44222</v>
+        <v>44194</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22284,7 +22284,7 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
         <v>11500</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22360,20 +22360,20 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N275" t="n">
-        <v>28500</v>
+        <v>14500</v>
       </c>
       <c r="O275" t="n">
-        <v>29000</v>
+        <v>15000</v>
       </c>
       <c r="P275" t="n">
-        <v>28750</v>
+        <v>14750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>4107</v>
+        <v>2107</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44420</v>
+        <v>44222</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22440,20 +22440,20 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M276" t="n">
         <v>240</v>
       </c>
       <c r="N276" t="n">
-        <v>23500</v>
+        <v>11500</v>
       </c>
       <c r="O276" t="n">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="P276" t="n">
-        <v>23750</v>
+        <v>11750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>3393</v>
+        <v>1679</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N277" t="n">
-        <v>15500</v>
+        <v>28500</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>29000</v>
       </c>
       <c r="P277" t="n">
-        <v>15750</v>
+        <v>28750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2250</v>
+        <v>4107</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44264</v>
+        <v>44420</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P278" t="n">
-        <v>13750</v>
+        <v>23750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1964</v>
+        <v>3393</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="N279" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P279" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N280" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O280" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P280" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44348</v>
+        <v>44264</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N281" t="n">
-        <v>16500</v>
+        <v>10500</v>
       </c>
       <c r="O281" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P281" t="n">
-        <v>16750</v>
+        <v>10750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>2393</v>
+        <v>1536</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N282" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O282" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P282" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44263</v>
+        <v>44348</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N283" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O283" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P283" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P284" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="O285" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P285" t="n">
-        <v>16750</v>
+        <v>13750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2393</v>
+        <v>1964</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44316</v>
+        <v>44263</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O286" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P286" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O287" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P287" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O288" t="n">
         <v>15000</v>
       </c>
-      <c r="O288" t="n">
-        <v>15500</v>
-      </c>
       <c r="P288" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44210</v>
+        <v>44316</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23480,20 +23480,20 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M289" t="n">
         <v>200</v>
       </c>
       <c r="N289" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O289" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="P289" t="n">
-        <v>13250</v>
+        <v>11750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1893</v>
+        <v>1679</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23560,20 +23560,20 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M290" t="n">
         <v>240</v>
       </c>
       <c r="N290" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O290" t="n">
-        <v>11500</v>
+        <v>15500</v>
       </c>
       <c r="P290" t="n">
-        <v>11250</v>
+        <v>15250</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1607</v>
+        <v>2179</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23640,20 +23640,20 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M291" t="n">
         <v>200</v>
       </c>
       <c r="N291" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="O291" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="P291" t="n">
-        <v>14750</v>
+        <v>13250</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2107</v>
+        <v>1893</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44253</v>
+        <v>44210</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N292" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O292" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P292" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N293" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="O293" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P293" t="n">
-        <v>9750</v>
+        <v>14750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1393</v>
+        <v>2107</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23887,13 +23887,13 @@
         <v>200</v>
       </c>
       <c r="N294" t="n">
-        <v>25500</v>
+        <v>12500</v>
       </c>
       <c r="O294" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P294" t="n">
-        <v>25750</v>
+        <v>12750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>3679</v>
+        <v>1821</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44427</v>
+        <v>44253</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>19500</v>
+        <v>9500</v>
       </c>
       <c r="O295" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P295" t="n">
-        <v>19750</v>
+        <v>9750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>2821</v>
+        <v>1393</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N296" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="O296" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="P296" t="n">
-        <v>18500</v>
+        <v>25750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2643</v>
+        <v>3679</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44341</v>
+        <v>44427</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N297" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="O297" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P297" t="n">
-        <v>15500</v>
+        <v>19750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2214</v>
+        <v>2821</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N298" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O298" t="n">
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="P298" t="n">
-        <v>13500</v>
+        <v>18500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1929</v>
+        <v>2643</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O299" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P299" t="n">
-        <v>26750</v>
+        <v>15500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>3821</v>
+        <v>2214</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44414</v>
+        <v>44341</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M300" t="n">
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="O300" t="n">
-        <v>22000</v>
+        <v>14000</v>
       </c>
       <c r="P300" t="n">
-        <v>21750</v>
+        <v>13500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>3107</v>
+        <v>1929</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N301" t="n">
-        <v>17500</v>
+        <v>26500</v>
       </c>
       <c r="O301" t="n">
-        <v>18000</v>
+        <v>27000</v>
       </c>
       <c r="P301" t="n">
-        <v>17750</v>
+        <v>26750</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>2536</v>
+        <v>3821</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M302" t="n">
         <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O302" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P302" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44301</v>
+        <v>44414</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24600,20 +24600,20 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N303" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="O303" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P303" t="n">
-        <v>12750</v>
+        <v>17750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1821</v>
+        <v>2536</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24680,20 +24680,20 @@
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M304" t="n">
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O304" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24760,20 +24760,20 @@
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M305" t="n">
         <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O305" t="n">
-        <v>16500</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>16250</v>
+        <v>12750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>2321</v>
+        <v>1821</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44176</v>
+        <v>44301</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>14000</v>
+        <v>10500</v>
       </c>
       <c r="O306" t="n">
-        <v>14500</v>
+        <v>11000</v>
       </c>
       <c r="P306" t="n">
-        <v>14250</v>
+        <v>10750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2036</v>
+        <v>1536</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N307" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="O307" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="P307" t="n">
-        <v>12250</v>
+        <v>16250</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1750</v>
+        <v>2321</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N308" t="n">
-        <v>27500</v>
+        <v>14000</v>
       </c>
       <c r="O308" t="n">
-        <v>28000</v>
+        <v>14500</v>
       </c>
       <c r="P308" t="n">
-        <v>27750</v>
+        <v>14250</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>3964</v>
+        <v>2036</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44417</v>
+        <v>44176</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25080,20 +25080,20 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
-        <v>22500</v>
+        <v>12000</v>
       </c>
       <c r="O309" t="n">
-        <v>23000</v>
+        <v>12500</v>
       </c>
       <c r="P309" t="n">
-        <v>22750</v>
+        <v>12250</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>3250</v>
+        <v>1750</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M310" t="n">
         <v>160</v>
       </c>
       <c r="N310" t="n">
-        <v>17500</v>
+        <v>27500</v>
       </c>
       <c r="O310" t="n">
-        <v>18000</v>
+        <v>28000</v>
       </c>
       <c r="P310" t="n">
-        <v>17750</v>
+        <v>27750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2536</v>
+        <v>3964</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O311" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P311" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44441</v>
+        <v>44417</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N312" t="n">
-        <v>20000</v>
+        <v>17500</v>
       </c>
       <c r="O312" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P312" t="n">
-        <v>20500</v>
+        <v>17750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2929</v>
+        <v>2536</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N313" t="n">
-        <v>18500</v>
+        <v>25000</v>
       </c>
       <c r="O313" t="n">
-        <v>19000</v>
+        <v>26000</v>
       </c>
       <c r="P313" t="n">
-        <v>18750</v>
+        <v>25500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>2679</v>
+        <v>3643</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44351</v>
+        <v>44441</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N314" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O314" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P314" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25560,20 +25560,20 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N315" t="n">
-        <v>12500</v>
+        <v>18500</v>
       </c>
       <c r="O315" t="n">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="P315" t="n">
-        <v>12750</v>
+        <v>18750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1821</v>
+        <v>2679</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N316" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O316" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P316" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44369</v>
+        <v>44351</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N317" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O317" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N318" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O318" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O319" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P319" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44257</v>
+        <v>44369</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25960,11 +25960,11 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M320" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
         <v>13500</v>
@@ -26040,20 +26040,20 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N321" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O321" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P321" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N322" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O322" t="n">
         <v>14000</v>
       </c>
-      <c r="O322" t="n">
-        <v>14500</v>
-      </c>
       <c r="P322" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44273</v>
+        <v>44257</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O323" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P323" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>9000</v>
+        <v>14000</v>
       </c>
       <c r="O324" t="n">
-        <v>9500</v>
+        <v>14500</v>
       </c>
       <c r="P324" t="n">
-        <v>9250</v>
+        <v>14250</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1321</v>
+        <v>2036</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N325" t="n">
-        <v>14500</v>
+        <v>12000</v>
       </c>
       <c r="O325" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="P325" t="n">
-        <v>14750</v>
+        <v>12250</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2107</v>
+        <v>1750</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44294</v>
+        <v>44273</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>12500</v>
+        <v>9000</v>
       </c>
       <c r="O326" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="P326" t="n">
-        <v>12750</v>
+        <v>9250</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1821</v>
+        <v>1321</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O327" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P327" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>23500</v>
+        <v>12500</v>
       </c>
       <c r="O328" t="n">
-        <v>24000</v>
+        <v>13000</v>
       </c>
       <c r="P328" t="n">
-        <v>23750</v>
+        <v>12750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>3393</v>
+        <v>1821</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44379</v>
+        <v>44294</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M329" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N329" t="n">
-        <v>21500</v>
+        <v>10500</v>
       </c>
       <c r="O329" t="n">
-        <v>22000</v>
+        <v>11000</v>
       </c>
       <c r="P329" t="n">
-        <v>21750</v>
+        <v>10750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>3107</v>
+        <v>1536</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M330" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N330" t="n">
-        <v>15500</v>
+        <v>23500</v>
       </c>
       <c r="O330" t="n">
-        <v>16000</v>
+        <v>24000</v>
       </c>
       <c r="P330" t="n">
-        <v>15750</v>
+        <v>23750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2250</v>
+        <v>3393</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O331" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P331" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44302</v>
+        <v>44379</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M332" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N332" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P332" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O333" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P333" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M334" t="n">
         <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O334" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P334" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44315</v>
+        <v>44302</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27160,20 +27160,20 @@
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M335" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P335" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27240,20 +27240,20 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M336" t="n">
         <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P336" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N337" t="n">
-        <v>26000</v>
+        <v>14500</v>
       </c>
       <c r="O337" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>26500</v>
+        <v>14750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>3786</v>
+        <v>2107</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44446</v>
+        <v>44315</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O338" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>20500</v>
+        <v>11750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>2929</v>
+        <v>1679</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27480,20 +27480,20 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M339" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="N339" t="n">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="O339" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P339" t="n">
-        <v>15750</v>
+        <v>26500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>2250</v>
+        <v>3786</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44313</v>
+        <v>44446</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27560,20 +27560,20 @@
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M340" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>13500</v>
+        <v>20000</v>
       </c>
       <c r="O340" t="n">
-        <v>14000</v>
+        <v>21000</v>
       </c>
       <c r="P340" t="n">
-        <v>13750</v>
+        <v>20500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1964</v>
+        <v>2929</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27640,20 +27640,20 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N341" t="n">
-        <v>10500</v>
+        <v>15500</v>
       </c>
       <c r="O341" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P341" t="n">
-        <v>10750</v>
+        <v>15750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1536</v>
+        <v>2250</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27720,20 +27720,20 @@
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M342" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N342" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O342" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P342" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44329</v>
+        <v>44313</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27800,20 +27800,20 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M343" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N343" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O343" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P343" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27880,20 +27880,20 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M344" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P344" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27967,13 +27967,13 @@
         <v>300</v>
       </c>
       <c r="N345" t="n">
-        <v>26000</v>
+        <v>17500</v>
       </c>
       <c r="O345" t="n">
-        <v>27000</v>
+        <v>18000</v>
       </c>
       <c r="P345" t="n">
-        <v>26500</v>
+        <v>17750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>3786</v>
+        <v>2536</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44449</v>
+        <v>44329</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O346" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P346" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28120,20 +28120,20 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M347" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N347" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O347" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P347" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28200,20 +28200,20 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O348" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P348" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28280,20 +28280,20 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M349" t="n">
         <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="O349" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="P349" t="n">
-        <v>10750</v>
+        <v>14750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>1536</v>
+        <v>2107</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N350" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O350" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N351" t="n">
-        <v>20000</v>
+        <v>10500</v>
       </c>
       <c r="O351" t="n">
-        <v>21000</v>
+        <v>11000</v>
       </c>
       <c r="P351" t="n">
-        <v>20500</v>
+        <v>10750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2929</v>
+        <v>1536</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N353" t="n">
         <v>20000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N354" t="n">
         <v>25000</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N355" t="n">
         <v>20000</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="N356" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O356" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P356" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="N357" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O357" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P357" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="N358" t="n">
-        <v>16500</v>
+        <v>26500</v>
       </c>
       <c r="O358" t="n">
-        <v>17000</v>
+        <v>27000</v>
       </c>
       <c r="P358" t="n">
-        <v>16750</v>
+        <v>26750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2393</v>
+        <v>3821</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="N359" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O359" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P359" t="n">
-        <v>14750</v>
+        <v>20646</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2107</v>
+        <v>2949</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29160,20 +29160,20 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M360" t="n">
         <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>11500</v>
+        <v>16500</v>
       </c>
       <c r="O360" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="P360" t="n">
-        <v>11750</v>
+        <v>16750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1679</v>
+        <v>2393</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O361" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P361" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N362" t="n">
-        <v>14500</v>
+        <v>11500</v>
       </c>
       <c r="O362" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="P362" t="n">
-        <v>14750</v>
+        <v>11750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2107</v>
+        <v>1679</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29400,20 +29400,20 @@
       </c>
       <c r="L363" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M363" t="n">
         <v>200</v>
       </c>
       <c r="N363" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O363" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P363" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M364" t="n">
         <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O364" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2929</v>
+        <v>2107</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N365" t="n">
-        <v>18000</v>
+        <v>12500</v>
       </c>
       <c r="O365" t="n">
-        <v>19000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>18500</v>
+        <v>12750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2643</v>
+        <v>1821</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29640,20 +29640,20 @@
       </c>
       <c r="L366" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M366" t="n">
         <v>300</v>
       </c>
       <c r="N366" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="O366" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="P366" t="n">
-        <v>26500</v>
+        <v>20500</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>3786</v>
+        <v>2929</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44448</v>
+        <v>44376</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N367" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="O367" t="n">
-        <v>21000</v>
+        <v>19000</v>
       </c>
       <c r="P367" t="n">
-        <v>20500</v>
+        <v>18500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2929</v>
+        <v>2643</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N368" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="O368" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P368" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2214</v>
+        <v>3786</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N369" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O369" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P369" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N370" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O370" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P370" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N371" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="O371" t="n">
-        <v>12000</v>
+        <v>16500</v>
       </c>
       <c r="P371" t="n">
-        <v>11750</v>
+        <v>16250</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1679</v>
+        <v>2321</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30120,20 +30120,20 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M372" t="n">
         <v>240</v>
       </c>
       <c r="N372" t="n">
-        <v>24500</v>
+        <v>13500</v>
       </c>
       <c r="O372" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="P372" t="n">
-        <v>24750</v>
+        <v>13750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>3536</v>
+        <v>1964</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>19500</v>
+        <v>11500</v>
       </c>
       <c r="O373" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="P373" t="n">
-        <v>19750</v>
+        <v>11750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2821</v>
+        <v>1679</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N374" t="n">
-        <v>16500</v>
+        <v>24500</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>25000</v>
       </c>
       <c r="P374" t="n">
-        <v>16750</v>
+        <v>24750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2393</v>
+        <v>3536</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N375" t="n">
-        <v>25500</v>
+        <v>19500</v>
       </c>
       <c r="O375" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P375" t="n">
-        <v>25750</v>
+        <v>19750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>3679</v>
+        <v>2821</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>20500</v>
+        <v>16500</v>
       </c>
       <c r="O376" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P376" t="n">
-        <v>20750</v>
+        <v>16750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2964</v>
+        <v>2393</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30520,35 +30520,195 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M377" t="n">
         <v>240</v>
       </c>
       <c r="N377" t="n">
+        <v>25500</v>
+      </c>
+      <c r="O377" t="n">
+        <v>26000</v>
+      </c>
+      <c r="P377" t="n">
+        <v>25750</v>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S377" t="n">
+        <v>3679</v>
+      </c>
+      <c r="T377" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>8</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E378" t="n">
+        <v>4</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G378" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I378" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M378" t="n">
+        <v>240</v>
+      </c>
+      <c r="N378" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O378" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P378" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S378" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T378" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>8</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D379" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E379" t="n">
+        <v>4</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G379" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I379" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M379" t="n">
+        <v>240</v>
+      </c>
+      <c r="N379" t="n">
         <v>17500</v>
       </c>
-      <c r="O377" t="n">
+      <c r="O379" t="n">
         <v>18000</v>
       </c>
-      <c r="P377" t="n">
+      <c r="P379" t="n">
         <v>17750</v>
       </c>
-      <c r="Q377" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R377" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S377" t="n">
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S379" t="n">
         <v>2536</v>
       </c>
-      <c r="T377" t="n">
+      <c r="T379" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T390"/>
+  <dimension ref="A1:T393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="O254" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P254" t="n">
-        <v>26750</v>
+        <v>29500</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>3821</v>
+        <v>4214</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N255" t="n">
-        <v>21500</v>
+        <v>24000</v>
       </c>
       <c r="O255" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P255" t="n">
-        <v>21750</v>
+        <v>24500</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>3107</v>
+        <v>3500</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44414</v>
+        <v>44455</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="O256" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P256" t="n">
-        <v>17750</v>
+        <v>19500</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2536</v>
+        <v>2786</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P257" t="n">
-        <v>15750</v>
+        <v>26750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2250</v>
+        <v>3821</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N258" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="O258" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P258" t="n">
-        <v>25750</v>
+        <v>21750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>3679</v>
+        <v>3107</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N259" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="O259" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P259" t="n">
-        <v>19750</v>
+        <v>17750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2821</v>
+        <v>2536</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O260" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="O261" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P261" t="n">
-        <v>15750</v>
+        <v>25750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>2250</v>
+        <v>3679</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O262" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P262" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="O263" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P263" t="n">
-        <v>22750</v>
+        <v>17750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>3250</v>
+        <v>2536</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N264" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="O264" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P264" t="n">
-        <v>20750</v>
+        <v>15750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2964</v>
+        <v>2250</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44343</v>
+        <v>44172</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21560,20 +21560,20 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M265" t="n">
         <v>240</v>
       </c>
       <c r="N265" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O265" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P265" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21640,20 +21640,20 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N266" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="O266" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P266" t="n">
-        <v>15750</v>
+        <v>22750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21720,20 +21720,20 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N267" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="O267" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P267" t="n">
-        <v>12750</v>
+        <v>20750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1821</v>
+        <v>2964</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N268" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O268" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P268" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O269" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P269" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21967,13 +21967,13 @@
         <v>200</v>
       </c>
       <c r="N270" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O270" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P270" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N271" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O271" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="P271" t="n">
-        <v>14250</v>
+        <v>15750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>2036</v>
+        <v>2250</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N272" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O272" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P272" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1750</v>
+        <v>1964</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O273" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P273" t="n">
-        <v>10244</v>
+        <v>11750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1463</v>
+        <v>1679</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22287,13 +22287,13 @@
         <v>240</v>
       </c>
       <c r="N274" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O274" t="n">
         <v>14500</v>
       </c>
-      <c r="O274" t="n">
-        <v>15000</v>
-      </c>
       <c r="P274" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O275" t="n">
         <v>12500</v>
       </c>
-      <c r="O275" t="n">
-        <v>13000</v>
-      </c>
       <c r="P275" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="N276" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O276" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P276" t="n">
-        <v>9750</v>
+        <v>10244</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1393</v>
+        <v>1463</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O277" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N278" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O278" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P279" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22764,7 +22764,7 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N280" t="n">
         <v>15500</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,7 +22844,7 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N281" t="n">
         <v>13500</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,7 +23004,7 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
         <v>15500</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23084,7 +23084,7 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N284" t="n">
         <v>13500</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
         <v>10500</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O286" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P286" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O287" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P287" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O288" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N289" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="O289" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P289" t="n">
-        <v>22500</v>
+        <v>17750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>3214</v>
+        <v>2536</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O290" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P290" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N291" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O291" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P291" t="n">
-        <v>18500</v>
+        <v>11750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2643</v>
+        <v>1679</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N292" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O292" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P292" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>3536</v>
+        <v>3214</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="O293" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P293" t="n">
-        <v>22750</v>
+        <v>20500</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>3250</v>
+        <v>2929</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23887,13 +23887,13 @@
         <v>240</v>
       </c>
       <c r="N294" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O294" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P294" t="n">
-        <v>16750</v>
+        <v>18500</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>2393</v>
+        <v>2643</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="O295" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P295" t="n">
-        <v>14750</v>
+        <v>24750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>2107</v>
+        <v>3536</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N296" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="O296" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P296" t="n">
-        <v>12750</v>
+        <v>22750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1821</v>
+        <v>3250</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24127,13 +24127,13 @@
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O297" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P297" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O298" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P298" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O299" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N300" t="n">
         <v>10500</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N301" t="n">
         <v>15500</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24524,7 +24524,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N302" t="n">
         <v>13500</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24607,13 +24607,13 @@
         <v>200</v>
       </c>
       <c r="N303" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O303" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P303" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N304" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O304" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P304" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N305" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O305" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P305" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N306" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O306" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P306" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N307" t="n">
         <v>14500</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25004,7 +25004,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N308" t="n">
         <v>12500</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O309" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1393</v>
+        <v>1536</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N310" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O310" t="n">
         <v>15000</v>
       </c>
-      <c r="O310" t="n">
-        <v>16000</v>
-      </c>
       <c r="P310" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M311" t="n">
         <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O311" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>15250</v>
+        <v>12750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2179</v>
+        <v>1821</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,20 +25320,20 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N312" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O312" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P312" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N313" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O313" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P313" t="n">
-        <v>10750</v>
+        <v>15500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1536</v>
+        <v>2214</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O314" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="P314" t="n">
-        <v>19750</v>
+        <v>15250</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>2821</v>
+        <v>2179</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O315" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P315" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N316" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O316" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P316" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>300</v>
       </c>
       <c r="N317" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O317" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P317" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M318" t="n">
         <v>240</v>
       </c>
       <c r="N318" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P318" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N319" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O319" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P319" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25967,13 +25967,13 @@
         <v>300</v>
       </c>
       <c r="N320" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="O320" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P320" t="n">
-        <v>17750</v>
+        <v>14750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2536</v>
+        <v>2107</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O321" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N322" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="O322" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P322" t="n">
-        <v>16750</v>
+        <v>19750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2393</v>
+        <v>2821</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26207,13 +26207,13 @@
         <v>300</v>
       </c>
       <c r="N323" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P323" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26287,13 +26287,13 @@
         <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P324" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O325" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P325" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26447,13 +26447,13 @@
         <v>300</v>
       </c>
       <c r="N326" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1679</v>
+        <v>2107</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O327" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26607,13 +26607,13 @@
         <v>240</v>
       </c>
       <c r="N328" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O328" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P328" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N329" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O329" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P329" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N330" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O330" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P330" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O331" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26927,13 +26927,13 @@
         <v>240</v>
       </c>
       <c r="N332" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O332" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P332" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1750</v>
+        <v>1821</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O333" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P333" t="n">
-        <v>9250</v>
+        <v>10750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1321</v>
+        <v>1536</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O334" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="P334" t="n">
-        <v>30500</v>
+        <v>14250</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>4357</v>
+        <v>2036</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N335" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="P335" t="n">
-        <v>25500</v>
+        <v>12250</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>3643</v>
+        <v>1750</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O336" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="P336" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2929</v>
+        <v>1321</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N337" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="O337" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="P337" t="n">
-        <v>21750</v>
+        <v>30500</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>3107</v>
+        <v>4357</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O338" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P338" t="n">
-        <v>19750</v>
+        <v>25500</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>2821</v>
+        <v>3643</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N339" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O339" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P339" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O340" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P340" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27647,13 +27647,13 @@
         <v>300</v>
       </c>
       <c r="N341" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O341" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P341" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O342" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P342" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27807,13 +27807,13 @@
         <v>400</v>
       </c>
       <c r="N343" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O343" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O344" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P345" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N346" t="n">
         <v>18500</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N347" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O347" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P347" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N348" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O348" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N349" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O349" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P349" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N350" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O350" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P350" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28447,13 +28447,13 @@
         <v>240</v>
       </c>
       <c r="N351" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O351" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P351" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28527,13 +28527,13 @@
         <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O352" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P352" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>2500</v>
+        <v>2107</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N353" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O353" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P353" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2214</v>
+        <v>1821</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28687,13 +28687,13 @@
         <v>240</v>
       </c>
       <c r="N354" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P354" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N355" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O355" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P355" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N356" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O356" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P356" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N357" t="n">
         <v>12500</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29007,13 +29007,13 @@
         <v>200</v>
       </c>
       <c r="N358" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O358" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P358" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N359" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P359" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N360" t="n">
         <v>12500</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N361" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="O361" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="P361" t="n">
-        <v>15250</v>
+        <v>18750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2179</v>
+        <v>2679</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N362" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O362" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P362" t="n">
-        <v>13250</v>
+        <v>16750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1893</v>
+        <v>2393</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N363" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O363" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="P363" t="n">
-        <v>11250</v>
+        <v>12750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1607</v>
+        <v>1821</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N364" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O364" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P364" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N365" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O365" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P365" t="n">
-        <v>12750</v>
+        <v>13250</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1821</v>
+        <v>1893</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29647,13 +29647,13 @@
         <v>200</v>
       </c>
       <c r="N366" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O366" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P366" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O367" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N368" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O368" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29880,20 +29880,20 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M369" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N369" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O369" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P369" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N370" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="O370" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P370" t="n">
-        <v>13750</v>
+        <v>25750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1964</v>
+        <v>3679</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N371" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P371" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N372" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O372" t="n">
         <v>16000</v>
       </c>
-      <c r="O372" t="n">
-        <v>16500</v>
-      </c>
       <c r="P372" t="n">
-        <v>16250</v>
+        <v>15750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2321</v>
+        <v>2250</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>300</v>
       </c>
       <c r="N373" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O373" t="n">
         <v>14000</v>
       </c>
-      <c r="O373" t="n">
-        <v>14500</v>
-      </c>
       <c r="P373" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N374" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O374" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P374" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N375" t="n">
         <v>16000</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N376" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O376" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P376" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O377" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P377" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N378" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O378" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="P378" t="n">
-        <v>20500</v>
+        <v>16250</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2929</v>
+        <v>2321</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30687,13 +30687,13 @@
         <v>240</v>
       </c>
       <c r="N379" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O379" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P379" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2643</v>
+        <v>1964</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30760,20 +30760,20 @@
       </c>
       <c r="L380" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M380" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N380" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O380" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P380" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N381" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O381" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P381" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N382" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O382" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P382" t="n">
-        <v>13250</v>
+        <v>18500</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1893</v>
+        <v>2643</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N383" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O383" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="P383" t="n">
-        <v>15250</v>
+        <v>18250</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>2179</v>
+        <v>2607</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31087,13 +31087,13 @@
         <v>240</v>
       </c>
       <c r="N384" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O384" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P384" t="n">
-        <v>13250</v>
+        <v>16250</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1893</v>
+        <v>2321</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31167,13 +31167,13 @@
         <v>200</v>
       </c>
       <c r="N385" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O385" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P385" t="n">
-        <v>11250</v>
+        <v>13250</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1607</v>
+        <v>1893</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N386" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O386" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="P386" t="n">
-        <v>23500</v>
+        <v>15250</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>3357</v>
+        <v>2179</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N387" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O387" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P387" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2500</v>
+        <v>1893</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O388" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="P388" t="n">
-        <v>16250</v>
+        <v>11250</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>2321</v>
+        <v>1607</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N389" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O389" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="P389" t="n">
-        <v>14250</v>
+        <v>23500</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2036</v>
+        <v>3357</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,68 +31527,308 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E390" t="n">
+        <v>4</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G390" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I390" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M390" t="n">
+        <v>300</v>
+      </c>
+      <c r="N390" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O390" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P390" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q390" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R390" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S390" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T390" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>8</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D391" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E390" t="n">
-        <v>4</v>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G390" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I390" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L390" t="inlineStr">
+      <c r="E391" t="n">
+        <v>4</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G391" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I391" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M391" t="n">
+        <v>240</v>
+      </c>
+      <c r="N391" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O391" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P391" t="n">
+        <v>16250</v>
+      </c>
+      <c r="Q391" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R391" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S391" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T391" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>8</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D392" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E392" t="n">
+        <v>4</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G392" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I392" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M392" t="n">
+        <v>300</v>
+      </c>
+      <c r="N392" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O392" t="n">
+        <v>14500</v>
+      </c>
+      <c r="P392" t="n">
+        <v>14250</v>
+      </c>
+      <c r="Q392" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R392" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S392" t="n">
+        <v>2036</v>
+      </c>
+      <c r="T392" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>8</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D393" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E393" t="n">
+        <v>4</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G393" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I393" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L393" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M390" t="n">
+      <c r="M393" t="n">
         <v>240</v>
       </c>
-      <c r="N390" t="n">
+      <c r="N393" t="n">
         <v>11000</v>
       </c>
-      <c r="O390" t="n">
+      <c r="O393" t="n">
         <v>11500</v>
       </c>
-      <c r="P390" t="n">
+      <c r="P393" t="n">
         <v>11250</v>
       </c>
-      <c r="Q390" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R390" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S390" t="n">
+      <c r="Q393" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R393" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S393" t="n">
         <v>1607</v>
       </c>
-      <c r="T390" t="n">
+      <c r="T393" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T396"/>
+  <dimension ref="A1:T399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N260" t="n">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="O260" t="n">
         <v>27000</v>
       </c>
       <c r="P260" t="n">
-        <v>26750</v>
+        <v>26500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>3821</v>
+        <v>3786</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="O261" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P261" t="n">
-        <v>21750</v>
+        <v>23500</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>3107</v>
+        <v>3357</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="O262" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P262" t="n">
-        <v>17750</v>
+        <v>20500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2536</v>
+        <v>2929</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N263" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="O263" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P263" t="n">
-        <v>15750</v>
+        <v>26750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2250</v>
+        <v>3821</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="O264" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P264" t="n">
-        <v>25750</v>
+        <v>21750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>3679</v>
+        <v>3107</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N265" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="O265" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P265" t="n">
-        <v>19750</v>
+        <v>17750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2821</v>
+        <v>2536</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O266" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="O267" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P267" t="n">
-        <v>15750</v>
+        <v>25750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2250</v>
+        <v>3679</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O268" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P268" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N269" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="O269" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P269" t="n">
-        <v>22750</v>
+        <v>17750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>3250</v>
+        <v>2536</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N270" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="O270" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P270" t="n">
-        <v>20750</v>
+        <v>15750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>2964</v>
+        <v>2250</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44343</v>
+        <v>44172</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22040,20 +22040,20 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M271" t="n">
         <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O271" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P271" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22120,20 +22120,20 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="O272" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P272" t="n">
-        <v>15750</v>
+        <v>22750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22200,20 +22200,20 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N273" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="O273" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P273" t="n">
-        <v>12750</v>
+        <v>20750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1821</v>
+        <v>2964</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O274" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P274" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O275" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P275" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22447,13 +22447,13 @@
         <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O276" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P276" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N277" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O277" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="P277" t="n">
-        <v>14250</v>
+        <v>15750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2036</v>
+        <v>2250</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O278" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P278" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1750</v>
+        <v>1964</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O279" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P279" t="n">
-        <v>10244</v>
+        <v>11750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1463</v>
+        <v>1679</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22767,13 +22767,13 @@
         <v>240</v>
       </c>
       <c r="N280" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O280" t="n">
         <v>14500</v>
       </c>
-      <c r="O280" t="n">
-        <v>15000</v>
-      </c>
       <c r="P280" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O281" t="n">
         <v>12500</v>
       </c>
-      <c r="O281" t="n">
-        <v>13000</v>
-      </c>
       <c r="P281" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="N282" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O282" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P282" t="n">
-        <v>9750</v>
+        <v>10244</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1393</v>
+        <v>1463</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O283" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P283" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N284" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O284" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P284" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N285" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O285" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P285" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23244,7 +23244,7 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N286" t="n">
         <v>15500</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23324,7 +23324,7 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
         <v>13500</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N289" t="n">
         <v>15500</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N290" t="n">
         <v>13500</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N291" t="n">
         <v>10500</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N292" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O292" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O293" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P293" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O294" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P294" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N295" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="O295" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P295" t="n">
-        <v>22500</v>
+        <v>17750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>3214</v>
+        <v>2536</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N296" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O296" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P296" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N297" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O297" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P297" t="n">
-        <v>18500</v>
+        <v>11750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2643</v>
+        <v>1679</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N298" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O298" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P298" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>3536</v>
+        <v>3214</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="O299" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P299" t="n">
-        <v>22750</v>
+        <v>20500</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>3250</v>
+        <v>2929</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24367,13 +24367,13 @@
         <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O300" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P300" t="n">
-        <v>16750</v>
+        <v>18500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>2393</v>
+        <v>2643</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N301" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="O301" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P301" t="n">
-        <v>14750</v>
+        <v>24750</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>2107</v>
+        <v>3536</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N302" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="O302" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P302" t="n">
-        <v>12750</v>
+        <v>22750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>1821</v>
+        <v>3250</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24607,13 +24607,13 @@
         <v>240</v>
       </c>
       <c r="N303" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O303" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P303" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N304" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O304" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P304" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O305" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
         <v>10500</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24924,7 +24924,7 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N307" t="n">
         <v>15500</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25004,7 +25004,7 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="N308" t="n">
         <v>13500</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44196</v>
+        <v>44264</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25087,13 +25087,13 @@
         <v>200</v>
       </c>
       <c r="N309" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O309" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P309" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N310" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O310" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P310" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N311" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O311" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P311" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N312" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O312" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P312" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25404,7 +25404,7 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N313" t="n">
         <v>14500</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,7 +25484,7 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N314" t="n">
         <v>12500</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N315" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O315" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P315" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1393</v>
+        <v>1536</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N316" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O316" t="n">
         <v>15000</v>
       </c>
-      <c r="O316" t="n">
-        <v>16000</v>
-      </c>
       <c r="P316" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M317" t="n">
         <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O317" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P317" t="n">
-        <v>15250</v>
+        <v>12750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2179</v>
+        <v>1821</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25800,20 +25800,20 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M318" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N318" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O318" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P318" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25880,20 +25880,20 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M319" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N319" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O319" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>10750</v>
+        <v>15500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1536</v>
+        <v>2214</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O320" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="P320" t="n">
-        <v>19750</v>
+        <v>15250</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2821</v>
+        <v>2179</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N321" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O321" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P321" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N322" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O322" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P322" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>300</v>
       </c>
       <c r="N323" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O323" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P323" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
         <v>240</v>
       </c>
       <c r="N324" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O324" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P324" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O325" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P325" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26447,13 +26447,13 @@
         <v>300</v>
       </c>
       <c r="N326" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="O326" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P326" t="n">
-        <v>17750</v>
+        <v>14750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2536</v>
+        <v>2107</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N327" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O327" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P327" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N328" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="O328" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P328" t="n">
-        <v>16750</v>
+        <v>19750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2393</v>
+        <v>2821</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26687,13 +26687,13 @@
         <v>300</v>
       </c>
       <c r="N329" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O329" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P329" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26767,13 +26767,13 @@
         <v>200</v>
       </c>
       <c r="N330" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P330" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P331" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26927,13 +26927,13 @@
         <v>300</v>
       </c>
       <c r="N332" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1679</v>
+        <v>2107</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O333" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27087,13 +27087,13 @@
         <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O334" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O335" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O336" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P336" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O337" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P337" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27407,13 +27407,13 @@
         <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O338" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1750</v>
+        <v>1821</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O339" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P339" t="n">
-        <v>9250</v>
+        <v>10750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1321</v>
+        <v>1536</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N340" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O340" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="P340" t="n">
-        <v>30500</v>
+        <v>14250</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>4357</v>
+        <v>2036</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N341" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O341" t="n">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="P341" t="n">
-        <v>25500</v>
+        <v>12250</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>3643</v>
+        <v>1750</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N342" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O342" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="P342" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2929</v>
+        <v>1321</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N343" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="O343" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="P343" t="n">
-        <v>21750</v>
+        <v>30500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>3107</v>
+        <v>4357</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O344" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P344" t="n">
-        <v>19750</v>
+        <v>25500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2821</v>
+        <v>3643</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N345" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O345" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P345" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O346" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P346" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28127,13 +28127,13 @@
         <v>300</v>
       </c>
       <c r="N347" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O347" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P347" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N348" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O348" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P348" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28287,13 +28287,13 @@
         <v>400</v>
       </c>
       <c r="N349" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O349" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P349" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N350" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O350" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N351" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O351" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P351" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N352" t="n">
         <v>18500</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N353" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O353" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P353" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O354" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P354" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N355" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O355" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P355" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O356" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P356" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28927,13 +28927,13 @@
         <v>240</v>
       </c>
       <c r="N357" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O357" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P357" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29007,13 +29007,13 @@
         <v>300</v>
       </c>
       <c r="N358" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O358" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P358" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2500</v>
+        <v>2107</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N359" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O359" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2214</v>
+        <v>1821</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29167,13 +29167,13 @@
         <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P360" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O361" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P361" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N362" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O362" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P362" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N363" t="n">
         <v>12500</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29487,13 +29487,13 @@
         <v>200</v>
       </c>
       <c r="N364" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O364" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P364" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N365" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O365" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P365" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,7 +29644,7 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N366" t="n">
         <v>12500</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N367" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="O367" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="P367" t="n">
-        <v>15250</v>
+        <v>18750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2179</v>
+        <v>2679</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N368" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O368" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P368" t="n">
-        <v>13250</v>
+        <v>16750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1893</v>
+        <v>2393</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N369" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O369" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="P369" t="n">
-        <v>11250</v>
+        <v>12750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1607</v>
+        <v>1821</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P370" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N371" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P371" t="n">
-        <v>12750</v>
+        <v>13250</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1821</v>
+        <v>1893</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30127,13 +30127,13 @@
         <v>200</v>
       </c>
       <c r="N372" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O372" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P372" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N373" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O373" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N374" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O374" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30360,20 +30360,20 @@
       </c>
       <c r="L375" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M375" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N375" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O375" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P375" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30440,20 +30440,20 @@
       </c>
       <c r="L376" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M376" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N376" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="O376" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P376" t="n">
-        <v>13750</v>
+        <v>25750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1964</v>
+        <v>3679</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30520,20 +30520,20 @@
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M377" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N377" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P377" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N378" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O378" t="n">
         <v>16000</v>
       </c>
-      <c r="O378" t="n">
-        <v>16500</v>
-      </c>
       <c r="P378" t="n">
-        <v>16250</v>
+        <v>15750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2321</v>
+        <v>2250</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30687,13 +30687,13 @@
         <v>300</v>
       </c>
       <c r="N379" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O379" t="n">
         <v>14000</v>
       </c>
-      <c r="O379" t="n">
-        <v>14500</v>
-      </c>
       <c r="P379" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N380" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O380" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P380" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N381" t="n">
         <v>16000</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O382" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P382" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N383" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O383" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P383" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N384" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O384" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="P384" t="n">
-        <v>20500</v>
+        <v>16250</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2929</v>
+        <v>2321</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31167,13 +31167,13 @@
         <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O385" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P385" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2643</v>
+        <v>1964</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N386" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O386" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P386" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31320,20 +31320,20 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M387" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N387" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O387" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P387" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31400,20 +31400,20 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M388" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O388" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P388" t="n">
-        <v>13250</v>
+        <v>18500</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1893</v>
+        <v>2643</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N389" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O389" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="P389" t="n">
-        <v>15250</v>
+        <v>18250</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2179</v>
+        <v>2607</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31567,13 +31567,13 @@
         <v>240</v>
       </c>
       <c r="N390" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O390" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P390" t="n">
-        <v>13250</v>
+        <v>16250</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>1893</v>
+        <v>2321</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31647,13 +31647,13 @@
         <v>200</v>
       </c>
       <c r="N391" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O391" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P391" t="n">
-        <v>11250</v>
+        <v>13250</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1607</v>
+        <v>1893</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O392" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="P392" t="n">
-        <v>23500</v>
+        <v>15250</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>3357</v>
+        <v>2179</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N393" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O393" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P393" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2500</v>
+        <v>1893</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O394" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="P394" t="n">
-        <v>16250</v>
+        <v>11250</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2321</v>
+        <v>1607</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O395" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="P395" t="n">
-        <v>14250</v>
+        <v>23500</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2036</v>
+        <v>3357</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,68 +32007,308 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E396" t="n">
+        <v>4</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G396" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I396" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M396" t="n">
+        <v>300</v>
+      </c>
+      <c r="N396" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O396" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P396" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S396" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T396" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>8</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D397" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E396" t="n">
-        <v>4</v>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G396" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I396" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J396" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L396" t="inlineStr">
+      <c r="E397" t="n">
+        <v>4</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G397" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I397" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M397" t="n">
+        <v>240</v>
+      </c>
+      <c r="N397" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O397" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P397" t="n">
+        <v>16250</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S397" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T397" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>8</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D398" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E398" t="n">
+        <v>4</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G398" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M398" t="n">
+        <v>300</v>
+      </c>
+      <c r="N398" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O398" t="n">
+        <v>14500</v>
+      </c>
+      <c r="P398" t="n">
+        <v>14250</v>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S398" t="n">
+        <v>2036</v>
+      </c>
+      <c r="T398" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>8</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D399" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E399" t="n">
+        <v>4</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G399" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M396" t="n">
+      <c r="M399" t="n">
         <v>240</v>
       </c>
-      <c r="N396" t="n">
+      <c r="N399" t="n">
         <v>11000</v>
       </c>
-      <c r="O396" t="n">
+      <c r="O399" t="n">
         <v>11500</v>
       </c>
-      <c r="P396" t="n">
+      <c r="P399" t="n">
         <v>11250</v>
       </c>
-      <c r="Q396" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R396" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S396" t="n">
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S399" t="n">
         <v>1607</v>
       </c>
-      <c r="T396" t="n">
+      <c r="T399" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T402"/>
+  <dimension ref="A1:T405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N313" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="O313" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P313" t="n">
-        <v>15750</v>
+        <v>25500</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>2250</v>
+        <v>3643</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="O314" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P314" t="n">
-        <v>13750</v>
+        <v>22500</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1964</v>
+        <v>3214</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25567,13 +25567,13 @@
         <v>200</v>
       </c>
       <c r="N315" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O315" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P315" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>1679</v>
+        <v>2786</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N316" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O316" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P316" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N317" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O317" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P317" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N318" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O318" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P318" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
         <v>14500</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N320" t="n">
         <v>12500</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O321" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P321" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1393</v>
+        <v>1536</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O322" t="n">
         <v>15000</v>
       </c>
-      <c r="O322" t="n">
-        <v>16000</v>
-      </c>
       <c r="P322" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M323" t="n">
         <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O323" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>15250</v>
+        <v>12750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>2179</v>
+        <v>1821</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26280,20 +26280,20 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O324" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P324" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N325" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O325" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P325" t="n">
-        <v>10750</v>
+        <v>15500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1536</v>
+        <v>2214</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O326" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="P326" t="n">
-        <v>19750</v>
+        <v>15250</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2821</v>
+        <v>2179</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O327" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P327" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O328" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P328" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26680,20 +26680,20 @@
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M329" t="n">
         <v>300</v>
       </c>
       <c r="N329" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O329" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P329" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26760,20 +26760,20 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M330" t="n">
         <v>240</v>
       </c>
       <c r="N330" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O330" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P330" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26840,20 +26840,20 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N331" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O331" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P331" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26927,13 +26927,13 @@
         <v>300</v>
       </c>
       <c r="N332" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="O332" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P332" t="n">
-        <v>17750</v>
+        <v>14750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>2536</v>
+        <v>2107</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O333" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P333" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="O334" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P334" t="n">
-        <v>16750</v>
+        <v>19750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2393</v>
+        <v>2821</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27167,13 +27167,13 @@
         <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O335" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P335" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27247,13 +27247,13 @@
         <v>200</v>
       </c>
       <c r="N336" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O336" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P336" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N337" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O337" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P337" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27407,13 +27407,13 @@
         <v>300</v>
       </c>
       <c r="N338" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="O338" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P338" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1679</v>
+        <v>2107</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O339" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P339" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27567,13 +27567,13 @@
         <v>240</v>
       </c>
       <c r="N340" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O340" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P340" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N341" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O341" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P341" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N342" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O342" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P342" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N343" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O343" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P343" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27887,13 +27887,13 @@
         <v>240</v>
       </c>
       <c r="N344" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O344" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1750</v>
+        <v>1821</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N345" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O345" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P345" t="n">
-        <v>9250</v>
+        <v>10750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1321</v>
+        <v>1536</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O346" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="P346" t="n">
-        <v>30500</v>
+        <v>14250</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>4357</v>
+        <v>2036</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N347" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O347" t="n">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="P347" t="n">
-        <v>25500</v>
+        <v>12250</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>3643</v>
+        <v>1750</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N348" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O348" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="P348" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>2929</v>
+        <v>1321</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N349" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="O349" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="P349" t="n">
-        <v>21750</v>
+        <v>30500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>3107</v>
+        <v>4357</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N350" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O350" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P350" t="n">
-        <v>19750</v>
+        <v>25500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2821</v>
+        <v>3643</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N351" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O351" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P351" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N352" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O352" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P352" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28607,13 +28607,13 @@
         <v>300</v>
       </c>
       <c r="N353" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O353" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P353" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O354" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P354" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28767,13 +28767,13 @@
         <v>400</v>
       </c>
       <c r="N355" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O355" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P355" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O356" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P356" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N357" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O357" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P357" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N358" t="n">
         <v>18500</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N359" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P359" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N360" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O360" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P360" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N361" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O361" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P361" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N362" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O362" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P362" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29407,13 +29407,13 @@
         <v>240</v>
       </c>
       <c r="N363" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O363" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P363" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29487,13 +29487,13 @@
         <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O364" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2500</v>
+        <v>2107</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N365" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O365" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2214</v>
+        <v>1821</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29647,13 +29647,13 @@
         <v>240</v>
       </c>
       <c r="N366" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O366" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P366" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O367" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P367" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N368" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O368" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P368" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N369" t="n">
         <v>12500</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29967,13 +29967,13 @@
         <v>200</v>
       </c>
       <c r="N370" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O370" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P370" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N371" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O371" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P371" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N372" t="n">
         <v>12500</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="O373" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="P373" t="n">
-        <v>15250</v>
+        <v>18750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2179</v>
+        <v>2679</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N374" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O374" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P374" t="n">
-        <v>13250</v>
+        <v>16750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1893</v>
+        <v>2393</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N375" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O375" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="P375" t="n">
-        <v>11250</v>
+        <v>12750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1607</v>
+        <v>1821</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N376" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O376" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P376" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P377" t="n">
-        <v>12750</v>
+        <v>13250</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1821</v>
+        <v>1893</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30607,13 +30607,13 @@
         <v>200</v>
       </c>
       <c r="N378" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O378" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P378" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O379" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P379" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N380" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O380" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30840,20 +30840,20 @@
       </c>
       <c r="L381" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M381" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O381" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P381" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30920,20 +30920,20 @@
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M382" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N382" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="O382" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P382" t="n">
-        <v>13750</v>
+        <v>25750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1964</v>
+        <v>3679</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31000,20 +31000,20 @@
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M383" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N383" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O383" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P383" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N384" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O384" t="n">
         <v>16000</v>
       </c>
-      <c r="O384" t="n">
-        <v>16500</v>
-      </c>
       <c r="P384" t="n">
-        <v>16250</v>
+        <v>15750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2321</v>
+        <v>2250</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31167,13 +31167,13 @@
         <v>300</v>
       </c>
       <c r="N385" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O385" t="n">
         <v>14000</v>
       </c>
-      <c r="O385" t="n">
-        <v>14500</v>
-      </c>
       <c r="P385" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N386" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O386" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P386" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N387" t="n">
         <v>16000</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O388" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P388" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N389" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P389" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O390" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="P390" t="n">
-        <v>20500</v>
+        <v>16250</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2929</v>
+        <v>2321</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31647,13 +31647,13 @@
         <v>240</v>
       </c>
       <c r="N391" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O391" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P391" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>2643</v>
+        <v>1964</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N392" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O392" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N393" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O393" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P393" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N394" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O394" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P394" t="n">
-        <v>13250</v>
+        <v>18500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1893</v>
+        <v>2643</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N395" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O395" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="P395" t="n">
-        <v>15250</v>
+        <v>18250</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2179</v>
+        <v>2607</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32047,13 +32047,13 @@
         <v>240</v>
       </c>
       <c r="N396" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O396" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P396" t="n">
-        <v>13250</v>
+        <v>16250</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>1893</v>
+        <v>2321</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32127,13 +32127,13 @@
         <v>200</v>
       </c>
       <c r="N397" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O397" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P397" t="n">
-        <v>11250</v>
+        <v>13250</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1607</v>
+        <v>1893</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N398" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O398" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="P398" t="n">
-        <v>23500</v>
+        <v>15250</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>3357</v>
+        <v>2179</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O399" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P399" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2500</v>
+        <v>1893</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N400" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O400" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="P400" t="n">
-        <v>16250</v>
+        <v>11250</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2321</v>
+        <v>1607</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N401" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O401" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="P401" t="n">
-        <v>14250</v>
+        <v>23500</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2036</v>
+        <v>3357</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,68 +32487,308 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E402" t="n">
+        <v>4</v>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G402" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M402" t="n">
+        <v>300</v>
+      </c>
+      <c r="N402" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O402" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P402" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S402" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T402" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>8</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D403" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E402" t="n">
-        <v>4</v>
-      </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G402" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I402" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J402" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L402" t="inlineStr">
+      <c r="E403" t="n">
+        <v>4</v>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G403" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M403" t="n">
+        <v>240</v>
+      </c>
+      <c r="N403" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O403" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P403" t="n">
+        <v>16250</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S403" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T403" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>8</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D404" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E404" t="n">
+        <v>4</v>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G404" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M404" t="n">
+        <v>300</v>
+      </c>
+      <c r="N404" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O404" t="n">
+        <v>14500</v>
+      </c>
+      <c r="P404" t="n">
+        <v>14250</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S404" t="n">
+        <v>2036</v>
+      </c>
+      <c r="T404" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>8</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D405" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E405" t="n">
+        <v>4</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M402" t="n">
+      <c r="M405" t="n">
         <v>240</v>
       </c>
-      <c r="N402" t="n">
+      <c r="N405" t="n">
         <v>11000</v>
       </c>
-      <c r="O402" t="n">
+      <c r="O405" t="n">
         <v>11500</v>
       </c>
-      <c r="P402" t="n">
+      <c r="P405" t="n">
         <v>11250</v>
       </c>
-      <c r="Q402" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R402" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S402" t="n">
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S405" t="n">
         <v>1607</v>
       </c>
-      <c r="T402" t="n">
+      <c r="T405" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T405"/>
+  <dimension ref="A1:T408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12327,7 +12327,7 @@
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -12364,16 +12364,16 @@
         </is>
       </c>
       <c r="M150" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N150" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O150" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P150" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="S150" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T150" t="n">
         <v>7</v>
@@ -12407,7 +12407,7 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -12444,16 +12444,16 @@
         </is>
       </c>
       <c r="M151" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N151" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="O151" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P151" t="n">
-        <v>14750</v>
+        <v>16500</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         </is>
       </c>
       <c r="S151" t="n">
-        <v>2107</v>
+        <v>2357</v>
       </c>
       <c r="T151" t="n">
         <v>7</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44320</v>
+        <v>44469</v>
       </c>
       <c r="E152" t="n">
         <v>4</v>
@@ -12524,16 +12524,16 @@
         </is>
       </c>
       <c r="M152" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N152" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O152" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="P152" t="n">
-        <v>11750</v>
+        <v>13500</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="S152" t="n">
-        <v>1679</v>
+        <v>1929</v>
       </c>
       <c r="T152" t="n">
         <v>7</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -12604,16 +12604,16 @@
         </is>
       </c>
       <c r="M153" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="N153" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="O153" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P153" t="n">
-        <v>24750</v>
+        <v>16750</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         </is>
       </c>
       <c r="S153" t="n">
-        <v>3536</v>
+        <v>2393</v>
       </c>
       <c r="T153" t="n">
         <v>7</v>
@@ -12647,7 +12647,7 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E154" t="n">
         <v>4</v>
@@ -12684,16 +12684,16 @@
         </is>
       </c>
       <c r="M154" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N154" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O154" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P154" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         </is>
       </c>
       <c r="S154" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T154" t="n">
         <v>7</v>
@@ -12727,7 +12727,7 @@
         </is>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44385</v>
+        <v>44320</v>
       </c>
       <c r="E155" t="n">
         <v>4</v>
@@ -12767,13 +12767,13 @@
         <v>200</v>
       </c>
       <c r="N155" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O155" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P155" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         </is>
       </c>
       <c r="S155" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T155" t="n">
         <v>7</v>
@@ -12807,7 +12807,7 @@
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -12844,16 +12844,16 @@
         </is>
       </c>
       <c r="M156" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N156" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="O156" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P156" t="n">
-        <v>27750</v>
+        <v>24750</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
         </is>
       </c>
       <c r="S156" t="n">
-        <v>3964</v>
+        <v>3536</v>
       </c>
       <c r="T156" t="n">
         <v>7</v>
@@ -12887,7 +12887,7 @@
         </is>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E157" t="n">
         <v>4</v>
@@ -12924,7 +12924,7 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N157" t="n">
         <v>22500</v>
@@ -12967,7 +12967,7 @@
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44417</v>
+        <v>44385</v>
       </c>
       <c r="E158" t="n">
         <v>4</v>
@@ -13004,16 +13004,16 @@
         </is>
       </c>
       <c r="M158" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N158" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="O158" t="n">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="P158" t="n">
-        <v>17750</v>
+        <v>16750</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         </is>
       </c>
       <c r="S158" t="n">
-        <v>2536</v>
+        <v>2393</v>
       </c>
       <c r="T158" t="n">
         <v>7</v>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E159" t="n">
         <v>4</v>
@@ -13084,16 +13084,16 @@
         </is>
       </c>
       <c r="M159" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N159" t="n">
-        <v>18500</v>
+        <v>27500</v>
       </c>
       <c r="O159" t="n">
-        <v>19000</v>
+        <v>28000</v>
       </c>
       <c r="P159" t="n">
-        <v>18750</v>
+        <v>27750</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         </is>
       </c>
       <c r="S159" t="n">
-        <v>2679</v>
+        <v>3964</v>
       </c>
       <c r="T159" t="n">
         <v>7</v>
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E160" t="n">
         <v>4</v>
@@ -13164,16 +13164,16 @@
         </is>
       </c>
       <c r="M160" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N160" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="O160" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P160" t="n">
-        <v>15750</v>
+        <v>22750</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="S160" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="T160" t="n">
         <v>7</v>
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44340</v>
+        <v>44417</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -13244,16 +13244,16 @@
         </is>
       </c>
       <c r="M161" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N161" t="n">
-        <v>12500</v>
+        <v>17500</v>
       </c>
       <c r="O161" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="P161" t="n">
-        <v>12750</v>
+        <v>17750</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         </is>
       </c>
       <c r="S161" t="n">
-        <v>1821</v>
+        <v>2536</v>
       </c>
       <c r="T161" t="n">
         <v>7</v>
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E162" t="n">
         <v>4</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="M162" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N162" t="n">
-        <v>16500</v>
+        <v>18500</v>
       </c>
       <c r="O162" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P162" t="n">
-        <v>16750</v>
+        <v>18750</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="S162" t="n">
-        <v>2393</v>
+        <v>2679</v>
       </c>
       <c r="T162" t="n">
         <v>7</v>
@@ -13367,7 +13367,7 @@
         </is>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E163" t="n">
         <v>4</v>
@@ -13404,16 +13404,16 @@
         </is>
       </c>
       <c r="M163" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="N163" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O163" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P163" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         </is>
       </c>
       <c r="S163" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T163" t="n">
         <v>7</v>
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44229</v>
+        <v>44340</v>
       </c>
       <c r="E164" t="n">
         <v>4</v>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E165" t="n">
         <v>4</v>
@@ -13564,16 +13564,16 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N165" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O165" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P165" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="S165" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T165" t="n">
         <v>7</v>
@@ -13607,7 +13607,7 @@
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E166" t="n">
         <v>4</v>
@@ -13644,16 +13644,16 @@
         </is>
       </c>
       <c r="M166" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="N166" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O166" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P166" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
@@ -13666,7 +13666,7 @@
         </is>
       </c>
       <c r="S166" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T166" t="n">
         <v>7</v>
@@ -13687,7 +13687,7 @@
         </is>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44253</v>
+        <v>44229</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -13727,13 +13727,13 @@
         <v>240</v>
       </c>
       <c r="N167" t="n">
-        <v>9500</v>
+        <v>12500</v>
       </c>
       <c r="O167" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P167" t="n">
-        <v>9750</v>
+        <v>12750</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="S167" t="n">
-        <v>1393</v>
+        <v>1821</v>
       </c>
       <c r="T167" t="n">
         <v>7</v>
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E168" t="n">
         <v>4</v>
@@ -13804,16 +13804,16 @@
         </is>
       </c>
       <c r="M168" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N168" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O168" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P168" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="S168" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T168" t="n">
         <v>7</v>
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -13884,16 +13884,16 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N169" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O169" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P169" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         </is>
       </c>
       <c r="S169" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T169" t="n">
         <v>7</v>
@@ -13927,7 +13927,7 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44245</v>
+        <v>44253</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -13967,13 +13967,13 @@
         <v>240</v>
       </c>
       <c r="N170" t="n">
-        <v>11500</v>
+        <v>9500</v>
       </c>
       <c r="O170" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="P170" t="n">
-        <v>11750</v>
+        <v>9750</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         </is>
       </c>
       <c r="S170" t="n">
-        <v>1679</v>
+        <v>1393</v>
       </c>
       <c r="T170" t="n">
         <v>7</v>
@@ -14007,7 +14007,7 @@
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E171" t="n">
         <v>4</v>
@@ -14044,16 +14044,16 @@
         </is>
       </c>
       <c r="M171" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N171" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="O171" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P171" t="n">
-        <v>19500</v>
+        <v>15750</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         </is>
       </c>
       <c r="S171" t="n">
-        <v>2786</v>
+        <v>2250</v>
       </c>
       <c r="T171" t="n">
         <v>7</v>
@@ -14087,7 +14087,7 @@
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44334</v>
+        <v>44245</v>
       </c>
       <c r="E172" t="n">
         <v>4</v>
@@ -14124,16 +14124,16 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N172" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O172" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="P172" t="n">
-        <v>16500</v>
+        <v>13750</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="S172" t="n">
-        <v>2357</v>
+        <v>1964</v>
       </c>
       <c r="T172" t="n">
         <v>7</v>
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44419</v>
+        <v>44245</v>
       </c>
       <c r="E173" t="n">
         <v>4</v>
@@ -14200,20 +14200,20 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M173" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N173" t="n">
-        <v>27000</v>
+        <v>11500</v>
       </c>
       <c r="O173" t="n">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="P173" t="n">
-        <v>27500</v>
+        <v>11750</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         </is>
       </c>
       <c r="S173" t="n">
-        <v>3929</v>
+        <v>1679</v>
       </c>
       <c r="T173" t="n">
         <v>7</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E174" t="n">
         <v>4</v>
@@ -14280,20 +14280,20 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M174" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N174" t="n">
-        <v>22000</v>
+        <v>19000</v>
       </c>
       <c r="O174" t="n">
-        <v>23000</v>
+        <v>20000</v>
       </c>
       <c r="P174" t="n">
-        <v>22500</v>
+        <v>19500</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
@@ -14306,7 +14306,7 @@
         </is>
       </c>
       <c r="S174" t="n">
-        <v>3214</v>
+        <v>2786</v>
       </c>
       <c r="T174" t="n">
         <v>7</v>
@@ -14327,7 +14327,7 @@
         </is>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44419</v>
+        <v>44334</v>
       </c>
       <c r="E175" t="n">
         <v>4</v>
@@ -14360,20 +14360,20 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M175" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N175" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O175" t="n">
         <v>17000</v>
       </c>
-      <c r="O175" t="n">
-        <v>18000</v>
-      </c>
       <c r="P175" t="n">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         </is>
       </c>
       <c r="S175" t="n">
-        <v>2500</v>
+        <v>2357</v>
       </c>
       <c r="T175" t="n">
         <v>7</v>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14444,16 +14444,16 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N176" t="n">
-        <v>14000</v>
+        <v>27000</v>
       </c>
       <c r="O176" t="n">
-        <v>14500</v>
+        <v>28000</v>
       </c>
       <c r="P176" t="n">
-        <v>14250</v>
+        <v>27500</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>2036</v>
+        <v>3929</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14524,16 +14524,16 @@
         </is>
       </c>
       <c r="M177" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N177" t="n">
-        <v>12000</v>
+        <v>22000</v>
       </c>
       <c r="O177" t="n">
-        <v>12500</v>
+        <v>23000</v>
       </c>
       <c r="P177" t="n">
-        <v>12250</v>
+        <v>22500</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>1750</v>
+        <v>3214</v>
       </c>
       <c r="T177" t="n">
         <v>7</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44281</v>
+        <v>44419</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="M178" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N178" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O178" t="n">
-        <v>10500</v>
+        <v>18000</v>
       </c>
       <c r="P178" t="n">
-        <v>10250</v>
+        <v>17500</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>1464</v>
+        <v>2500</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44225</v>
+        <v>44281</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44225</v>
+        <v>44281</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14760,20 +14760,20 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M180" t="n">
         <v>240</v>
       </c>
       <c r="N180" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="O180" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="P180" t="n">
-        <v>11250</v>
+        <v>12250</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1607</v>
+        <v>1750</v>
       </c>
       <c r="T180" t="n">
         <v>7</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44434</v>
+        <v>44281</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14840,20 +14840,20 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M181" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N181" t="n">
-        <v>26500</v>
+        <v>10000</v>
       </c>
       <c r="O181" t="n">
-        <v>27000</v>
+        <v>10500</v>
       </c>
       <c r="P181" t="n">
-        <v>26750</v>
+        <v>10250</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>3821</v>
+        <v>1464</v>
       </c>
       <c r="T181" t="n">
         <v>7</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44434</v>
+        <v>44225</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14920,20 +14920,20 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M182" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="N182" t="n">
-        <v>20500</v>
+        <v>14000</v>
       </c>
       <c r="O182" t="n">
-        <v>21000</v>
+        <v>14500</v>
       </c>
       <c r="P182" t="n">
-        <v>20750</v>
+        <v>14250</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>2964</v>
+        <v>2036</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44399</v>
+        <v>44225</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -15000,20 +15000,20 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M183" t="n">
         <v>240</v>
       </c>
       <c r="N183" t="n">
-        <v>24500</v>
+        <v>11000</v>
       </c>
       <c r="O183" t="n">
-        <v>25000</v>
+        <v>11500</v>
       </c>
       <c r="P183" t="n">
-        <v>24750</v>
+        <v>11250</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>3536</v>
+        <v>1607</v>
       </c>
       <c r="T183" t="n">
         <v>7</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N184" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O184" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P184" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T184" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44399</v>
+        <v>44434</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="N185" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="O185" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P185" t="n">
-        <v>16750</v>
+        <v>20750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>2393</v>
+        <v>2964</v>
       </c>
       <c r="T185" t="n">
         <v>7</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15244,16 +15244,16 @@
         </is>
       </c>
       <c r="M186" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N186" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O186" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P186" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T186" t="n">
         <v>7</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N187" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="O187" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P187" t="n">
-        <v>25500</v>
+        <v>19750</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>3643</v>
+        <v>2821</v>
       </c>
       <c r="T187" t="n">
         <v>7</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44452</v>
+        <v>44399</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15404,16 +15404,16 @@
         </is>
       </c>
       <c r="M188" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N188" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O188" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P188" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T188" t="n">
         <v>7</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N189" t="n">
-        <v>17000</v>
+        <v>30000</v>
       </c>
       <c r="O189" t="n">
-        <v>17500</v>
+        <v>31000</v>
       </c>
       <c r="P189" t="n">
-        <v>17250</v>
+        <v>30500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>2464</v>
+        <v>4357</v>
       </c>
       <c r="T189" t="n">
         <v>7</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N190" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="O190" t="n">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="P190" t="n">
-        <v>15250</v>
+        <v>25500</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>2179</v>
+        <v>3643</v>
       </c>
       <c r="T190" t="n">
         <v>7</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44218</v>
+        <v>44452</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N191" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="O191" t="n">
-        <v>12500</v>
+        <v>21000</v>
       </c>
       <c r="P191" t="n">
-        <v>12250</v>
+        <v>20500</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1750</v>
+        <v>2929</v>
       </c>
       <c r="T191" t="n">
         <v>7</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15727,13 +15727,13 @@
         <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>30000</v>
+        <v>17000</v>
       </c>
       <c r="O192" t="n">
-        <v>31000</v>
+        <v>17500</v>
       </c>
       <c r="P192" t="n">
-        <v>30500</v>
+        <v>17250</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>4357</v>
+        <v>2464</v>
       </c>
       <c r="T192" t="n">
         <v>7</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15804,16 +15804,16 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
-        <v>25000</v>
+        <v>15000</v>
       </c>
       <c r="O193" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="P193" t="n">
-        <v>25500</v>
+        <v>15250</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         </is>
       </c>
       <c r="S193" t="n">
-        <v>3643</v>
+        <v>2179</v>
       </c>
       <c r="T193" t="n">
         <v>7</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44441</v>
+        <v>44218</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15884,16 +15884,16 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N194" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O194" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P194" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         </is>
       </c>
       <c r="S194" t="n">
-        <v>2929</v>
+        <v>1750</v>
       </c>
       <c r="T194" t="n">
         <v>7</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N195" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O195" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P195" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T195" t="n">
         <v>7</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O196" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P196" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T196" t="n">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44246</v>
+        <v>44441</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N197" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O197" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P197" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N198" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O198" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P198" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T198" t="n">
         <v>7</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N199" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O199" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P199" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44161</v>
+        <v>44246</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N200" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O200" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P200" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T200" t="n">
         <v>7</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N201" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O201" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P201" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N202" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O202" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P202" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T202" t="n">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44407</v>
+        <v>44161</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16607,13 +16607,13 @@
         <v>240</v>
       </c>
       <c r="N203" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O203" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P203" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T203" t="n">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44193</v>
+        <v>44407</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="N204" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="O204" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P204" t="n">
-        <v>15750</v>
+        <v>25750</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>2250</v>
+        <v>3679</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44193</v>
+        <v>44407</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N205" t="n">
-        <v>13500</v>
+        <v>21500</v>
       </c>
       <c r="O205" t="n">
-        <v>14000</v>
+        <v>22000</v>
       </c>
       <c r="P205" t="n">
-        <v>13750</v>
+        <v>21750</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>1964</v>
+        <v>3107</v>
       </c>
       <c r="T205" t="n">
         <v>7</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44193</v>
+        <v>44407</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N206" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O206" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P206" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T206" t="n">
         <v>7</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16924,16 +16924,16 @@
         </is>
       </c>
       <c r="M207" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N207" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="O207" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P207" t="n">
-        <v>19250</v>
+        <v>15750</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="T207" t="n">
         <v>7</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17007,13 +17007,13 @@
         <v>300</v>
       </c>
       <c r="N208" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="O208" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="P208" t="n">
-        <v>16250</v>
+        <v>13750</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>2321</v>
+        <v>1964</v>
       </c>
       <c r="T208" t="n">
         <v>7</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44336</v>
+        <v>44193</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17084,7 +17084,7 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N209" t="n">
         <v>11500</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17164,16 +17164,16 @@
         </is>
       </c>
       <c r="M210" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N210" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O210" t="n">
-        <v>19000</v>
+        <v>19500</v>
       </c>
       <c r="P210" t="n">
-        <v>18500</v>
+        <v>19250</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>2643</v>
+        <v>2750</v>
       </c>
       <c r="T210" t="n">
         <v>7</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17247,13 +17247,13 @@
         <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="O211" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P211" t="n">
-        <v>15500</v>
+        <v>16250</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>2214</v>
+        <v>2321</v>
       </c>
       <c r="T211" t="n">
         <v>7</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44341</v>
+        <v>44336</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N212" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="O212" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P212" t="n">
-        <v>13500</v>
+        <v>11750</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1929</v>
+        <v>1679</v>
       </c>
       <c r="T212" t="n">
         <v>7</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44400</v>
+        <v>44341</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N213" t="n">
-        <v>25500</v>
+        <v>18000</v>
       </c>
       <c r="O213" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P213" t="n">
-        <v>25750</v>
+        <v>18500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>3679</v>
+        <v>2643</v>
       </c>
       <c r="T213" t="n">
         <v>7</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44400</v>
+        <v>44341</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>20500</v>
+        <v>15000</v>
       </c>
       <c r="O214" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P214" t="n">
-        <v>20750</v>
+        <v>15500</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>2964</v>
+        <v>2214</v>
       </c>
       <c r="T214" t="n">
         <v>7</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44400</v>
+        <v>44341</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17567,13 +17567,13 @@
         <v>240</v>
       </c>
       <c r="N215" t="n">
-        <v>17500</v>
+        <v>13000</v>
       </c>
       <c r="O215" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P215" t="n">
-        <v>17750</v>
+        <v>13500</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>2536</v>
+        <v>1929</v>
       </c>
       <c r="T215" t="n">
         <v>7</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17647,13 +17647,13 @@
         <v>240</v>
       </c>
       <c r="N216" t="n">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="O216" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P216" t="n">
-        <v>24500</v>
+        <v>25750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>3500</v>
+        <v>3679</v>
       </c>
       <c r="T216" t="n">
         <v>7</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17727,13 +17727,13 @@
         <v>240</v>
       </c>
       <c r="N217" t="n">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="O217" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P217" t="n">
-        <v>22500</v>
+        <v>20750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>3214</v>
+        <v>2964</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44392</v>
+        <v>44400</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N218" t="n">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="O218" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P218" t="n">
-        <v>15500</v>
+        <v>17750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>2214</v>
+        <v>2536</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N219" t="n">
-        <v>30000</v>
+        <v>24000</v>
       </c>
       <c r="O219" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P219" t="n">
-        <v>30500</v>
+        <v>24500</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>4357</v>
+        <v>3500</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="N220" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O220" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P220" t="n">
-        <v>25500</v>
+        <v>22500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>3643</v>
+        <v>3214</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44442</v>
+        <v>44392</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O221" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P221" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>2929</v>
+        <v>2214</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18124,7 +18124,7 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
         <v>30000</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18204,7 +18204,7 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="N223" t="n">
         <v>25000</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44453</v>
+        <v>44442</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18284,7 +18284,7 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N224" t="n">
         <v>20000</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O225" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P225" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T225" t="n">
         <v>7</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>12500</v>
+        <v>25000</v>
       </c>
       <c r="O226" t="n">
-        <v>13000</v>
+        <v>26000</v>
       </c>
       <c r="P226" t="n">
-        <v>12750</v>
+        <v>25500</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1821</v>
+        <v>3643</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44309</v>
+        <v>44453</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>10500</v>
+        <v>20000</v>
       </c>
       <c r="O227" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P227" t="n">
-        <v>10750</v>
+        <v>20500</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1536</v>
+        <v>2929</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N228" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O228" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P228" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N229" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O229" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P229" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44200</v>
+        <v>44309</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O230" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P230" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18844,7 +18844,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N231" t="n">
         <v>15500</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44208</v>
+        <v>44200</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18924,7 +18924,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
         <v>13500</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44448</v>
+        <v>44200</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19000,20 +19000,20 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M233" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="N233" t="n">
-        <v>30000</v>
+        <v>11500</v>
       </c>
       <c r="O233" t="n">
-        <v>31000</v>
+        <v>12000</v>
       </c>
       <c r="P233" t="n">
-        <v>30500</v>
+        <v>11750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>4357</v>
+        <v>1679</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19080,20 +19080,20 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M234" t="n">
         <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O234" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P234" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44448</v>
+        <v>44208</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19160,20 +19160,20 @@
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M235" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N235" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O235" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P235" t="n">
-        <v>20500</v>
+        <v>13750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>2929</v>
+        <v>1964</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N236" t="n">
-        <v>17500</v>
+        <v>30000</v>
       </c>
       <c r="O236" t="n">
-        <v>18000</v>
+        <v>31000</v>
       </c>
       <c r="P236" t="n">
-        <v>17750</v>
+        <v>30500</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>2536</v>
+        <v>4357</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>15500</v>
+        <v>26000</v>
       </c>
       <c r="O237" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P237" t="n">
-        <v>15750</v>
+        <v>26500</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2250</v>
+        <v>3786</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44214</v>
+        <v>44448</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N238" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O238" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P238" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,7 +19564,7 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
         <v>15500</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44354</v>
+        <v>44214</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19647,13 +19647,13 @@
         <v>240</v>
       </c>
       <c r="N241" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O241" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P241" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N242" t="n">
-        <v>28500</v>
+        <v>17500</v>
       </c>
       <c r="O242" t="n">
-        <v>29000</v>
+        <v>18000</v>
       </c>
       <c r="P242" t="n">
-        <v>28750</v>
+        <v>17750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>4107</v>
+        <v>2536</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44420</v>
+        <v>44354</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>23500</v>
+        <v>15500</v>
       </c>
       <c r="O243" t="n">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="P243" t="n">
-        <v>23750</v>
+        <v>15750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>3393</v>
+        <v>2250</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44167</v>
+        <v>44354</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O244" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P244" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>15000</v>
+        <v>28500</v>
       </c>
       <c r="O245" t="n">
-        <v>15500</v>
+        <v>29000</v>
       </c>
       <c r="P245" t="n">
-        <v>15250</v>
+        <v>28750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>2179</v>
+        <v>4107</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44210</v>
+        <v>44420</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N246" t="n">
-        <v>13000</v>
+        <v>23500</v>
       </c>
       <c r="O246" t="n">
-        <v>13500</v>
+        <v>24000</v>
       </c>
       <c r="P246" t="n">
-        <v>13250</v>
+        <v>23750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1893</v>
+        <v>3393</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44210</v>
+        <v>44167</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N247" t="n">
-        <v>11000</v>
+        <v>15000</v>
       </c>
       <c r="O247" t="n">
-        <v>11500</v>
+        <v>16000</v>
       </c>
       <c r="P247" t="n">
-        <v>11250</v>
+        <v>15500</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>1607</v>
+        <v>2214</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N248" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O248" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P248" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="O249" t="n">
-        <v>16000</v>
+        <v>13500</v>
       </c>
       <c r="P249" t="n">
-        <v>15750</v>
+        <v>13250</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>2250</v>
+        <v>1893</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44344</v>
+        <v>44210</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20367,13 +20367,13 @@
         <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="O250" t="n">
-        <v>13000</v>
+        <v>11500</v>
       </c>
       <c r="P250" t="n">
-        <v>12750</v>
+        <v>11250</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>1821</v>
+        <v>1607</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>17000</v>
+        <v>18500</v>
       </c>
       <c r="O251" t="n">
-        <v>17500</v>
+        <v>19000</v>
       </c>
       <c r="P251" t="n">
-        <v>17250</v>
+        <v>18750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>2464</v>
+        <v>2679</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="O252" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="P252" t="n">
-        <v>15250</v>
+        <v>15750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>2179</v>
+        <v>2250</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44217</v>
+        <v>44344</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20607,13 +20607,13 @@
         <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O253" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P253" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1750</v>
+        <v>1821</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="O254" t="n">
-        <v>16000</v>
+        <v>17500</v>
       </c>
       <c r="P254" t="n">
-        <v>15750</v>
+        <v>17250</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>2250</v>
+        <v>2464</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20767,13 +20767,13 @@
         <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O255" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="P255" t="n">
-        <v>13750</v>
+        <v>15250</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1964</v>
+        <v>2179</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44266</v>
+        <v>44217</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20847,13 +20847,13 @@
         <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="O256" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="P256" t="n">
-        <v>10750</v>
+        <v>12250</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>1536</v>
+        <v>1750</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="O257" t="n">
-        <v>19000</v>
+        <v>16000</v>
       </c>
       <c r="P257" t="n">
-        <v>18750</v>
+        <v>15750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2679</v>
+        <v>2250</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N258" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O258" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P258" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44350</v>
+        <v>44266</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21087,13 +21087,13 @@
         <v>240</v>
       </c>
       <c r="N259" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O259" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P259" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N260" t="n">
-        <v>29000</v>
+        <v>18500</v>
       </c>
       <c r="O260" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="P260" t="n">
-        <v>29500</v>
+        <v>18750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>4214</v>
+        <v>2679</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N261" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="O261" t="n">
-        <v>25000</v>
+        <v>16000</v>
       </c>
       <c r="P261" t="n">
-        <v>24500</v>
+        <v>15750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>3500</v>
+        <v>2250</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44455</v>
+        <v>44350</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21327,13 +21327,13 @@
         <v>240</v>
       </c>
       <c r="N262" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O262" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P262" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N263" t="n">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="O263" t="n">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="P263" t="n">
-        <v>26500</v>
+        <v>29500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>3786</v>
+        <v>4214</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N264" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O264" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P264" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44460</v>
+        <v>44455</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N265" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O265" t="n">
         <v>20000</v>
       </c>
-      <c r="O265" t="n">
-        <v>21000</v>
-      </c>
       <c r="P265" t="n">
-        <v>20500</v>
+        <v>19500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2929</v>
+        <v>2786</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N266" t="n">
-        <v>26500</v>
+        <v>26000</v>
       </c>
       <c r="O266" t="n">
         <v>27000</v>
       </c>
       <c r="P266" t="n">
-        <v>26750</v>
+        <v>26500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>3821</v>
+        <v>3786</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N267" t="n">
-        <v>21500</v>
+        <v>23000</v>
       </c>
       <c r="O267" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="P267" t="n">
-        <v>21750</v>
+        <v>23500</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>3107</v>
+        <v>3357</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44414</v>
+        <v>44460</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="O268" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P268" t="n">
-        <v>17750</v>
+        <v>20500</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2536</v>
+        <v>2929</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44165</v>
+        <v>44414</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N269" t="n">
-        <v>15500</v>
+        <v>26500</v>
       </c>
       <c r="O269" t="n">
-        <v>16000</v>
+        <v>27000</v>
       </c>
       <c r="P269" t="n">
-        <v>15750</v>
+        <v>26750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>2250</v>
+        <v>3821</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N270" t="n">
-        <v>25500</v>
+        <v>21500</v>
       </c>
       <c r="O270" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P270" t="n">
-        <v>25750</v>
+        <v>21750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>3679</v>
+        <v>3107</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44427</v>
+        <v>44414</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="O271" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P271" t="n">
-        <v>19750</v>
+        <v>17750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>2821</v>
+        <v>2536</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44172</v>
+        <v>44165</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N272" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O272" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P272" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>15500</v>
+        <v>25500</v>
       </c>
       <c r="O273" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P273" t="n">
-        <v>15750</v>
+        <v>25750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>2250</v>
+        <v>3679</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44172</v>
+        <v>44427</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N274" t="n">
-        <v>13500</v>
+        <v>19500</v>
       </c>
       <c r="O274" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
       <c r="P274" t="n">
-        <v>13750</v>
+        <v>19750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>1964</v>
+        <v>2821</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N275" t="n">
-        <v>22500</v>
+        <v>17500</v>
       </c>
       <c r="O275" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P275" t="n">
-        <v>22750</v>
+        <v>17750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>3250</v>
+        <v>2536</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44389</v>
+        <v>44172</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N276" t="n">
-        <v>20500</v>
+        <v>15500</v>
       </c>
       <c r="O276" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P276" t="n">
-        <v>20750</v>
+        <v>15750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>2964</v>
+        <v>2250</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44343</v>
+        <v>44172</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22520,20 +22520,20 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M277" t="n">
         <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>18500</v>
+        <v>13500</v>
       </c>
       <c r="O277" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P277" t="n">
-        <v>18750</v>
+        <v>13750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2679</v>
+        <v>1964</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22600,20 +22600,20 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>15500</v>
+        <v>22500</v>
       </c>
       <c r="O278" t="n">
-        <v>16000</v>
+        <v>23000</v>
       </c>
       <c r="P278" t="n">
-        <v>15750</v>
+        <v>22750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>2250</v>
+        <v>3250</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44343</v>
+        <v>44389</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22680,20 +22680,20 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M279" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N279" t="n">
-        <v>12500</v>
+        <v>20500</v>
       </c>
       <c r="O279" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P279" t="n">
-        <v>12750</v>
+        <v>20750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1821</v>
+        <v>2964</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O280" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P280" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O281" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P281" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44201</v>
+        <v>44343</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22927,13 +22927,13 @@
         <v>200</v>
       </c>
       <c r="N282" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O282" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P282" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N283" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O283" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="P283" t="n">
-        <v>14250</v>
+        <v>15750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2036</v>
+        <v>2250</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N284" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O284" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P284" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1750</v>
+        <v>1964</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44280</v>
+        <v>44201</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="N285" t="n">
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="O285" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="P285" t="n">
-        <v>10244</v>
+        <v>11750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1463</v>
+        <v>1679</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23247,13 +23247,13 @@
         <v>240</v>
       </c>
       <c r="N286" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O286" t="n">
         <v>14500</v>
       </c>
-      <c r="O286" t="n">
-        <v>15000</v>
-      </c>
       <c r="P286" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O287" t="n">
         <v>12500</v>
       </c>
-      <c r="O287" t="n">
-        <v>13000</v>
-      </c>
       <c r="P287" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="N288" t="n">
-        <v>9500</v>
+        <v>10000</v>
       </c>
       <c r="O288" t="n">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="P288" t="n">
-        <v>9750</v>
+        <v>10244</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>1393</v>
+        <v>1463</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P289" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="N290" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O290" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P290" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44260</v>
+        <v>44270</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N291" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O291" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N292" t="n">
         <v>15500</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
         <v>13500</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44267</v>
+        <v>44260</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N295" t="n">
         <v>15500</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N296" t="n">
         <v>13500</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44312</v>
+        <v>44267</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N297" t="n">
         <v>10500</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N298" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O298" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O299" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P299" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44187</v>
+        <v>44312</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N300" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O300" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P300" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="N301" t="n">
-        <v>22000</v>
+        <v>17500</v>
       </c>
       <c r="O301" t="n">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="P301" t="n">
-        <v>22500</v>
+        <v>17750</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>3214</v>
+        <v>2536</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N302" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="O302" t="n">
-        <v>21000</v>
+        <v>16000</v>
       </c>
       <c r="P302" t="n">
-        <v>20500</v>
+        <v>15750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>2929</v>
+        <v>2250</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44390</v>
+        <v>44187</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N303" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O303" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="P303" t="n">
-        <v>18500</v>
+        <v>11750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2643</v>
+        <v>1679</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N304" t="n">
-        <v>24500</v>
+        <v>22000</v>
       </c>
       <c r="O304" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P304" t="n">
-        <v>24750</v>
+        <v>22500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>3536</v>
+        <v>3214</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>22500</v>
+        <v>20000</v>
       </c>
       <c r="O305" t="n">
-        <v>23000</v>
+        <v>21000</v>
       </c>
       <c r="P305" t="n">
-        <v>22750</v>
+        <v>20500</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>3250</v>
+        <v>2929</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44386</v>
+        <v>44390</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24847,13 +24847,13 @@
         <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="O306" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="P306" t="n">
-        <v>16750</v>
+        <v>18500</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2393</v>
+        <v>2643</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>14500</v>
+        <v>24500</v>
       </c>
       <c r="O307" t="n">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="P307" t="n">
-        <v>14750</v>
+        <v>24750</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>2107</v>
+        <v>3536</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>12500</v>
+        <v>22500</v>
       </c>
       <c r="O308" t="n">
-        <v>13000</v>
+        <v>23000</v>
       </c>
       <c r="P308" t="n">
-        <v>12750</v>
+        <v>22750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>1821</v>
+        <v>3250</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44308</v>
+        <v>44386</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25087,13 +25087,13 @@
         <v>240</v>
       </c>
       <c r="N309" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O309" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P309" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N310" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O310" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P310" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N311" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O311" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P311" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44264</v>
+        <v>44308</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N312" t="n">
         <v>10500</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="N313" t="n">
-        <v>25000</v>
+        <v>15500</v>
       </c>
       <c r="O313" t="n">
-        <v>26000</v>
+        <v>16000</v>
       </c>
       <c r="P313" t="n">
-        <v>25500</v>
+        <v>15750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>3643</v>
+        <v>2250</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N314" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="O314" t="n">
-        <v>23000</v>
+        <v>14000</v>
       </c>
       <c r="P314" t="n">
-        <v>22500</v>
+        <v>13750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>3214</v>
+        <v>1964</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44463</v>
+        <v>44264</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25567,13 +25567,13 @@
         <v>200</v>
       </c>
       <c r="N315" t="n">
-        <v>19000</v>
+        <v>10500</v>
       </c>
       <c r="O315" t="n">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="P315" t="n">
-        <v>19500</v>
+        <v>10750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2786</v>
+        <v>1536</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N316" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="O316" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="P316" t="n">
-        <v>15750</v>
+        <v>25500</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2250</v>
+        <v>3643</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>13500</v>
+        <v>22000</v>
       </c>
       <c r="O317" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P317" t="n">
-        <v>13750</v>
+        <v>22500</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1964</v>
+        <v>3214</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25807,13 +25807,13 @@
         <v>200</v>
       </c>
       <c r="N318" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O318" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>1679</v>
+        <v>2786</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N319" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O319" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P319" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N320" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O320" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P320" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O321" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N322" t="n">
         <v>14500</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N323" t="n">
         <v>12500</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44252</v>
+        <v>44301</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N324" t="n">
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="O324" t="n">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="P324" t="n">
-        <v>9750</v>
+        <v>10750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>1393</v>
+        <v>1536</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O325" t="n">
         <v>15000</v>
       </c>
-      <c r="O325" t="n">
-        <v>16000</v>
-      </c>
       <c r="P325" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M326" t="n">
         <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O326" t="n">
-        <v>15500</v>
+        <v>13000</v>
       </c>
       <c r="P326" t="n">
-        <v>15250</v>
+        <v>12750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>2179</v>
+        <v>1821</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44168</v>
+        <v>44252</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26520,20 +26520,20 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
-        <v>12500</v>
+        <v>9500</v>
       </c>
       <c r="O327" t="n">
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="P327" t="n">
-        <v>12750</v>
+        <v>9750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>1821</v>
+        <v>1393</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26600,20 +26600,20 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N328" t="n">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="O328" t="n">
-        <v>11000</v>
+        <v>16000</v>
       </c>
       <c r="P328" t="n">
-        <v>10750</v>
+        <v>15500</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1536</v>
+        <v>2214</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>19500</v>
+        <v>15000</v>
       </c>
       <c r="O329" t="n">
-        <v>20000</v>
+        <v>15500</v>
       </c>
       <c r="P329" t="n">
-        <v>19750</v>
+        <v>15250</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>2821</v>
+        <v>2179</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O330" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P330" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O331" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P331" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26920,20 +26920,20 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M332" t="n">
         <v>300</v>
       </c>
       <c r="N332" t="n">
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="O332" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P332" t="n">
-        <v>14750</v>
+        <v>19750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>2107</v>
+        <v>2821</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44221</v>
+        <v>44369</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27000,20 +27000,20 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M333" t="n">
         <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O333" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P333" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44371</v>
+        <v>44369</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27080,20 +27080,20 @@
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
-        <v>19500</v>
+        <v>13500</v>
       </c>
       <c r="O334" t="n">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="P334" t="n">
-        <v>19750</v>
+        <v>13750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2821</v>
+        <v>1964</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27167,13 +27167,13 @@
         <v>300</v>
       </c>
       <c r="N335" t="n">
-        <v>17500</v>
+        <v>14500</v>
       </c>
       <c r="O335" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P335" t="n">
-        <v>17750</v>
+        <v>14750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>2536</v>
+        <v>2107</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O336" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P336" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>16500</v>
+        <v>19500</v>
       </c>
       <c r="O337" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="P337" t="n">
-        <v>16750</v>
+        <v>19750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2393</v>
+        <v>2821</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27407,13 +27407,13 @@
         <v>300</v>
       </c>
       <c r="N338" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O338" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P338" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27487,13 +27487,13 @@
         <v>200</v>
       </c>
       <c r="N339" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O339" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P339" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="O340" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="P340" t="n">
-        <v>13750</v>
+        <v>16750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>1964</v>
+        <v>2393</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27647,13 +27647,13 @@
         <v>300</v>
       </c>
       <c r="N341" t="n">
-        <v>11500</v>
+        <v>14500</v>
       </c>
       <c r="O341" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="P341" t="n">
-        <v>11750</v>
+        <v>14750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1679</v>
+        <v>2107</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44277</v>
+        <v>44316</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N342" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O342" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P342" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27807,13 +27807,13 @@
         <v>240</v>
       </c>
       <c r="N343" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O343" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P343" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N344" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O345" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P345" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O346" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="P346" t="n">
-        <v>14250</v>
+        <v>14750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2036</v>
+        <v>2107</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28127,13 +28127,13 @@
         <v>240</v>
       </c>
       <c r="N347" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="O347" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="P347" t="n">
-        <v>12250</v>
+        <v>12750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1750</v>
+        <v>1821</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N348" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="O348" t="n">
-        <v>9500</v>
+        <v>11000</v>
       </c>
       <c r="P348" t="n">
-        <v>9250</v>
+        <v>10750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>1321</v>
+        <v>1536</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
-        <v>30000</v>
+        <v>14000</v>
       </c>
       <c r="O349" t="n">
-        <v>31000</v>
+        <v>14500</v>
       </c>
       <c r="P349" t="n">
-        <v>30500</v>
+        <v>14250</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>4357</v>
+        <v>2036</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N350" t="n">
-        <v>25000</v>
+        <v>12000</v>
       </c>
       <c r="O350" t="n">
-        <v>26000</v>
+        <v>12500</v>
       </c>
       <c r="P350" t="n">
-        <v>25500</v>
+        <v>12250</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>3643</v>
+        <v>1750</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N351" t="n">
-        <v>20000</v>
+        <v>9000</v>
       </c>
       <c r="O351" t="n">
-        <v>21000</v>
+        <v>9500</v>
       </c>
       <c r="P351" t="n">
-        <v>20500</v>
+        <v>9250</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2929</v>
+        <v>1321</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N352" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="O352" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="P352" t="n">
-        <v>21750</v>
+        <v>30500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>3107</v>
+        <v>4357</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N353" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O353" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P353" t="n">
-        <v>19750</v>
+        <v>25500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2821</v>
+        <v>3643</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N354" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O354" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P354" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N355" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O355" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P355" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28847,13 +28847,13 @@
         <v>300</v>
       </c>
       <c r="N356" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O356" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P356" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N357" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O357" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P357" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29007,13 +29007,13 @@
         <v>400</v>
       </c>
       <c r="N358" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O358" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P358" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N359" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O359" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P360" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N361" t="n">
         <v>18500</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N362" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O362" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P362" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N363" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O363" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P363" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N364" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O364" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P364" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N365" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O365" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P365" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29647,13 +29647,13 @@
         <v>240</v>
       </c>
       <c r="N366" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O366" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P366" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29727,13 +29727,13 @@
         <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O367" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2500</v>
+        <v>2107</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O368" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2214</v>
+        <v>1821</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29887,13 +29887,13 @@
         <v>240</v>
       </c>
       <c r="N369" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O369" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P369" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N370" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O370" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P370" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N371" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O371" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P371" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N372" t="n">
         <v>12500</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>200</v>
       </c>
       <c r="N373" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O373" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P373" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N374" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P374" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N375" t="n">
         <v>12500</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="O376" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="P376" t="n">
-        <v>15250</v>
+        <v>18750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2179</v>
+        <v>2679</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N377" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O377" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P377" t="n">
-        <v>13250</v>
+        <v>16750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1893</v>
+        <v>2393</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N378" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O378" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="P378" t="n">
-        <v>11250</v>
+        <v>12750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>1607</v>
+        <v>1821</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N379" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O379" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P379" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N380" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P380" t="n">
-        <v>12750</v>
+        <v>13250</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1821</v>
+        <v>1893</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30847,13 +30847,13 @@
         <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O381" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P381" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O382" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P382" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O383" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31080,20 +31080,20 @@
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M384" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N384" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O384" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P384" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31160,20 +31160,20 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N385" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="O385" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P385" t="n">
-        <v>13750</v>
+        <v>25750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1964</v>
+        <v>3679</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31240,20 +31240,20 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M386" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N386" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O386" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P386" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N387" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O387" t="n">
         <v>16000</v>
       </c>
-      <c r="O387" t="n">
-        <v>16500</v>
-      </c>
       <c r="P387" t="n">
-        <v>16250</v>
+        <v>15750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2321</v>
+        <v>2250</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31407,13 +31407,13 @@
         <v>300</v>
       </c>
       <c r="N388" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O388" t="n">
         <v>14000</v>
       </c>
-      <c r="O388" t="n">
-        <v>14500</v>
-      </c>
       <c r="P388" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N389" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O389" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P389" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
         <v>16000</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O391" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P391" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P392" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N393" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O393" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="P393" t="n">
-        <v>20500</v>
+        <v>16250</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2929</v>
+        <v>2321</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31887,13 +31887,13 @@
         <v>240</v>
       </c>
       <c r="N394" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O394" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P394" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2643</v>
+        <v>1964</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N395" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O395" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N396" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O396" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P396" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N397" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O397" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P397" t="n">
-        <v>13250</v>
+        <v>18500</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1893</v>
+        <v>2643</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N398" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O398" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="P398" t="n">
-        <v>15250</v>
+        <v>18250</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2179</v>
+        <v>2607</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32287,13 +32287,13 @@
         <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O399" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P399" t="n">
-        <v>13250</v>
+        <v>16250</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1893</v>
+        <v>2321</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32367,13 +32367,13 @@
         <v>200</v>
       </c>
       <c r="N400" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O400" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P400" t="n">
-        <v>11250</v>
+        <v>13250</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1607</v>
+        <v>1893</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N401" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O401" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="P401" t="n">
-        <v>23500</v>
+        <v>15250</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>3357</v>
+        <v>2179</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N402" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O402" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P402" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2500</v>
+        <v>1893</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N403" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O403" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="P403" t="n">
-        <v>16250</v>
+        <v>11250</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>2321</v>
+        <v>1607</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N404" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O404" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="P404" t="n">
-        <v>14250</v>
+        <v>23500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2036</v>
+        <v>3357</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,68 +32727,308 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E405" t="n">
+        <v>4</v>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G405" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M405" t="n">
+        <v>300</v>
+      </c>
+      <c r="N405" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O405" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P405" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S405" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T405" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>8</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D406" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E405" t="n">
-        <v>4</v>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G405" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I405" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J405" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L405" t="inlineStr">
+      <c r="E406" t="n">
+        <v>4</v>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G406" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M406" t="n">
+        <v>240</v>
+      </c>
+      <c r="N406" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O406" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P406" t="n">
+        <v>16250</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S406" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T406" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>8</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D407" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E407" t="n">
+        <v>4</v>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G407" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M407" t="n">
+        <v>300</v>
+      </c>
+      <c r="N407" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O407" t="n">
+        <v>14500</v>
+      </c>
+      <c r="P407" t="n">
+        <v>14250</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S407" t="n">
+        <v>2036</v>
+      </c>
+      <c r="T407" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>8</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D408" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E408" t="n">
+        <v>4</v>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G408" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M405" t="n">
+      <c r="M408" t="n">
         <v>240</v>
       </c>
-      <c r="N405" t="n">
+      <c r="N408" t="n">
         <v>11000</v>
       </c>
-      <c r="O405" t="n">
+      <c r="O408" t="n">
         <v>11500</v>
       </c>
-      <c r="P405" t="n">
+      <c r="P408" t="n">
         <v>11250</v>
       </c>
-      <c r="Q405" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R405" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S405" t="n">
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S408" t="n">
         <v>1607</v>
       </c>
-      <c r="T405" t="n">
+      <c r="T408" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T411"/>
+  <dimension ref="A1:T414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="N355" t="n">
-        <v>30000</v>
+        <v>19000</v>
       </c>
       <c r="O355" t="n">
-        <v>31000</v>
+        <v>20000</v>
       </c>
       <c r="P355" t="n">
-        <v>30500</v>
+        <v>19500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>4357</v>
+        <v>2786</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N356" t="n">
-        <v>25000</v>
+        <v>14000</v>
       </c>
       <c r="O356" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P356" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>3643</v>
+        <v>2071</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="N357" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O357" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P357" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2929</v>
+        <v>1786</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N358" t="n">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="O358" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="P358" t="n">
-        <v>21750</v>
+        <v>30500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>3107</v>
+        <v>4357</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
-        <v>19500</v>
+        <v>25000</v>
       </c>
       <c r="O359" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P359" t="n">
-        <v>19750</v>
+        <v>25500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2821</v>
+        <v>3643</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N360" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O360" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P360" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N361" t="n">
-        <v>14500</v>
+        <v>21500</v>
       </c>
       <c r="O361" t="n">
-        <v>15000</v>
+        <v>22000</v>
       </c>
       <c r="P361" t="n">
-        <v>14750</v>
+        <v>21750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2107</v>
+        <v>3107</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29327,13 +29327,13 @@
         <v>300</v>
       </c>
       <c r="N362" t="n">
-        <v>12500</v>
+        <v>19500</v>
       </c>
       <c r="O362" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P362" t="n">
-        <v>12750</v>
+        <v>19750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1821</v>
+        <v>2821</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44160</v>
+        <v>44372</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N363" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O363" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P363" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29487,13 +29487,13 @@
         <v>400</v>
       </c>
       <c r="N364" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O364" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N365" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O365" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N366" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O366" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P366" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,7 +29724,7 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N367" t="n">
         <v>18500</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N368" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O368" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P368" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N369" t="n">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="O369" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="P369" t="n">
-        <v>13750</v>
+        <v>12750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>1964</v>
+        <v>1821</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P370" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N371" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P371" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30127,13 +30127,13 @@
         <v>240</v>
       </c>
       <c r="N372" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O372" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P372" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>300</v>
       </c>
       <c r="N373" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="O373" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>17500</v>
+        <v>14750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2500</v>
+        <v>2107</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N374" t="n">
-        <v>15000</v>
+        <v>12500</v>
       </c>
       <c r="O374" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>15500</v>
+        <v>12750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2214</v>
+        <v>1821</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30367,13 +30367,13 @@
         <v>240</v>
       </c>
       <c r="N375" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O375" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P375" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N376" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O376" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P376" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N377" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O377" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P377" t="n">
-        <v>14750</v>
+        <v>15500</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2107</v>
+        <v>2214</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N378" t="n">
         <v>12500</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30687,13 +30687,13 @@
         <v>200</v>
       </c>
       <c r="N379" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O379" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P379" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N380" t="n">
-        <v>16500</v>
+        <v>14500</v>
       </c>
       <c r="O380" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="P380" t="n">
-        <v>16750</v>
+        <v>14750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>2393</v>
+        <v>2107</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44357</v>
+        <v>44175</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N381" t="n">
         <v>12500</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>15000</v>
+        <v>18500</v>
       </c>
       <c r="O382" t="n">
-        <v>15500</v>
+        <v>19000</v>
       </c>
       <c r="P382" t="n">
-        <v>15250</v>
+        <v>18750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>2179</v>
+        <v>2679</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N383" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="O383" t="n">
-        <v>13500</v>
+        <v>17000</v>
       </c>
       <c r="P383" t="n">
-        <v>13250</v>
+        <v>16750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1893</v>
+        <v>2393</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N384" t="n">
-        <v>11000</v>
+        <v>12500</v>
       </c>
       <c r="O384" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="P384" t="n">
-        <v>11250</v>
+        <v>12750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>1607</v>
+        <v>1821</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="O385" t="n">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="P385" t="n">
-        <v>14750</v>
+        <v>15250</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2107</v>
+        <v>2179</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N386" t="n">
-        <v>12500</v>
+        <v>13000</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="P386" t="n">
-        <v>12750</v>
+        <v>13250</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1821</v>
+        <v>1893</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31327,13 +31327,13 @@
         <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O387" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P387" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O388" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P388" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N389" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O389" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44257</v>
+        <v>44162</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
-        <v>15500</v>
+        <v>10500</v>
       </c>
       <c r="O390" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="P390" t="n">
-        <v>15750</v>
+        <v>10750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2250</v>
+        <v>1536</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N391" t="n">
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="O391" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P391" t="n">
-        <v>13750</v>
+        <v>25750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1964</v>
+        <v>3679</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44257</v>
+        <v>44410</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N392" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O392" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P392" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N393" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O393" t="n">
         <v>16000</v>
       </c>
-      <c r="O393" t="n">
-        <v>16500</v>
-      </c>
       <c r="P393" t="n">
-        <v>16250</v>
+        <v>15750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2321</v>
+        <v>2250</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31887,13 +31887,13 @@
         <v>300</v>
       </c>
       <c r="N394" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O394" t="n">
         <v>14000</v>
       </c>
-      <c r="O394" t="n">
-        <v>14500</v>
-      </c>
       <c r="P394" t="n">
-        <v>14250</v>
+        <v>13750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2036</v>
+        <v>1964</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N395" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O395" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P395" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N396" t="n">
         <v>16000</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N397" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O397" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P397" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N398" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O398" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P398" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N399" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="O399" t="n">
-        <v>21000</v>
+        <v>16500</v>
       </c>
       <c r="P399" t="n">
-        <v>20500</v>
+        <v>16250</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2929</v>
+        <v>2321</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32367,13 +32367,13 @@
         <v>240</v>
       </c>
       <c r="N400" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O400" t="n">
-        <v>19000</v>
+        <v>14000</v>
       </c>
       <c r="P400" t="n">
-        <v>18500</v>
+        <v>13750</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2643</v>
+        <v>1964</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44358</v>
+        <v>44239</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N401" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="O401" t="n">
-        <v>18500</v>
+        <v>12000</v>
       </c>
       <c r="P401" t="n">
-        <v>18250</v>
+        <v>11750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2607</v>
+        <v>1679</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32520,20 +32520,20 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M402" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N402" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="O402" t="n">
-        <v>16500</v>
+        <v>21000</v>
       </c>
       <c r="P402" t="n">
-        <v>16250</v>
+        <v>20500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2321</v>
+        <v>2929</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32600,20 +32600,20 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M403" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N403" t="n">
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="O403" t="n">
-        <v>13500</v>
+        <v>19000</v>
       </c>
       <c r="P403" t="n">
-        <v>13250</v>
+        <v>18500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1893</v>
+        <v>2643</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N404" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="O404" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="P404" t="n">
-        <v>15250</v>
+        <v>18250</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2179</v>
+        <v>2607</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32767,13 +32767,13 @@
         <v>240</v>
       </c>
       <c r="N405" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="O405" t="n">
-        <v>13500</v>
+        <v>16500</v>
       </c>
       <c r="P405" t="n">
-        <v>13250</v>
+        <v>16250</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1893</v>
+        <v>2321</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32847,13 +32847,13 @@
         <v>200</v>
       </c>
       <c r="N406" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="O406" t="n">
-        <v>11500</v>
+        <v>13500</v>
       </c>
       <c r="P406" t="n">
-        <v>11250</v>
+        <v>13250</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1607</v>
+        <v>1893</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N407" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="O407" t="n">
-        <v>24000</v>
+        <v>15500</v>
       </c>
       <c r="P407" t="n">
-        <v>23500</v>
+        <v>15250</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>3357</v>
+        <v>2179</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N408" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="O408" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="P408" t="n">
-        <v>17500</v>
+        <v>13250</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>2500</v>
+        <v>1893</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44323</v>
+        <v>44211</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N409" t="n">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="O409" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="P409" t="n">
-        <v>16250</v>
+        <v>11250</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2321</v>
+        <v>1607</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N410" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="O410" t="n">
-        <v>14500</v>
+        <v>24000</v>
       </c>
       <c r="P410" t="n">
-        <v>14250</v>
+        <v>23500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2036</v>
+        <v>3357</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,68 +33207,308 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E411" t="n">
+        <v>4</v>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G411" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I411" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M411" t="n">
+        <v>300</v>
+      </c>
+      <c r="N411" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O411" t="n">
+        <v>18000</v>
+      </c>
+      <c r="P411" t="n">
+        <v>17500</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S411" t="n">
+        <v>2500</v>
+      </c>
+      <c r="T411" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>8</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D412" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E411" t="n">
-        <v>4</v>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G411" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I411" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L411" t="inlineStr">
+      <c r="E412" t="n">
+        <v>4</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M412" t="n">
+        <v>240</v>
+      </c>
+      <c r="N412" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O412" t="n">
+        <v>16500</v>
+      </c>
+      <c r="P412" t="n">
+        <v>16250</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S412" t="n">
+        <v>2321</v>
+      </c>
+      <c r="T412" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>8</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D413" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E413" t="n">
+        <v>4</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M413" t="n">
+        <v>300</v>
+      </c>
+      <c r="N413" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O413" t="n">
+        <v>14500</v>
+      </c>
+      <c r="P413" t="n">
+        <v>14250</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S413" t="n">
+        <v>2036</v>
+      </c>
+      <c r="T413" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>8</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D414" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E414" t="n">
+        <v>4</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M411" t="n">
+      <c r="M414" t="n">
         <v>240</v>
       </c>
-      <c r="N411" t="n">
+      <c r="N414" t="n">
         <v>11000</v>
       </c>
-      <c r="O411" t="n">
+      <c r="O414" t="n">
         <v>11500</v>
       </c>
-      <c r="P411" t="n">
+      <c r="P414" t="n">
         <v>11250</v>
       </c>
-      <c r="Q411" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R411" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S411" t="n">
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S414" t="n">
         <v>1607</v>
       </c>
-      <c r="T411" t="n">
+      <c r="T414" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T414"/>
+  <dimension ref="A1:T417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N357" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O357" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P357" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N358" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O358" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P358" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29087,13 +29087,13 @@
         <v>240</v>
       </c>
       <c r="N359" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P359" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N360" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O360" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P360" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N361" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O361" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P361" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29327,13 +29327,13 @@
         <v>240</v>
       </c>
       <c r="N362" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O362" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P362" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N363" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O363" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P363" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29487,13 +29487,13 @@
         <v>240</v>
       </c>
       <c r="N364" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P364" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29647,13 +29647,13 @@
         <v>300</v>
       </c>
       <c r="N366" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O366" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P366" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29727,13 +29727,13 @@
         <v>240</v>
       </c>
       <c r="N367" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O367" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P367" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O368" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P368" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29887,13 +29887,13 @@
         <v>300</v>
       </c>
       <c r="N369" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O369" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P369" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O370" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P370" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N371" t="n">
         <v>13500</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N372" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O372" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P372" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>300</v>
       </c>
       <c r="N373" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P373" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30287,13 +30287,13 @@
         <v>240</v>
       </c>
       <c r="N374" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O374" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P374" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N375" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O375" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P375" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N376" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O376" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O377" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P377" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N378" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O378" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P378" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N379" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P379" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N380" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P380" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N381" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O381" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P381" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O382" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N383" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O383" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P383" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N384" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O384" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P384" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O385" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P385" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N386" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O386" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P386" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31327,13 +31327,13 @@
         <v>240</v>
       </c>
       <c r="N387" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O387" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P387" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O388" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P388" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N389" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O389" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P389" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31560,20 +31560,20 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M390" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N390" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O390" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P390" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31640,20 +31640,20 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M391" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N391" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O391" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P391" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31720,20 +31720,20 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M392" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N392" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O392" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P392" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N393" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O393" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P393" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N394" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O394" t="n">
         <v>18000</v>
       </c>
-      <c r="O394" t="n">
-        <v>19000</v>
-      </c>
       <c r="P394" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O395" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P395" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N396" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O396" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P396" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N397" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O397" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P397" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N398" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O398" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P398" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O399" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P399" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N400" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O400" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P400" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N401" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O401" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P401" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N402" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O402" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P402" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32607,13 +32607,13 @@
         <v>160</v>
       </c>
       <c r="N403" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O403" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P403" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N404" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O404" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P404" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N405" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O405" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P405" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N406" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P406" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N407" t="n">
         <v>15500</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,7 +33004,7 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N408" t="n">
         <v>13500</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N410" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O410" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P410" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N411" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O411" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P411" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33320,20 +33320,20 @@
       </c>
       <c r="L412" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M412" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N412" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O412" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P412" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33400,20 +33400,20 @@
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M413" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N413" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O413" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P413" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,68 +33447,308 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E414" t="n">
+        <v>4</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M414" t="n">
+        <v>160</v>
+      </c>
+      <c r="N414" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O414" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P414" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S414" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T414" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>8</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D415" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E414" t="n">
-        <v>4</v>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G414" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I414" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J414" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L414" t="inlineStr">
+      <c r="E415" t="n">
+        <v>4</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M415" t="n">
+        <v>240</v>
+      </c>
+      <c r="N415" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O415" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P415" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S415" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T415" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>8</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D416" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E416" t="n">
+        <v>4</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M416" t="n">
+        <v>300</v>
+      </c>
+      <c r="N416" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O416" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P416" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S416" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T416" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>8</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D417" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E417" t="n">
+        <v>4</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M414" t="n">
+      <c r="M417" t="n">
         <v>300</v>
       </c>
-      <c r="N414" t="n">
+      <c r="N417" t="n">
         <v>10500</v>
       </c>
-      <c r="O414" t="n">
+      <c r="O417" t="n">
         <v>11000</v>
       </c>
-      <c r="P414" t="n">
+      <c r="P417" t="n">
         <v>10750</v>
       </c>
-      <c r="Q414" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R414" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S414" t="n">
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S417" t="n">
         <v>1536</v>
       </c>
-      <c r="T414" t="n">
+      <c r="T417" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T417"/>
+  <dimension ref="A1:T420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14407,7 +14407,7 @@
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E176" t="n">
         <v>4</v>
@@ -14440,20 +14440,20 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N176" t="n">
-        <v>23500</v>
+        <v>17500</v>
       </c>
       <c r="O176" t="n">
-        <v>24000</v>
+        <v>18000</v>
       </c>
       <c r="P176" t="n">
-        <v>23750</v>
+        <v>17750</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         </is>
       </c>
       <c r="S176" t="n">
-        <v>3393</v>
+        <v>2536</v>
       </c>
       <c r="T176" t="n">
         <v>7</v>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44424</v>
+        <v>44477</v>
       </c>
       <c r="E177" t="n">
         <v>4</v>
@@ -14520,20 +14520,20 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M177" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N177" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="O177" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P177" t="n">
-        <v>17750</v>
+        <v>13750</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="S177" t="n">
-        <v>2536</v>
+        <v>1964</v>
       </c>
       <c r="T177" t="n">
         <v>7</v>
@@ -14567,7 +14567,7 @@
         </is>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44245</v>
+        <v>44477</v>
       </c>
       <c r="E178" t="n">
         <v>4</v>
@@ -14600,20 +14600,20 @@
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M178" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="N178" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O178" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P178" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         </is>
       </c>
       <c r="S178" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T178" t="n">
         <v>7</v>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E179" t="n">
         <v>4</v>
@@ -14684,16 +14684,16 @@
         </is>
       </c>
       <c r="M179" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N179" t="n">
-        <v>13500</v>
+        <v>23500</v>
       </c>
       <c r="O179" t="n">
-        <v>14000</v>
+        <v>24000</v>
       </c>
       <c r="P179" t="n">
-        <v>13750</v>
+        <v>23750</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
@@ -14706,7 +14706,7 @@
         </is>
       </c>
       <c r="S179" t="n">
-        <v>1964</v>
+        <v>3393</v>
       </c>
       <c r="T179" t="n">
         <v>7</v>
@@ -14727,7 +14727,7 @@
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44245</v>
+        <v>44424</v>
       </c>
       <c r="E180" t="n">
         <v>4</v>
@@ -14764,16 +14764,16 @@
         </is>
       </c>
       <c r="M180" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N180" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O180" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P180" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         </is>
       </c>
       <c r="S180" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T180" t="n">
         <v>7</v>
@@ -14807,7 +14807,7 @@
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44174</v>
+        <v>44245</v>
       </c>
       <c r="E181" t="n">
         <v>4</v>
@@ -14844,16 +14844,16 @@
         </is>
       </c>
       <c r="M181" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N181" t="n">
-        <v>17500</v>
+        <v>15500</v>
       </c>
       <c r="O181" t="n">
-        <v>18000</v>
+        <v>16000</v>
       </c>
       <c r="P181" t="n">
-        <v>17750</v>
+        <v>15750</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         </is>
       </c>
       <c r="S181" t="n">
-        <v>2536</v>
+        <v>2250</v>
       </c>
       <c r="T181" t="n">
         <v>7</v>
@@ -14887,7 +14887,7 @@
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44174</v>
+        <v>44245</v>
       </c>
       <c r="E182" t="n">
         <v>4</v>
@@ -14927,13 +14927,13 @@
         <v>240</v>
       </c>
       <c r="N182" t="n">
-        <v>15500</v>
+        <v>13500</v>
       </c>
       <c r="O182" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P182" t="n">
-        <v>15750</v>
+        <v>13750</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="S182" t="n">
-        <v>2250</v>
+        <v>1964</v>
       </c>
       <c r="T182" t="n">
         <v>7</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44174</v>
+        <v>44245</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
@@ -15004,16 +15004,16 @@
         </is>
       </c>
       <c r="M183" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N183" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="O183" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="P183" t="n">
-        <v>13750</v>
+        <v>11750</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         </is>
       </c>
       <c r="S183" t="n">
-        <v>1964</v>
+        <v>1679</v>
       </c>
       <c r="T183" t="n">
         <v>7</v>
@@ -15047,7 +15047,7 @@
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44449</v>
+        <v>44174</v>
       </c>
       <c r="E184" t="n">
         <v>4</v>
@@ -15084,16 +15084,16 @@
         </is>
       </c>
       <c r="M184" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N184" t="n">
-        <v>30000</v>
+        <v>17500</v>
       </c>
       <c r="O184" t="n">
-        <v>31000</v>
+        <v>18000</v>
       </c>
       <c r="P184" t="n">
-        <v>30500</v>
+        <v>17750</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
@@ -15106,7 +15106,7 @@
         </is>
       </c>
       <c r="S184" t="n">
-        <v>4357</v>
+        <v>2536</v>
       </c>
       <c r="T184" t="n">
         <v>7</v>
@@ -15127,7 +15127,7 @@
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44449</v>
+        <v>44174</v>
       </c>
       <c r="E185" t="n">
         <v>4</v>
@@ -15164,16 +15164,16 @@
         </is>
       </c>
       <c r="M185" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N185" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O185" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P185" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         </is>
       </c>
       <c r="S185" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T185" t="n">
         <v>7</v>
@@ -15207,7 +15207,7 @@
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44449</v>
+        <v>44174</v>
       </c>
       <c r="E186" t="n">
         <v>4</v>
@@ -15247,13 +15247,13 @@
         <v>200</v>
       </c>
       <c r="N186" t="n">
-        <v>20000</v>
+        <v>13500</v>
       </c>
       <c r="O186" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P186" t="n">
-        <v>20500</v>
+        <v>13750</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="S186" t="n">
-        <v>2929</v>
+        <v>1964</v>
       </c>
       <c r="T186" t="n">
         <v>7</v>
@@ -15287,7 +15287,7 @@
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44336</v>
+        <v>44449</v>
       </c>
       <c r="E187" t="n">
         <v>4</v>
@@ -15324,16 +15324,16 @@
         </is>
       </c>
       <c r="M187" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N187" t="n">
-        <v>19000</v>
+        <v>30000</v>
       </c>
       <c r="O187" t="n">
-        <v>19500</v>
+        <v>31000</v>
       </c>
       <c r="P187" t="n">
-        <v>19250</v>
+        <v>30500</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="S187" t="n">
-        <v>2750</v>
+        <v>4357</v>
       </c>
       <c r="T187" t="n">
         <v>7</v>
@@ -15367,7 +15367,7 @@
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44336</v>
+        <v>44449</v>
       </c>
       <c r="E188" t="n">
         <v>4</v>
@@ -15407,13 +15407,13 @@
         <v>300</v>
       </c>
       <c r="N188" t="n">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="O188" t="n">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="P188" t="n">
-        <v>16250</v>
+        <v>26500</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="S188" t="n">
-        <v>2321</v>
+        <v>3786</v>
       </c>
       <c r="T188" t="n">
         <v>7</v>
@@ -15447,7 +15447,7 @@
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44336</v>
+        <v>44449</v>
       </c>
       <c r="E189" t="n">
         <v>4</v>
@@ -15484,16 +15484,16 @@
         </is>
       </c>
       <c r="M189" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N189" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O189" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P189" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         </is>
       </c>
       <c r="S189" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T189" t="n">
         <v>7</v>
@@ -15527,7 +15527,7 @@
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E190" t="n">
         <v>4</v>
@@ -15564,16 +15564,16 @@
         </is>
       </c>
       <c r="M190" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N190" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O190" t="n">
-        <v>15000</v>
+        <v>19500</v>
       </c>
       <c r="P190" t="n">
-        <v>14750</v>
+        <v>19250</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         </is>
       </c>
       <c r="S190" t="n">
-        <v>2107</v>
+        <v>2750</v>
       </c>
       <c r="T190" t="n">
         <v>7</v>
@@ -15607,7 +15607,7 @@
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -15644,16 +15644,16 @@
         </is>
       </c>
       <c r="M191" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="N191" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O191" t="n">
-        <v>13000</v>
+        <v>16500</v>
       </c>
       <c r="P191" t="n">
-        <v>12750</v>
+        <v>16250</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         </is>
       </c>
       <c r="S191" t="n">
-        <v>1821</v>
+        <v>2321</v>
       </c>
       <c r="T191" t="n">
         <v>7</v>
@@ -15687,7 +15687,7 @@
         </is>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44271</v>
+        <v>44336</v>
       </c>
       <c r="E192" t="n">
         <v>4</v>
@@ -15724,16 +15724,16 @@
         </is>
       </c>
       <c r="M192" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N192" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O192" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P192" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="S192" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T192" t="n">
         <v>7</v>
@@ -15767,7 +15767,7 @@
         </is>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -15804,7 +15804,7 @@
         </is>
       </c>
       <c r="M193" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N193" t="n">
         <v>14500</v>
@@ -15847,7 +15847,7 @@
         </is>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E194" t="n">
         <v>4</v>
@@ -15884,7 +15884,7 @@
         </is>
       </c>
       <c r="M194" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="N194" t="n">
         <v>12500</v>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44308</v>
+        <v>44271</v>
       </c>
       <c r="E195" t="n">
         <v>4</v>
@@ -15964,16 +15964,16 @@
         </is>
       </c>
       <c r="M195" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N195" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O195" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P195" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         </is>
       </c>
       <c r="S195" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T195" t="n">
         <v>7</v>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N196" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O196" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P196" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T196" t="n">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16127,13 +16127,13 @@
         <v>300</v>
       </c>
       <c r="N197" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O197" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P197" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16207,13 +16207,13 @@
         <v>240</v>
       </c>
       <c r="N198" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O198" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P198" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T198" t="n">
         <v>7</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N199" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="O199" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P199" t="n">
-        <v>25500</v>
+        <v>19750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>3643</v>
+        <v>2821</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16364,16 +16364,16 @@
         </is>
       </c>
       <c r="M200" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N200" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O200" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P200" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T200" t="n">
         <v>7</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16444,16 +16444,16 @@
         </is>
       </c>
       <c r="M201" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N201" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O201" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P201" t="n">
-        <v>19500</v>
+        <v>12250</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>2786</v>
+        <v>1750</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N202" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="O202" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="P202" t="n">
-        <v>16750</v>
+        <v>25500</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>2393</v>
+        <v>3643</v>
       </c>
       <c r="T202" t="n">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N203" t="n">
-        <v>14500</v>
+        <v>22000</v>
       </c>
       <c r="O203" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P203" t="n">
-        <v>14750</v>
+        <v>22500</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>2107</v>
+        <v>3214</v>
       </c>
       <c r="T203" t="n">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16687,13 +16687,13 @@
         <v>200</v>
       </c>
       <c r="N204" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O204" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P204" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>1679</v>
+        <v>2786</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N205" t="n">
-        <v>30000</v>
+        <v>16500</v>
       </c>
       <c r="O205" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="P205" t="n">
-        <v>30500</v>
+        <v>16750</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>4357</v>
+        <v>2393</v>
       </c>
       <c r="T205" t="n">
         <v>7</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N206" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="O206" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P206" t="n">
-        <v>25500</v>
+        <v>14750</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>3643</v>
+        <v>2107</v>
       </c>
       <c r="T206" t="n">
         <v>7</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16927,13 +16927,13 @@
         <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O207" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P207" t="n">
-        <v>20500</v>
+        <v>11750</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>2929</v>
+        <v>1679</v>
       </c>
       <c r="T207" t="n">
         <v>7</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17000,20 +17000,20 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M208" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N208" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O208" t="n">
-        <v>14500</v>
+        <v>31000</v>
       </c>
       <c r="P208" t="n">
-        <v>14250</v>
+        <v>30500</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>2036</v>
+        <v>4357</v>
       </c>
       <c r="T208" t="n">
         <v>7</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17080,20 +17080,20 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M209" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N209" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O209" t="n">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="P209" t="n">
-        <v>11250</v>
+        <v>25500</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>1607</v>
+        <v>3643</v>
       </c>
       <c r="T209" t="n">
         <v>7</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17160,20 +17160,20 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M210" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O210" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P210" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T210" t="n">
         <v>7</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17244,16 +17244,16 @@
         </is>
       </c>
       <c r="M211" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N211" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O211" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P211" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T211" t="n">
         <v>7</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17324,16 +17324,16 @@
         </is>
       </c>
       <c r="M212" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N212" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O212" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P212" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T212" t="n">
         <v>7</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17404,16 +17404,16 @@
         </is>
       </c>
       <c r="M213" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N213" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O213" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P213" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T213" t="n">
         <v>7</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N214" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O214" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P214" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T214" t="n">
         <v>7</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N215" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O215" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P215" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T215" t="n">
         <v>7</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N216" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O216" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P216" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T216" t="n">
         <v>7</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O217" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P217" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N218" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O218" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P218" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N219" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O219" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P219" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N220" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O220" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P220" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18047,13 +18047,13 @@
         <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O221" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P221" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N222" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O222" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P222" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T222" t="n">
         <v>7</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18207,13 +18207,13 @@
         <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O223" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P223" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T223" t="n">
         <v>7</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O224" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P224" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T224" t="n">
         <v>7</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N225" t="n">
-        <v>28500</v>
+        <v>15500</v>
       </c>
       <c r="O225" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="P225" t="n">
-        <v>28750</v>
+        <v>15750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>4107</v>
+        <v>2250</v>
       </c>
       <c r="T225" t="n">
         <v>7</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="O226" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P226" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>3393</v>
+        <v>1964</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N227" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="O227" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P227" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>2536</v>
+        <v>1679</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N228" t="n">
-        <v>14500</v>
+        <v>28500</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="P228" t="n">
-        <v>14750</v>
+        <v>28750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>2107</v>
+        <v>4107</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N229" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="O229" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P229" t="n">
-        <v>12750</v>
+        <v>23750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1821</v>
+        <v>3393</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18767,13 +18767,13 @@
         <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P230" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O231" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P231" t="n">
-        <v>16250</v>
+        <v>14750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>2321</v>
+        <v>2107</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N232" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O232" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19007,13 +19007,13 @@
         <v>240</v>
       </c>
       <c r="N233" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O233" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P233" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N234" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O234" t="n">
         <v>16500</v>
       </c>
-      <c r="O234" t="n">
-        <v>17000</v>
-      </c>
       <c r="P234" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O235" t="n">
         <v>14500</v>
       </c>
-      <c r="O235" t="n">
-        <v>15000</v>
-      </c>
       <c r="P235" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N236" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P236" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O237" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P237" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O238" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P238" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19487,13 +19487,13 @@
         <v>200</v>
       </c>
       <c r="N239" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O239" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N240" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O240" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P240" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N241" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O241" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P241" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44427</v>
+        <v>44169</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19720,20 +19720,20 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M242" t="n">
         <v>200</v>
       </c>
       <c r="N242" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="O242" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P242" t="n">
-        <v>25750</v>
+        <v>10750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>3679</v>
+        <v>1536</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19800,20 +19800,20 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N243" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="O243" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P243" t="n">
-        <v>19750</v>
+        <v>25750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2821</v>
+        <v>3679</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19880,20 +19880,20 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N244" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="O244" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P244" t="n">
-        <v>16750</v>
+        <v>20750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>2393</v>
+        <v>2964</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="M245" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>14500</v>
+        <v>25500</v>
       </c>
       <c r="O245" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P245" t="n">
-        <v>14750</v>
+        <v>25750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>2107</v>
+        <v>3679</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N246" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O246" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P246" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="O247" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P247" t="n">
-        <v>19750</v>
+        <v>16750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>2821</v>
+        <v>2393</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20287,13 +20287,13 @@
         <v>240</v>
       </c>
       <c r="N249" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O249" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P249" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N250" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O250" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="P250" t="n">
-        <v>14250</v>
+        <v>19750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2036</v>
+        <v>2821</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N251" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O251" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P251" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1750</v>
+        <v>2107</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20527,13 +20527,13 @@
         <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O252" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P252" t="n">
-        <v>9250</v>
+        <v>12750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1321</v>
+        <v>1821</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N253" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O253" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="P253" t="n">
-        <v>16750</v>
+        <v>14250</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>2393</v>
+        <v>2036</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20687,13 +20687,13 @@
         <v>240</v>
       </c>
       <c r="N254" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O254" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P254" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O255" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P255" t="n">
-        <v>11750</v>
+        <v>9250</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1679</v>
+        <v>1321</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20847,13 +20847,13 @@
         <v>300</v>
       </c>
       <c r="N256" t="n">
+        <v>16500</v>
+      </c>
+      <c r="O256" t="n">
         <v>17000</v>
       </c>
-      <c r="O256" t="n">
-        <v>18000</v>
-      </c>
       <c r="P256" t="n">
-        <v>17500</v>
+        <v>16750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2500</v>
+        <v>2393</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O257" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P257" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>2214</v>
+        <v>1964</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N258" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O258" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P258" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N259" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P259" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N260" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O260" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P260" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P261" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N262" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="O262" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P262" t="n">
-        <v>24750</v>
+        <v>16750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>3536</v>
+        <v>2393</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O263" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N264" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O264" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N265" t="n">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="O265" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="P265" t="n">
-        <v>15250</v>
+        <v>24750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2179</v>
+        <v>3536</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N266" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="O266" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P266" t="n">
-        <v>13250</v>
+        <v>20750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1893</v>
+        <v>2964</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N267" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O267" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="P267" t="n">
-        <v>11250</v>
+        <v>16750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1607</v>
+        <v>2393</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N268" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O268" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P268" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="O269" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P269" t="n">
-        <v>21750</v>
+        <v>13250</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>3107</v>
+        <v>1893</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21967,13 +21967,13 @@
         <v>200</v>
       </c>
       <c r="N270" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="O270" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="P270" t="n">
-        <v>17750</v>
+        <v>11250</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>2536</v>
+        <v>1607</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>14500</v>
+        <v>26500</v>
       </c>
       <c r="O271" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P271" t="n">
-        <v>14750</v>
+        <v>26750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>2107</v>
+        <v>3821</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N272" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="O272" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P272" t="n">
-        <v>12750</v>
+        <v>21750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1821</v>
+        <v>3107</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22207,13 +22207,13 @@
         <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O273" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P273" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22287,13 +22287,13 @@
         <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O274" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P274" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>2929</v>
+        <v>2107</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N275" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O275" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P275" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>2357</v>
+        <v>1821</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22444,16 +22444,16 @@
         </is>
       </c>
       <c r="M276" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O276" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P276" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1929</v>
+        <v>1536</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O277" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="P277" t="n">
-        <v>15250</v>
+        <v>20500</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2179</v>
+        <v>2929</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22607,13 +22607,13 @@
         <v>300</v>
       </c>
       <c r="N278" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P278" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N279" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P279" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1536</v>
+        <v>1929</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22760,20 +22760,20 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M280" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N280" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O280" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P280" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22840,20 +22840,20 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M281" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O281" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22920,20 +22920,20 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M282" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N282" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O282" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P282" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O283" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P283" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23084,16 +23084,16 @@
         </is>
       </c>
       <c r="M284" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N284" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O284" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P284" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O285" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P285" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N286" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O286" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P286" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N287" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O287" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P287" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N288" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O288" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P288" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,7 +23484,7 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N289" t="n">
         <v>15500</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,7 +23564,7 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N290" t="n">
         <v>12500</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23647,13 +23647,13 @@
         <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O291" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P291" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N292" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O292" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P292" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O293" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>10244</v>
+        <v>12750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1463</v>
+        <v>1821</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N294" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O294" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="P294" t="n">
-        <v>26500</v>
+        <v>14250</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>3786</v>
+        <v>2036</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23960,20 +23960,20 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M295" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N295" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O295" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P295" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>2929</v>
+        <v>1750</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24040,20 +24040,20 @@
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M296" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N296" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O296" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P296" t="n">
-        <v>16750</v>
+        <v>10244</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>2393</v>
+        <v>1463</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N297" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O297" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P297" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N298" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O298" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P298" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24287,13 +24287,13 @@
         <v>300</v>
       </c>
       <c r="N299" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O299" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P299" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N300" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O300" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P300" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24524,16 +24524,16 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N302" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="O302" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P302" t="n">
-        <v>25750</v>
+        <v>18750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>3679</v>
+        <v>2679</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N303" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="O303" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P303" t="n">
-        <v>21750</v>
+        <v>15750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>3107</v>
+        <v>2250</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24687,13 +24687,13 @@
         <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O304" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P304" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24767,13 +24767,13 @@
         <v>200</v>
       </c>
       <c r="N305" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="O305" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="P305" t="n">
-        <v>18250</v>
+        <v>25750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>2607</v>
+        <v>3679</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N306" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O306" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P306" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24924,16 +24924,16 @@
         </is>
       </c>
       <c r="M307" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="O307" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P307" t="n">
-        <v>13250</v>
+        <v>17750</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>1893</v>
+        <v>2536</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="O308" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="P308" t="n">
-        <v>15750</v>
+        <v>18250</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2250</v>
+        <v>2607</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25080,11 +25080,11 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M309" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N309" t="n">
         <v>16000</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25160,20 +25160,20 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N310" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O310" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="P310" t="n">
-        <v>14250</v>
+        <v>13250</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2036</v>
+        <v>1893</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25240,20 +25240,20 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M311" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N311" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O311" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P311" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N312" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O312" t="n">
         <v>16500</v>
       </c>
-      <c r="O312" t="n">
-        <v>17000</v>
-      </c>
       <c r="P312" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25407,13 +25407,13 @@
         <v>240</v>
       </c>
       <c r="N313" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O313" t="n">
         <v>14500</v>
       </c>
-      <c r="O313" t="n">
-        <v>15000</v>
-      </c>
       <c r="P313" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25487,13 +25487,13 @@
         <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O314" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P314" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="N315" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="O315" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P315" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2786</v>
+        <v>2393</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25644,16 +25644,16 @@
         </is>
       </c>
       <c r="M316" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O316" t="n">
         <v>15000</v>
       </c>
       <c r="P316" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25724,16 +25724,16 @@
         </is>
       </c>
       <c r="M317" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N317" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O317" t="n">
         <v>12000</v>
       </c>
-      <c r="O317" t="n">
-        <v>13000</v>
-      </c>
       <c r="P317" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1786</v>
+        <v>1679</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N318" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O318" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P318" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N319" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O319" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1821</v>
+        <v>2071</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N320" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P320" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1393</v>
+        <v>1786</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N321" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O321" t="n">
         <v>15000</v>
       </c>
-      <c r="O321" t="n">
-        <v>15500</v>
-      </c>
       <c r="P321" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O322" t="n">
         <v>13000</v>
       </c>
-      <c r="O322" t="n">
-        <v>13500</v>
-      </c>
       <c r="P322" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26207,13 +26207,13 @@
         <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O323" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P323" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1607</v>
+        <v>1393</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N324" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O324" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P324" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26367,13 +26367,13 @@
         <v>300</v>
       </c>
       <c r="N325" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P325" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O326" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="P326" t="n">
-        <v>13250</v>
+        <v>11250</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N327" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O327" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P327" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O328" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P328" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2250</v>
+        <v>2321</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N329" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P329" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1679</v>
+        <v>1893</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="O330" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P330" t="n">
-        <v>21750</v>
+        <v>17750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>3107</v>
+        <v>2536</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O331" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P331" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O332" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P332" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N333" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="O333" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P333" t="n">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2679</v>
+        <v>3107</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27087,13 +27087,13 @@
         <v>300</v>
       </c>
       <c r="N334" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O334" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P334" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N335" t="n">
         <v>12500</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N336" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="O336" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="P336" t="n">
-        <v>30500</v>
+        <v>18750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>4357</v>
+        <v>2679</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27327,13 +27327,13 @@
         <v>300</v>
       </c>
       <c r="N337" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O337" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P337" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N338" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O338" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P338" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N339" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="O339" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="P339" t="n">
-        <v>24750</v>
+        <v>30500</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>3536</v>
+        <v>4357</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="O340" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="P340" t="n">
-        <v>22750</v>
+        <v>26500</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>3250</v>
+        <v>3786</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N341" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O341" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P341" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N342" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O342" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P342" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N343" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O343" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P343" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O344" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P344" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N345" t="n">
         <v>30000</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,7 +28044,7 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N346" t="n">
         <v>25000</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N347" t="n">
         <v>20000</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N348" t="n">
         <v>30000</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N349" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O349" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P349" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N350" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O350" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P350" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N351" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O351" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P351" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N352" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O352" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P352" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N353" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O353" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P353" t="n">
-        <v>10750</v>
+        <v>20646</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>1536</v>
+        <v>2949</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N354" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O354" t="n">
         <v>15000</v>
       </c>
-      <c r="O354" t="n">
-        <v>16000</v>
-      </c>
       <c r="P354" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28760,20 +28760,20 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M355" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N355" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O355" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P355" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28840,20 +28840,20 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M356" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N356" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O356" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P356" t="n">
-        <v>16500</v>
+        <v>10750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2357</v>
+        <v>1536</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N357" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O357" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P357" t="n">
-        <v>19250</v>
+        <v>15500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2750</v>
+        <v>2214</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N358" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O358" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P358" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N359" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O359" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P359" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N360" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O360" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P360" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O361" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P361" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29327,13 +29327,13 @@
         <v>240</v>
       </c>
       <c r="N362" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O362" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P362" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N363" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O363" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P363" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N364" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O364" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P364" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29567,13 +29567,13 @@
         <v>240</v>
       </c>
       <c r="N365" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P365" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N366" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P366" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29727,13 +29727,13 @@
         <v>240</v>
       </c>
       <c r="N367" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O367" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P367" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29887,13 +29887,13 @@
         <v>300</v>
       </c>
       <c r="N369" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O369" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P369" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29967,13 +29967,13 @@
         <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O370" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30044,16 +30044,16 @@
         </is>
       </c>
       <c r="M371" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N371" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O371" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P371" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30127,13 +30127,13 @@
         <v>300</v>
       </c>
       <c r="N372" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O372" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P372" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N373" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O373" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P373" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,7 +30284,7 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N374" t="n">
         <v>13500</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N375" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O375" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P375" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30447,13 +30447,13 @@
         <v>300</v>
       </c>
       <c r="N376" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O376" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P376" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30527,13 +30527,13 @@
         <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P377" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N378" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O378" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P378" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O379" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P379" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,16 +30764,16 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N380" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O380" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P380" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O381" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P381" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N382" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P382" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N383" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O383" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P383" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N384" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O384" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P384" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N385" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O385" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N386" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O386" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P386" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O387" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P387" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O388" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P388" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N389" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O389" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P389" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31567,13 +31567,13 @@
         <v>240</v>
       </c>
       <c r="N390" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O390" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P390" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O391" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P391" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O392" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P392" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31800,20 +31800,20 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M393" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N393" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O393" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P393" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31880,20 +31880,20 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M394" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N394" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O394" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P394" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31960,20 +31960,20 @@
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M395" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N395" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O395" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P395" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N396" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O396" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P396" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N397" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O397" t="n">
         <v>18000</v>
       </c>
-      <c r="O397" t="n">
-        <v>19000</v>
-      </c>
       <c r="P397" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N398" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O398" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P398" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N399" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O399" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P399" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N400" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O400" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P400" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N401" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O401" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P401" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N402" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O402" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P402" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N403" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O403" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P403" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N404" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O404" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P404" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N405" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O405" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P405" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32847,13 +32847,13 @@
         <v>160</v>
       </c>
       <c r="N406" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O406" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P406" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N407" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O407" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P407" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O408" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P408" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N409" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O409" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P409" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,7 +33164,7 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N410" t="n">
         <v>15500</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N411" t="n">
         <v>13500</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N413" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O413" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P413" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N414" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O414" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P414" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N415" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O415" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O416" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P416" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,68 +33687,308 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E417" t="n">
+        <v>4</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M417" t="n">
+        <v>160</v>
+      </c>
+      <c r="N417" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O417" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P417" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R417" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S417" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T417" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>8</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D418" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E417" t="n">
-        <v>4</v>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G417" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I417" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J417" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L417" t="inlineStr">
+      <c r="E418" t="n">
+        <v>4</v>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G418" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M418" t="n">
+        <v>240</v>
+      </c>
+      <c r="N418" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O418" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P418" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q418" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R418" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S418" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T418" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>8</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D419" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E419" t="n">
+        <v>4</v>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G419" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J419" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M419" t="n">
+        <v>300</v>
+      </c>
+      <c r="N419" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O419" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P419" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q419" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R419" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S419" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T419" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>8</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D420" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E420" t="n">
+        <v>4</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M417" t="n">
+      <c r="M420" t="n">
         <v>300</v>
       </c>
-      <c r="N417" t="n">
+      <c r="N420" t="n">
         <v>10500</v>
       </c>
-      <c r="O417" t="n">
+      <c r="O420" t="n">
         <v>11000</v>
       </c>
-      <c r="P417" t="n">
+      <c r="P420" t="n">
         <v>10750</v>
       </c>
-      <c r="Q417" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R417" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S417" t="n">
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S420" t="n">
         <v>1536</v>
       </c>
-      <c r="T417" t="n">
+      <c r="T420" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T420"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16007,7 +16007,7 @@
         </is>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E196" t="n">
         <v>4</v>
@@ -16044,16 +16044,16 @@
         </is>
       </c>
       <c r="M196" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N196" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O196" t="n">
         <v>14500</v>
       </c>
-      <c r="O196" t="n">
-        <v>15000</v>
-      </c>
       <c r="P196" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         </is>
       </c>
       <c r="S196" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T196" t="n">
         <v>7</v>
@@ -16087,7 +16087,7 @@
         </is>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E197" t="n">
         <v>4</v>
@@ -16124,16 +16124,16 @@
         </is>
       </c>
       <c r="M197" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N197" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O197" t="n">
         <v>12500</v>
       </c>
-      <c r="O197" t="n">
-        <v>13000</v>
-      </c>
       <c r="P197" t="n">
-        <v>12750</v>
+        <v>12250</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="S197" t="n">
-        <v>1821</v>
+        <v>1750</v>
       </c>
       <c r="T197" t="n">
         <v>7</v>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44308</v>
+        <v>44483</v>
       </c>
       <c r="E198" t="n">
         <v>4</v>
@@ -16204,16 +16204,16 @@
         </is>
       </c>
       <c r="M198" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N198" t="n">
-        <v>10500</v>
+        <v>9000</v>
       </c>
       <c r="O198" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="P198" t="n">
-        <v>10750</v>
+        <v>9250</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
@@ -16226,7 +16226,7 @@
         </is>
       </c>
       <c r="S198" t="n">
-        <v>1536</v>
+        <v>1321</v>
       </c>
       <c r="T198" t="n">
         <v>7</v>
@@ -16247,7 +16247,7 @@
         </is>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E199" t="n">
         <v>4</v>
@@ -16284,16 +16284,16 @@
         </is>
       </c>
       <c r="M199" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N199" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O199" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P199" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         </is>
       </c>
       <c r="S199" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T199" t="n">
         <v>7</v>
@@ -16327,7 +16327,7 @@
         </is>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E200" t="n">
         <v>4</v>
@@ -16367,13 +16367,13 @@
         <v>300</v>
       </c>
       <c r="N200" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O200" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P200" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         </is>
       </c>
       <c r="S200" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T200" t="n">
         <v>7</v>
@@ -16407,7 +16407,7 @@
         </is>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44330</v>
+        <v>44308</v>
       </c>
       <c r="E201" t="n">
         <v>4</v>
@@ -16447,13 +16447,13 @@
         <v>240</v>
       </c>
       <c r="N201" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O201" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P201" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -16466,7 +16466,7 @@
         </is>
       </c>
       <c r="S201" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T201" t="n">
         <v>7</v>
@@ -16487,7 +16487,7 @@
         </is>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E202" t="n">
         <v>4</v>
@@ -16524,16 +16524,16 @@
         </is>
       </c>
       <c r="M202" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N202" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="O202" t="n">
-        <v>26000</v>
+        <v>20000</v>
       </c>
       <c r="P202" t="n">
-        <v>25500</v>
+        <v>19750</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="S202" t="n">
-        <v>3643</v>
+        <v>2821</v>
       </c>
       <c r="T202" t="n">
         <v>7</v>
@@ -16567,7 +16567,7 @@
         </is>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E203" t="n">
         <v>4</v>
@@ -16604,16 +16604,16 @@
         </is>
       </c>
       <c r="M203" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N203" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O203" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P203" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
@@ -16626,7 +16626,7 @@
         </is>
       </c>
       <c r="S203" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T203" t="n">
         <v>7</v>
@@ -16647,7 +16647,7 @@
         </is>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44463</v>
+        <v>44330</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -16684,16 +16684,16 @@
         </is>
       </c>
       <c r="M204" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N204" t="n">
-        <v>19000</v>
+        <v>12000</v>
       </c>
       <c r="O204" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="P204" t="n">
-        <v>19500</v>
+        <v>12250</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         </is>
       </c>
       <c r="S204" t="n">
-        <v>2786</v>
+        <v>1750</v>
       </c>
       <c r="T204" t="n">
         <v>7</v>
@@ -16727,7 +16727,7 @@
         </is>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E205" t="n">
         <v>4</v>
@@ -16764,16 +16764,16 @@
         </is>
       </c>
       <c r="M205" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N205" t="n">
-        <v>16500</v>
+        <v>25000</v>
       </c>
       <c r="O205" t="n">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="P205" t="n">
-        <v>16750</v>
+        <v>25500</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="S205" t="n">
-        <v>2393</v>
+        <v>3643</v>
       </c>
       <c r="T205" t="n">
         <v>7</v>
@@ -16807,7 +16807,7 @@
         </is>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E206" t="n">
         <v>4</v>
@@ -16844,16 +16844,16 @@
         </is>
       </c>
       <c r="M206" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N206" t="n">
-        <v>14500</v>
+        <v>22000</v>
       </c>
       <c r="O206" t="n">
-        <v>15000</v>
+        <v>23000</v>
       </c>
       <c r="P206" t="n">
-        <v>14750</v>
+        <v>22500</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         </is>
       </c>
       <c r="S206" t="n">
-        <v>2107</v>
+        <v>3214</v>
       </c>
       <c r="T206" t="n">
         <v>7</v>
@@ -16887,7 +16887,7 @@
         </is>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44322</v>
+        <v>44463</v>
       </c>
       <c r="E207" t="n">
         <v>4</v>
@@ -16927,13 +16927,13 @@
         <v>200</v>
       </c>
       <c r="N207" t="n">
-        <v>11500</v>
+        <v>19000</v>
       </c>
       <c r="O207" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P207" t="n">
-        <v>11750</v>
+        <v>19500</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="S207" t="n">
-        <v>1679</v>
+        <v>2786</v>
       </c>
       <c r="T207" t="n">
         <v>7</v>
@@ -16967,7 +16967,7 @@
         </is>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E208" t="n">
         <v>4</v>
@@ -17004,16 +17004,16 @@
         </is>
       </c>
       <c r="M208" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N208" t="n">
-        <v>30000</v>
+        <v>16500</v>
       </c>
       <c r="O208" t="n">
-        <v>31000</v>
+        <v>17000</v>
       </c>
       <c r="P208" t="n">
-        <v>30500</v>
+        <v>16750</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="S208" t="n">
-        <v>4357</v>
+        <v>2393</v>
       </c>
       <c r="T208" t="n">
         <v>7</v>
@@ -17047,7 +17047,7 @@
         </is>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E209" t="n">
         <v>4</v>
@@ -17084,16 +17084,16 @@
         </is>
       </c>
       <c r="M209" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N209" t="n">
-        <v>25000</v>
+        <v>14500</v>
       </c>
       <c r="O209" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P209" t="n">
-        <v>25500</v>
+        <v>14750</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         </is>
       </c>
       <c r="S209" t="n">
-        <v>3643</v>
+        <v>2107</v>
       </c>
       <c r="T209" t="n">
         <v>7</v>
@@ -17127,7 +17127,7 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44428</v>
+        <v>44322</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -17167,13 +17167,13 @@
         <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>20000</v>
+        <v>11500</v>
       </c>
       <c r="O210" t="n">
-        <v>21000</v>
+        <v>12000</v>
       </c>
       <c r="P210" t="n">
-        <v>20500</v>
+        <v>11750</v>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         </is>
       </c>
       <c r="S210" t="n">
-        <v>2929</v>
+        <v>1679</v>
       </c>
       <c r="T210" t="n">
         <v>7</v>
@@ -17207,7 +17207,7 @@
         </is>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E211" t="n">
         <v>4</v>
@@ -17240,20 +17240,20 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M211" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N211" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O211" t="n">
-        <v>14500</v>
+        <v>31000</v>
       </c>
       <c r="P211" t="n">
-        <v>14250</v>
+        <v>30500</v>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="S211" t="n">
-        <v>2036</v>
+        <v>4357</v>
       </c>
       <c r="T211" t="n">
         <v>7</v>
@@ -17287,7 +17287,7 @@
         </is>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E212" t="n">
         <v>4</v>
@@ -17320,20 +17320,20 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M212" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N212" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O212" t="n">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="P212" t="n">
-        <v>11250</v>
+        <v>25500</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="S212" t="n">
-        <v>1607</v>
+        <v>3643</v>
       </c>
       <c r="T212" t="n">
         <v>7</v>
@@ -17367,7 +17367,7 @@
         </is>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E213" t="n">
         <v>4</v>
@@ -17400,20 +17400,20 @@
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M213" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N213" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O213" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P213" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="S213" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T213" t="n">
         <v>7</v>
@@ -17447,7 +17447,7 @@
         </is>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E214" t="n">
         <v>4</v>
@@ -17484,16 +17484,16 @@
         </is>
       </c>
       <c r="M214" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N214" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O214" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P214" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         </is>
       </c>
       <c r="S214" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T214" t="n">
         <v>7</v>
@@ -17527,7 +17527,7 @@
         </is>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E215" t="n">
         <v>4</v>
@@ -17564,16 +17564,16 @@
         </is>
       </c>
       <c r="M215" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N215" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O215" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P215" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
@@ -17586,7 +17586,7 @@
         </is>
       </c>
       <c r="S215" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T215" t="n">
         <v>7</v>
@@ -17607,7 +17607,7 @@
         </is>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E216" t="n">
         <v>4</v>
@@ -17644,16 +17644,16 @@
         </is>
       </c>
       <c r="M216" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N216" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O216" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P216" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         </is>
       </c>
       <c r="S216" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T216" t="n">
         <v>7</v>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N217" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O217" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P217" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N218" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O218" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P218" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N219" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O219" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P219" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17964,16 +17964,16 @@
         </is>
       </c>
       <c r="M220" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N220" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O220" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P220" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18044,16 +18044,16 @@
         </is>
       </c>
       <c r="M221" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N221" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O221" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P221" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18124,16 +18124,16 @@
         </is>
       </c>
       <c r="M222" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N222" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O222" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P222" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T222" t="n">
         <v>7</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N223" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O223" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P223" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T223" t="n">
         <v>7</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18287,13 +18287,13 @@
         <v>200</v>
       </c>
       <c r="N224" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O224" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P224" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T224" t="n">
         <v>7</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N225" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O225" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P225" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T225" t="n">
         <v>7</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18447,13 +18447,13 @@
         <v>300</v>
       </c>
       <c r="N226" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O226" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P226" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O227" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P227" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>160</v>
+        <v>400</v>
       </c>
       <c r="N228" t="n">
-        <v>28500</v>
+        <v>15500</v>
       </c>
       <c r="O228" t="n">
-        <v>29000</v>
+        <v>16000</v>
       </c>
       <c r="P228" t="n">
-        <v>28750</v>
+        <v>15750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>4107</v>
+        <v>2250</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>23500</v>
+        <v>13500</v>
       </c>
       <c r="O229" t="n">
-        <v>24000</v>
+        <v>14000</v>
       </c>
       <c r="P229" t="n">
-        <v>23750</v>
+        <v>13750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>3393</v>
+        <v>1964</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44421</v>
+        <v>44195</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N230" t="n">
-        <v>17500</v>
+        <v>11500</v>
       </c>
       <c r="O230" t="n">
-        <v>18000</v>
+        <v>12000</v>
       </c>
       <c r="P230" t="n">
-        <v>17750</v>
+        <v>11750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>2536</v>
+        <v>1679</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N231" t="n">
-        <v>14500</v>
+        <v>28500</v>
       </c>
       <c r="O231" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="P231" t="n">
-        <v>14750</v>
+        <v>28750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>2107</v>
+        <v>4107</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N232" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="O232" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P232" t="n">
-        <v>12750</v>
+        <v>23750</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>1821</v>
+        <v>3393</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19007,13 +19007,13 @@
         <v>240</v>
       </c>
       <c r="N233" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O233" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P233" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N234" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O234" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P234" t="n">
-        <v>16250</v>
+        <v>14750</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>2321</v>
+        <v>2107</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N235" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O235" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P235" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19247,13 +19247,13 @@
         <v>240</v>
       </c>
       <c r="N236" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O236" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P236" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N237" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O237" t="n">
         <v>16500</v>
       </c>
-      <c r="O237" t="n">
-        <v>17000</v>
-      </c>
       <c r="P237" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N238" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O238" t="n">
         <v>14500</v>
       </c>
-      <c r="O238" t="n">
-        <v>15000</v>
-      </c>
       <c r="P238" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N239" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O239" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P239" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N240" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O240" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P240" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N241" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O241" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P241" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19727,13 +19727,13 @@
         <v>200</v>
       </c>
       <c r="N242" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O242" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P242" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N243" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O243" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P243" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O244" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P244" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44427</v>
+        <v>44169</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19960,20 +19960,20 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M245" t="n">
         <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="O245" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P245" t="n">
-        <v>25750</v>
+        <v>10750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>3679</v>
+        <v>1536</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20040,20 +20040,20 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M246" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N246" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="O246" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P246" t="n">
-        <v>19750</v>
+        <v>25750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>2821</v>
+        <v>3679</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20120,20 +20120,20 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N247" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="O247" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P247" t="n">
-        <v>16750</v>
+        <v>20750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>2393</v>
+        <v>2964</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20204,16 +20204,16 @@
         </is>
       </c>
       <c r="M248" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>14500</v>
+        <v>25500</v>
       </c>
       <c r="O248" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P248" t="n">
-        <v>14750</v>
+        <v>25750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>2107</v>
+        <v>3679</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N249" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O249" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P249" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="O250" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P250" t="n">
-        <v>19750</v>
+        <v>16750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2821</v>
+        <v>2393</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20527,13 +20527,13 @@
         <v>240</v>
       </c>
       <c r="N252" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O252" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P252" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O253" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="P253" t="n">
-        <v>14250</v>
+        <v>19750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>2036</v>
+        <v>2821</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20684,16 +20684,16 @@
         </is>
       </c>
       <c r="M254" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N254" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O254" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P254" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1750</v>
+        <v>2107</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20767,13 +20767,13 @@
         <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O255" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P255" t="n">
-        <v>9250</v>
+        <v>12750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1321</v>
+        <v>1821</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N256" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O256" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="P256" t="n">
-        <v>16750</v>
+        <v>14250</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2393</v>
+        <v>2036</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20927,13 +20927,13 @@
         <v>240</v>
       </c>
       <c r="N257" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O257" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P257" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21004,16 +21004,16 @@
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N258" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O258" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P258" t="n">
-        <v>11750</v>
+        <v>9250</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1679</v>
+        <v>1321</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21087,13 +21087,13 @@
         <v>300</v>
       </c>
       <c r="N259" t="n">
+        <v>16500</v>
+      </c>
+      <c r="O259" t="n">
         <v>17000</v>
       </c>
-      <c r="O259" t="n">
-        <v>18000</v>
-      </c>
       <c r="P259" t="n">
-        <v>17500</v>
+        <v>16750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2500</v>
+        <v>2393</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O260" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P260" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>2214</v>
+        <v>1964</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O261" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P261" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N262" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O262" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P262" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N263" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O263" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P263" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O264" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P264" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N265" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="O265" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P265" t="n">
-        <v>24750</v>
+        <v>16750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>3536</v>
+        <v>2393</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N266" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O266" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P266" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N267" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O267" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P267" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N268" t="n">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="O268" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="P268" t="n">
-        <v>15250</v>
+        <v>24750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2179</v>
+        <v>3536</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N269" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="O269" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P269" t="n">
-        <v>13250</v>
+        <v>20750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>1893</v>
+        <v>2964</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N270" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O270" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="P270" t="n">
-        <v>11250</v>
+        <v>16750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>1607</v>
+        <v>2393</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N271" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O271" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P271" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N272" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="O272" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P272" t="n">
-        <v>21750</v>
+        <v>13250</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>3107</v>
+        <v>1893</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22207,13 +22207,13 @@
         <v>200</v>
       </c>
       <c r="N273" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="O273" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="P273" t="n">
-        <v>17750</v>
+        <v>11250</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>2536</v>
+        <v>1607</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N274" t="n">
-        <v>14500</v>
+        <v>26500</v>
       </c>
       <c r="O274" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P274" t="n">
-        <v>14750</v>
+        <v>26750</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>2107</v>
+        <v>3821</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N275" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="O275" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P275" t="n">
-        <v>12750</v>
+        <v>21750</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>1821</v>
+        <v>3107</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22447,13 +22447,13 @@
         <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O276" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P276" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22527,13 +22527,13 @@
         <v>240</v>
       </c>
       <c r="N277" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O277" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P277" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2929</v>
+        <v>2107</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N278" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O278" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P278" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>2357</v>
+        <v>1821</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22684,16 +22684,16 @@
         </is>
       </c>
       <c r="M279" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O279" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P279" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1929</v>
+        <v>1536</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22764,16 +22764,16 @@
         </is>
       </c>
       <c r="M280" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O280" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="P280" t="n">
-        <v>15250</v>
+        <v>20500</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2179</v>
+        <v>2929</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22847,13 +22847,13 @@
         <v>300</v>
       </c>
       <c r="N281" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O281" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P281" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N282" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O282" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P282" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1536</v>
+        <v>1929</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23000,20 +23000,20 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M283" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N283" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O283" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P283" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23080,20 +23080,20 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M284" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N284" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O284" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P284" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23160,20 +23160,20 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M285" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N285" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O285" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P285" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23244,16 +23244,16 @@
         </is>
       </c>
       <c r="M286" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N286" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O286" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P286" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23324,16 +23324,16 @@
         </is>
       </c>
       <c r="M287" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N287" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O287" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P287" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23404,16 +23404,16 @@
         </is>
       </c>
       <c r="M288" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N288" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O288" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P288" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N289" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O289" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P289" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N290" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P290" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N291" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O291" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P291" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,7 +23724,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N292" t="n">
         <v>15500</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,7 +23804,7 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
         <v>12500</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23887,13 +23887,13 @@
         <v>240</v>
       </c>
       <c r="N294" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O294" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P294" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O295" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P295" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N296" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O296" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P296" t="n">
-        <v>10244</v>
+        <v>12750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1463</v>
+        <v>1821</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24120,20 +24120,20 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M297" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O297" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="P297" t="n">
-        <v>26500</v>
+        <v>14250</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>3786</v>
+        <v>2036</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24200,20 +24200,20 @@
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M298" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O298" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P298" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>2929</v>
+        <v>1750</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24280,20 +24280,20 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N299" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O299" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P299" t="n">
-        <v>16750</v>
+        <v>10244</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>2393</v>
+        <v>1463</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N300" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O300" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P300" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24444,16 +24444,16 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N301" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O301" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P301" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24527,13 +24527,13 @@
         <v>300</v>
       </c>
       <c r="N302" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O302" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P302" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N303" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O303" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P303" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="O305" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P305" t="n">
-        <v>25750</v>
+        <v>18750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>3679</v>
+        <v>2679</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N306" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="O306" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P306" t="n">
-        <v>21750</v>
+        <v>15750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>3107</v>
+        <v>2250</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24927,13 +24927,13 @@
         <v>240</v>
       </c>
       <c r="N307" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O307" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P307" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25007,13 +25007,13 @@
         <v>200</v>
       </c>
       <c r="N308" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="O308" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="P308" t="n">
-        <v>18250</v>
+        <v>25750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2607</v>
+        <v>3679</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N309" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O309" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P309" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="O310" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P310" t="n">
-        <v>13250</v>
+        <v>17750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1893</v>
+        <v>2536</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25244,16 +25244,16 @@
         </is>
       </c>
       <c r="M311" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="O311" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="P311" t="n">
-        <v>15750</v>
+        <v>18250</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2250</v>
+        <v>2607</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25320,11 +25320,11 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M312" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N312" t="n">
         <v>16000</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25400,20 +25400,20 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M313" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N313" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O313" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="P313" t="n">
-        <v>14250</v>
+        <v>13250</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>2036</v>
+        <v>1893</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25480,20 +25480,20 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N314" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O314" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P314" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N315" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O315" t="n">
         <v>16500</v>
       </c>
-      <c r="O315" t="n">
-        <v>17000</v>
-      </c>
       <c r="P315" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25647,13 +25647,13 @@
         <v>240</v>
       </c>
       <c r="N316" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O316" t="n">
         <v>14500</v>
       </c>
-      <c r="O316" t="n">
-        <v>15000</v>
-      </c>
       <c r="P316" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25727,13 +25727,13 @@
         <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O317" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P317" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="N318" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="O318" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P318" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2786</v>
+        <v>2393</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O319" t="n">
         <v>15000</v>
       </c>
       <c r="P319" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O320" t="n">
         <v>12000</v>
       </c>
-      <c r="O320" t="n">
-        <v>13000</v>
-      </c>
       <c r="P320" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1786</v>
+        <v>1679</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N321" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O321" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P321" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N322" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O322" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1821</v>
+        <v>2071</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N323" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O323" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P323" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1393</v>
+        <v>1786</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O324" t="n">
         <v>15000</v>
       </c>
-      <c r="O324" t="n">
-        <v>15500</v>
-      </c>
       <c r="P324" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O325" t="n">
         <v>13000</v>
       </c>
-      <c r="O325" t="n">
-        <v>13500</v>
-      </c>
       <c r="P325" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26447,13 +26447,13 @@
         <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O326" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P326" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1607</v>
+        <v>1393</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N327" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O327" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P327" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26607,13 +26607,13 @@
         <v>300</v>
       </c>
       <c r="N328" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O328" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P328" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O329" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="P329" t="n">
-        <v>13250</v>
+        <v>11250</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N330" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O330" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P330" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O331" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P331" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2250</v>
+        <v>2321</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N332" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O332" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P332" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1679</v>
+        <v>1893</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N333" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="O333" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P333" t="n">
-        <v>21750</v>
+        <v>17750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>3107</v>
+        <v>2536</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N334" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O334" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P334" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N335" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O335" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P335" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N336" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="O336" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P336" t="n">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2679</v>
+        <v>3107</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27327,13 +27327,13 @@
         <v>300</v>
       </c>
       <c r="N337" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O337" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P337" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,7 +27404,7 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N338" t="n">
         <v>12500</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N339" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="O339" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="P339" t="n">
-        <v>30500</v>
+        <v>18750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>4357</v>
+        <v>2679</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27567,13 +27567,13 @@
         <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O340" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P340" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N341" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O341" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P341" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="O342" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="P342" t="n">
-        <v>24750</v>
+        <v>30500</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>3536</v>
+        <v>4357</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="O343" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="P343" t="n">
-        <v>22750</v>
+        <v>26500</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>3250</v>
+        <v>3786</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N344" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O344" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P344" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O345" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P345" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N346" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O346" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P346" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N347" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O347" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P347" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N348" t="n">
         <v>30000</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N349" t="n">
         <v>25000</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,7 +28364,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N350" t="n">
         <v>20000</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N351" t="n">
         <v>30000</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O352" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P352" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N353" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O353" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P353" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O354" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P354" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N355" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O355" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P355" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N356" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O356" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P356" t="n">
-        <v>10750</v>
+        <v>20646</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>1536</v>
+        <v>2949</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N357" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O357" t="n">
         <v>15000</v>
       </c>
-      <c r="O357" t="n">
-        <v>16000</v>
-      </c>
       <c r="P357" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29000,20 +29000,20 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M358" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N358" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O358" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P358" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29080,20 +29080,20 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M359" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O359" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P359" t="n">
-        <v>16500</v>
+        <v>10750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2357</v>
+        <v>1536</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N360" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O360" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P360" t="n">
-        <v>19250</v>
+        <v>15500</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2750</v>
+        <v>2214</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N361" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O361" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P361" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N362" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O362" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P362" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N363" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O363" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P363" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O364" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P364" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29567,13 +29567,13 @@
         <v>240</v>
       </c>
       <c r="N365" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O365" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P365" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N366" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O366" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P366" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N367" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O367" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P367" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29807,13 +29807,13 @@
         <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O368" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P368" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N369" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O369" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P369" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29967,13 +29967,13 @@
         <v>240</v>
       </c>
       <c r="N370" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O370" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P370" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30127,13 +30127,13 @@
         <v>300</v>
       </c>
       <c r="N372" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O372" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P372" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>240</v>
       </c>
       <c r="N373" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O373" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P373" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30284,16 +30284,16 @@
         </is>
       </c>
       <c r="M374" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N374" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O374" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P374" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30367,13 +30367,13 @@
         <v>300</v>
       </c>
       <c r="N375" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O375" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P375" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N376" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O376" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P376" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N377" t="n">
         <v>13500</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N378" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O378" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P378" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30687,13 +30687,13 @@
         <v>300</v>
       </c>
       <c r="N379" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P379" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30767,13 +30767,13 @@
         <v>240</v>
       </c>
       <c r="N380" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P380" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N381" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O381" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P381" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30924,16 +30924,16 @@
         </is>
       </c>
       <c r="M382" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O382" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N383" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O383" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P383" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N384" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O384" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P384" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N385" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O385" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P385" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N386" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O386" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P386" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N387" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O387" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P387" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O388" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P388" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N389" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O389" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P389" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N390" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O390" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P390" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N391" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O391" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P391" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N392" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O392" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P392" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31807,13 +31807,13 @@
         <v>240</v>
       </c>
       <c r="N393" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O393" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P393" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N394" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O394" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P394" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N395" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O395" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P395" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32040,20 +32040,20 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M396" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N396" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O396" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P396" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32120,20 +32120,20 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M397" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N397" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O397" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P397" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32200,20 +32200,20 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M398" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N398" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O398" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P398" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N399" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O399" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P399" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N400" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O400" t="n">
         <v>18000</v>
       </c>
-      <c r="O400" t="n">
-        <v>19000</v>
-      </c>
       <c r="P400" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N401" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O401" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P401" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N402" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O402" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P402" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N403" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O403" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P403" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N404" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O404" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P404" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N405" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O405" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P405" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N406" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O406" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P406" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N407" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O407" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P407" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N408" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O408" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P408" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33087,13 +33087,13 @@
         <v>160</v>
       </c>
       <c r="N409" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O409" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P409" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N410" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O410" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P410" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N411" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O411" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P411" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N412" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P412" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N413" t="n">
         <v>15500</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N414" t="n">
         <v>13500</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N416" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O416" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P416" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N417" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O417" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P417" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -33800,20 +33800,20 @@
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M418" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N418" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O418" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -33880,20 +33880,20 @@
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M419" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N419" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O419" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P419" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,68 +33927,308 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E420" t="n">
+        <v>4</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M420" t="n">
+        <v>160</v>
+      </c>
+      <c r="N420" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O420" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P420" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R420" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S420" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T420" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>8</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D421" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E420" t="n">
-        <v>4</v>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G420" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I420" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J420" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L420" t="inlineStr">
+      <c r="E421" t="n">
+        <v>4</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J421" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M421" t="n">
+        <v>240</v>
+      </c>
+      <c r="N421" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O421" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P421" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R421" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S421" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T421" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>8</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D422" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E422" t="n">
+        <v>4</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J422" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M422" t="n">
+        <v>300</v>
+      </c>
+      <c r="N422" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O422" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P422" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R422" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S422" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T422" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>8</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D423" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E423" t="n">
+        <v>4</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M420" t="n">
+      <c r="M423" t="n">
         <v>300</v>
       </c>
-      <c r="N420" t="n">
+      <c r="N423" t="n">
         <v>10500</v>
       </c>
-      <c r="O420" t="n">
+      <c r="O423" t="n">
         <v>11000</v>
       </c>
-      <c r="P420" t="n">
+      <c r="P423" t="n">
         <v>10750</v>
       </c>
-      <c r="Q420" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R420" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S420" t="n">
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S423" t="n">
         <v>1536</v>
       </c>
-      <c r="T420" t="n">
+      <c r="T423" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="N231" t="n">
-        <v>28500</v>
+        <v>14000</v>
       </c>
       <c r="O231" t="n">
-        <v>29000</v>
+        <v>14500</v>
       </c>
       <c r="P231" t="n">
-        <v>28750</v>
+        <v>14250</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>4107</v>
+        <v>2036</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N232" t="n">
-        <v>23500</v>
+        <v>12000</v>
       </c>
       <c r="O232" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="P232" t="n">
-        <v>23750</v>
+        <v>12250</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>3393</v>
+        <v>1750</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19004,16 +19004,16 @@
         </is>
       </c>
       <c r="M233" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N233" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="O233" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P233" t="n">
-        <v>17750</v>
+        <v>9250</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>2536</v>
+        <v>1321</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N234" t="n">
-        <v>14500</v>
+        <v>28500</v>
       </c>
       <c r="O234" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="P234" t="n">
-        <v>14750</v>
+        <v>28750</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>2107</v>
+        <v>4107</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19164,16 +19164,16 @@
         </is>
       </c>
       <c r="M235" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N235" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="O235" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P235" t="n">
-        <v>12750</v>
+        <v>23750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1821</v>
+        <v>3393</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19247,13 +19247,13 @@
         <v>240</v>
       </c>
       <c r="N236" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O236" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P236" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N237" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O237" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P237" t="n">
-        <v>16250</v>
+        <v>14750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2321</v>
+        <v>2107</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O238" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P238" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19487,13 +19487,13 @@
         <v>240</v>
       </c>
       <c r="N239" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O239" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P239" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N240" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O240" t="n">
         <v>16500</v>
       </c>
-      <c r="O240" t="n">
-        <v>17000</v>
-      </c>
       <c r="P240" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N241" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O241" t="n">
         <v>14500</v>
       </c>
-      <c r="O241" t="n">
-        <v>15000</v>
-      </c>
       <c r="P241" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N242" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O242" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P242" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N243" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O243" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P243" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N244" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P244" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19967,13 +19967,13 @@
         <v>200</v>
       </c>
       <c r="N245" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O245" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P245" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N246" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O246" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P246" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N247" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O247" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44427</v>
+        <v>44169</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20200,20 +20200,20 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M248" t="n">
         <v>200</v>
       </c>
       <c r="N248" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="O248" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>25750</v>
+        <v>10750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>3679</v>
+        <v>1536</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20280,20 +20280,20 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M249" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N249" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="O249" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P249" t="n">
-        <v>19750</v>
+        <v>25750</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>2821</v>
+        <v>3679</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20360,20 +20360,20 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M250" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N250" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="O250" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P250" t="n">
-        <v>16750</v>
+        <v>20750</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2393</v>
+        <v>2964</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N251" t="n">
-        <v>14500</v>
+        <v>25500</v>
       </c>
       <c r="O251" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P251" t="n">
-        <v>14750</v>
+        <v>25750</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>2107</v>
+        <v>3679</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N252" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O252" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P252" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N253" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="O253" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P253" t="n">
-        <v>19750</v>
+        <v>16750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>2821</v>
+        <v>2393</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20767,13 +20767,13 @@
         <v>240</v>
       </c>
       <c r="N255" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O255" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P255" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N256" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O256" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="P256" t="n">
-        <v>14250</v>
+        <v>19750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2036</v>
+        <v>2821</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20924,16 +20924,16 @@
         </is>
       </c>
       <c r="M257" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N257" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O257" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P257" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>1750</v>
+        <v>2107</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21007,13 +21007,13 @@
         <v>240</v>
       </c>
       <c r="N258" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O258" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P258" t="n">
-        <v>9250</v>
+        <v>12750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>1321</v>
+        <v>1821</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21084,16 +21084,16 @@
         </is>
       </c>
       <c r="M259" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N259" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="P259" t="n">
-        <v>16750</v>
+        <v>14250</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2393</v>
+        <v>2036</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21167,13 +21167,13 @@
         <v>240</v>
       </c>
       <c r="N260" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O260" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P260" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>1964</v>
+        <v>1750</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N261" t="n">
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>9500</v>
       </c>
       <c r="P261" t="n">
-        <v>11750</v>
+        <v>9250</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1679</v>
+        <v>1321</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21327,13 +21327,13 @@
         <v>300</v>
       </c>
       <c r="N262" t="n">
+        <v>16500</v>
+      </c>
+      <c r="O262" t="n">
         <v>17000</v>
       </c>
-      <c r="O262" t="n">
-        <v>18000</v>
-      </c>
       <c r="P262" t="n">
-        <v>17500</v>
+        <v>16750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2500</v>
+        <v>2393</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21404,16 +21404,16 @@
         </is>
       </c>
       <c r="M263" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="N263" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O263" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="P263" t="n">
-        <v>15500</v>
+        <v>13750</v>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         </is>
       </c>
       <c r="S263" t="n">
-        <v>2214</v>
+        <v>1964</v>
       </c>
       <c r="T263" t="n">
         <v>7</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44215</v>
+        <v>44236</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21484,16 +21484,16 @@
         </is>
       </c>
       <c r="M264" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N264" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N265" t="n">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="O265" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="P265" t="n">
-        <v>16750</v>
+        <v>17500</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="N266" t="n">
-        <v>13500</v>
+        <v>15000</v>
       </c>
       <c r="O266" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P266" t="n">
-        <v>13750</v>
+        <v>15500</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1964</v>
+        <v>2214</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44235</v>
+        <v>44215</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21724,16 +21724,16 @@
         </is>
       </c>
       <c r="M267" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O267" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>24500</v>
+        <v>16500</v>
       </c>
       <c r="O268" t="n">
-        <v>25000</v>
+        <v>17000</v>
       </c>
       <c r="P268" t="n">
-        <v>24750</v>
+        <v>16750</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>3536</v>
+        <v>2393</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21884,16 +21884,16 @@
         </is>
       </c>
       <c r="M269" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O269" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P269" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         </is>
       </c>
       <c r="S269" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T269" t="n">
         <v>7</v>
@@ -21927,7 +21927,7 @@
         </is>
       </c>
       <c r="D270" s="2" t="n">
-        <v>44403</v>
+        <v>44235</v>
       </c>
       <c r="E270" t="n">
         <v>4</v>
@@ -21964,16 +21964,16 @@
         </is>
       </c>
       <c r="M270" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N270" t="n">
-        <v>16500</v>
+        <v>11500</v>
       </c>
       <c r="O270" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="P270" t="n">
-        <v>16750</v>
+        <v>11750</v>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         </is>
       </c>
       <c r="S270" t="n">
-        <v>2393</v>
+        <v>1679</v>
       </c>
       <c r="T270" t="n">
         <v>7</v>
@@ -22007,7 +22007,7 @@
         </is>
       </c>
       <c r="D271" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
@@ -22044,16 +22044,16 @@
         </is>
       </c>
       <c r="M271" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N271" t="n">
-        <v>15000</v>
+        <v>24500</v>
       </c>
       <c r="O271" t="n">
-        <v>15500</v>
+        <v>25000</v>
       </c>
       <c r="P271" t="n">
-        <v>15250</v>
+        <v>24750</v>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         </is>
       </c>
       <c r="S271" t="n">
-        <v>2179</v>
+        <v>3536</v>
       </c>
       <c r="T271" t="n">
         <v>7</v>
@@ -22087,7 +22087,7 @@
         </is>
       </c>
       <c r="D272" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E272" t="n">
         <v>4</v>
@@ -22124,16 +22124,16 @@
         </is>
       </c>
       <c r="M272" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N272" t="n">
-        <v>13000</v>
+        <v>20500</v>
       </c>
       <c r="O272" t="n">
-        <v>13500</v>
+        <v>21000</v>
       </c>
       <c r="P272" t="n">
-        <v>13250</v>
+        <v>20750</v>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="S272" t="n">
-        <v>1893</v>
+        <v>2964</v>
       </c>
       <c r="T272" t="n">
         <v>7</v>
@@ -22167,7 +22167,7 @@
         </is>
       </c>
       <c r="D273" s="2" t="n">
-        <v>44203</v>
+        <v>44403</v>
       </c>
       <c r="E273" t="n">
         <v>4</v>
@@ -22204,16 +22204,16 @@
         </is>
       </c>
       <c r="M273" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N273" t="n">
-        <v>11000</v>
+        <v>16500</v>
       </c>
       <c r="O273" t="n">
-        <v>11500</v>
+        <v>17000</v>
       </c>
       <c r="P273" t="n">
-        <v>11250</v>
+        <v>16750</v>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
@@ -22226,7 +22226,7 @@
         </is>
       </c>
       <c r="S273" t="n">
-        <v>1607</v>
+        <v>2393</v>
       </c>
       <c r="T273" t="n">
         <v>7</v>
@@ -22247,7 +22247,7 @@
         </is>
       </c>
       <c r="D274" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E274" t="n">
         <v>4</v>
@@ -22284,16 +22284,16 @@
         </is>
       </c>
       <c r="M274" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N274" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O274" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P274" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
@@ -22306,7 +22306,7 @@
         </is>
       </c>
       <c r="S274" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T274" t="n">
         <v>7</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="D275" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -22364,16 +22364,16 @@
         </is>
       </c>
       <c r="M275" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N275" t="n">
-        <v>21500</v>
+        <v>13000</v>
       </c>
       <c r="O275" t="n">
-        <v>22000</v>
+        <v>13500</v>
       </c>
       <c r="P275" t="n">
-        <v>21750</v>
+        <v>13250</v>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
@@ -22386,7 +22386,7 @@
         </is>
       </c>
       <c r="S275" t="n">
-        <v>3107</v>
+        <v>1893</v>
       </c>
       <c r="T275" t="n">
         <v>7</v>
@@ -22407,7 +22407,7 @@
         </is>
       </c>
       <c r="D276" s="2" t="n">
-        <v>44413</v>
+        <v>44203</v>
       </c>
       <c r="E276" t="n">
         <v>4</v>
@@ -22447,13 +22447,13 @@
         <v>200</v>
       </c>
       <c r="N276" t="n">
-        <v>17500</v>
+        <v>11000</v>
       </c>
       <c r="O276" t="n">
-        <v>18000</v>
+        <v>11500</v>
       </c>
       <c r="P276" t="n">
-        <v>17750</v>
+        <v>11250</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         </is>
       </c>
       <c r="S276" t="n">
-        <v>2536</v>
+        <v>1607</v>
       </c>
       <c r="T276" t="n">
         <v>7</v>
@@ -22487,7 +22487,7 @@
         </is>
       </c>
       <c r="D277" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E277" t="n">
         <v>4</v>
@@ -22524,16 +22524,16 @@
         </is>
       </c>
       <c r="M277" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N277" t="n">
-        <v>14500</v>
+        <v>26500</v>
       </c>
       <c r="O277" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P277" t="n">
-        <v>14750</v>
+        <v>26750</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="S277" t="n">
-        <v>2107</v>
+        <v>3821</v>
       </c>
       <c r="T277" t="n">
         <v>7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="D278" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E278" t="n">
         <v>4</v>
@@ -22604,16 +22604,16 @@
         </is>
       </c>
       <c r="M278" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N278" t="n">
-        <v>12500</v>
+        <v>21500</v>
       </c>
       <c r="O278" t="n">
-        <v>13000</v>
+        <v>22000</v>
       </c>
       <c r="P278" t="n">
-        <v>12750</v>
+        <v>21750</v>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
@@ -22626,7 +22626,7 @@
         </is>
       </c>
       <c r="S278" t="n">
-        <v>1821</v>
+        <v>3107</v>
       </c>
       <c r="T278" t="n">
         <v>7</v>
@@ -22647,7 +22647,7 @@
         </is>
       </c>
       <c r="D279" s="2" t="n">
-        <v>44291</v>
+        <v>44413</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -22687,13 +22687,13 @@
         <v>200</v>
       </c>
       <c r="N279" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O279" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P279" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
@@ -22706,7 +22706,7 @@
         </is>
       </c>
       <c r="S279" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T279" t="n">
         <v>7</v>
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="D280" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E280" t="n">
         <v>4</v>
@@ -22767,13 +22767,13 @@
         <v>240</v>
       </c>
       <c r="N280" t="n">
-        <v>20000</v>
+        <v>14500</v>
       </c>
       <c r="O280" t="n">
-        <v>21000</v>
+        <v>15000</v>
       </c>
       <c r="P280" t="n">
-        <v>20500</v>
+        <v>14750</v>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         </is>
       </c>
       <c r="S280" t="n">
-        <v>2929</v>
+        <v>2107</v>
       </c>
       <c r="T280" t="n">
         <v>7</v>
@@ -22807,7 +22807,7 @@
         </is>
       </c>
       <c r="D281" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E281" t="n">
         <v>4</v>
@@ -22844,16 +22844,16 @@
         </is>
       </c>
       <c r="M281" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N281" t="n">
-        <v>16000</v>
+        <v>12500</v>
       </c>
       <c r="O281" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P281" t="n">
-        <v>16500</v>
+        <v>12750</v>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
@@ -22866,7 +22866,7 @@
         </is>
       </c>
       <c r="S281" t="n">
-        <v>2357</v>
+        <v>1821</v>
       </c>
       <c r="T281" t="n">
         <v>7</v>
@@ -22887,7 +22887,7 @@
         </is>
       </c>
       <c r="D282" s="2" t="n">
-        <v>44469</v>
+        <v>44291</v>
       </c>
       <c r="E282" t="n">
         <v>4</v>
@@ -22924,16 +22924,16 @@
         </is>
       </c>
       <c r="M282" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N282" t="n">
-        <v>13000</v>
+        <v>10500</v>
       </c>
       <c r="O282" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P282" t="n">
-        <v>13500</v>
+        <v>10750</v>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="S282" t="n">
-        <v>1929</v>
+        <v>1536</v>
       </c>
       <c r="T282" t="n">
         <v>7</v>
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="D283" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -23004,16 +23004,16 @@
         </is>
       </c>
       <c r="M283" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N283" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O283" t="n">
-        <v>15500</v>
+        <v>21000</v>
       </c>
       <c r="P283" t="n">
-        <v>15250</v>
+        <v>20500</v>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
@@ -23026,7 +23026,7 @@
         </is>
       </c>
       <c r="S283" t="n">
-        <v>2179</v>
+        <v>2929</v>
       </c>
       <c r="T283" t="n">
         <v>7</v>
@@ -23047,7 +23047,7 @@
         </is>
       </c>
       <c r="D284" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -23087,13 +23087,13 @@
         <v>300</v>
       </c>
       <c r="N284" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O284" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P284" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         </is>
       </c>
       <c r="S284" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T284" t="n">
         <v>7</v>
@@ -23127,7 +23127,7 @@
         </is>
       </c>
       <c r="D285" s="2" t="n">
-        <v>44168</v>
+        <v>44469</v>
       </c>
       <c r="E285" t="n">
         <v>4</v>
@@ -23164,16 +23164,16 @@
         </is>
       </c>
       <c r="M285" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N285" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="O285" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P285" t="n">
-        <v>10750</v>
+        <v>13500</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
@@ -23186,7 +23186,7 @@
         </is>
       </c>
       <c r="S285" t="n">
-        <v>1536</v>
+        <v>1929</v>
       </c>
       <c r="T285" t="n">
         <v>7</v>
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="D286" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -23240,20 +23240,20 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M286" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N286" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O286" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P286" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         </is>
       </c>
       <c r="S286" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T286" t="n">
         <v>7</v>
@@ -23287,7 +23287,7 @@
         </is>
       </c>
       <c r="D287" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -23320,20 +23320,20 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M287" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N287" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O287" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P287" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="S287" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T287" t="n">
         <v>7</v>
@@ -23367,7 +23367,7 @@
         </is>
       </c>
       <c r="D288" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E288" t="n">
         <v>4</v>
@@ -23400,20 +23400,20 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M288" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N288" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O288" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P288" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
@@ -23426,7 +23426,7 @@
         </is>
       </c>
       <c r="S288" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T288" t="n">
         <v>7</v>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N289" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O289" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P289" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N290" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O290" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P290" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23644,16 +23644,16 @@
         </is>
       </c>
       <c r="M291" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N291" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O291" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P291" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23724,16 +23724,16 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N292" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O292" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P292" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23804,16 +23804,16 @@
         </is>
       </c>
       <c r="M293" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N293" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O293" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P293" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23884,16 +23884,16 @@
         </is>
       </c>
       <c r="M294" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N294" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O294" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P294" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,7 +23964,7 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N295" t="n">
         <v>15500</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,7 +24044,7 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N296" t="n">
         <v>12500</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24127,13 +24127,13 @@
         <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O297" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P297" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N298" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O298" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P298" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O299" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P299" t="n">
-        <v>10244</v>
+        <v>12750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1463</v>
+        <v>1821</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24360,20 +24360,20 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M300" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N300" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O300" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="P300" t="n">
-        <v>26500</v>
+        <v>14250</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>3786</v>
+        <v>2036</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24440,20 +24440,20 @@
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M301" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N301" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O301" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P301" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="S301" t="n">
-        <v>2929</v>
+        <v>1750</v>
       </c>
       <c r="T301" t="n">
         <v>7</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24520,20 +24520,20 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M302" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N302" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O302" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P302" t="n">
-        <v>16750</v>
+        <v>10244</v>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="S302" t="n">
-        <v>2393</v>
+        <v>1463</v>
       </c>
       <c r="T302" t="n">
         <v>7</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24604,16 +24604,16 @@
         </is>
       </c>
       <c r="M303" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N303" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O303" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P303" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N304" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O304" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P304" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24767,13 +24767,13 @@
         <v>300</v>
       </c>
       <c r="N305" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O305" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P305" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24844,16 +24844,16 @@
         </is>
       </c>
       <c r="M306" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N306" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O306" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P306" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25004,16 +25004,16 @@
         </is>
       </c>
       <c r="M308" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N308" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="O308" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P308" t="n">
-        <v>25750</v>
+        <v>18750</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>3679</v>
+        <v>2679</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N309" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="O309" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P309" t="n">
-        <v>21750</v>
+        <v>15750</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>3107</v>
+        <v>2250</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25167,13 +25167,13 @@
         <v>240</v>
       </c>
       <c r="N310" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O310" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P310" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25247,13 +25247,13 @@
         <v>200</v>
       </c>
       <c r="N311" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="O311" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="P311" t="n">
-        <v>18250</v>
+        <v>25750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2607</v>
+        <v>3679</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N312" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O312" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P312" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25404,16 +25404,16 @@
         </is>
       </c>
       <c r="M313" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N313" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="O313" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P313" t="n">
-        <v>13250</v>
+        <v>17750</v>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
@@ -25426,7 +25426,7 @@
         </is>
       </c>
       <c r="S313" t="n">
-        <v>1893</v>
+        <v>2536</v>
       </c>
       <c r="T313" t="n">
         <v>7</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N314" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="O314" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="P314" t="n">
-        <v>15750</v>
+        <v>18250</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>2250</v>
+        <v>2607</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25560,11 +25560,11 @@
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M315" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N315" t="n">
         <v>16000</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25640,20 +25640,20 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N316" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O316" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="P316" t="n">
-        <v>14250</v>
+        <v>13250</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2036</v>
+        <v>1893</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25720,20 +25720,20 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M317" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N317" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O317" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P317" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N318" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O318" t="n">
         <v>16500</v>
       </c>
-      <c r="O318" t="n">
-        <v>17000</v>
-      </c>
       <c r="P318" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25887,13 +25887,13 @@
         <v>240</v>
       </c>
       <c r="N319" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O319" t="n">
         <v>14500</v>
       </c>
-      <c r="O319" t="n">
-        <v>15000</v>
-      </c>
       <c r="P319" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25967,13 +25967,13 @@
         <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O320" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P320" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="N321" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="O321" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P321" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2786</v>
+        <v>2393</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N322" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O322" t="n">
         <v>15000</v>
       </c>
       <c r="P322" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O323" t="n">
         <v>12000</v>
       </c>
-      <c r="O323" t="n">
-        <v>13000</v>
-      </c>
       <c r="P323" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1786</v>
+        <v>1679</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N324" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O324" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P324" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26364,16 +26364,16 @@
         </is>
       </c>
       <c r="M325" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N325" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O325" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P325" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>1821</v>
+        <v>2071</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26444,16 +26444,16 @@
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N326" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P326" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1393</v>
+        <v>1786</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O327" t="n">
         <v>15000</v>
       </c>
-      <c r="O327" t="n">
-        <v>15500</v>
-      </c>
       <c r="P327" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N328" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O328" t="n">
         <v>13000</v>
       </c>
-      <c r="O328" t="n">
-        <v>13500</v>
-      </c>
       <c r="P328" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26687,13 +26687,13 @@
         <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O329" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P329" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1607</v>
+        <v>1393</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N330" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O330" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P330" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26847,13 +26847,13 @@
         <v>300</v>
       </c>
       <c r="N331" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O331" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P331" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O332" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="P332" t="n">
-        <v>13250</v>
+        <v>11250</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N333" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O333" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P333" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N334" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O334" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P334" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>2250</v>
+        <v>2321</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N335" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O335" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P335" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1679</v>
+        <v>1893</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="O336" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P336" t="n">
-        <v>21750</v>
+        <v>17750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>3107</v>
+        <v>2536</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N337" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O337" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P337" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O338" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P338" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N339" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="O339" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P339" t="n">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>2679</v>
+        <v>3107</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27567,13 +27567,13 @@
         <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O340" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P340" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N341" t="n">
         <v>12500</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N342" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="O342" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="P342" t="n">
-        <v>30500</v>
+        <v>18750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>4357</v>
+        <v>2679</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27807,13 +27807,13 @@
         <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O343" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P343" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N344" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O344" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P344" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N345" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="O345" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="P345" t="n">
-        <v>24750</v>
+        <v>30500</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>3536</v>
+        <v>4357</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N346" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="O346" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="P346" t="n">
-        <v>22750</v>
+        <v>26500</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>3250</v>
+        <v>3786</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N347" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O347" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P347" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N348" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O348" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P348" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28284,16 +28284,16 @@
         </is>
       </c>
       <c r="M349" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N349" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O349" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P349" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N350" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O350" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P350" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N351" t="n">
         <v>30000</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N352" t="n">
         <v>25000</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N353" t="n">
         <v>20000</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N354" t="n">
         <v>30000</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N355" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O355" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P355" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N356" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O356" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P356" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N357" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O357" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P357" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N358" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O358" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P358" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N359" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O359" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P359" t="n">
-        <v>10750</v>
+        <v>20646</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>1536</v>
+        <v>2949</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,16 +29164,16 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N360" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O360" t="n">
         <v>15000</v>
       </c>
-      <c r="O360" t="n">
-        <v>16000</v>
-      </c>
       <c r="P360" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q360" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         </is>
       </c>
       <c r="S360" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T360" t="n">
         <v>7</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29240,20 +29240,20 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M361" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O361" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P361" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29320,20 +29320,20 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M362" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N362" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O362" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P362" t="n">
-        <v>16500</v>
+        <v>10750</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2357</v>
+        <v>1536</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N363" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O363" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P363" t="n">
-        <v>19250</v>
+        <v>15500</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2750</v>
+        <v>2214</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29480,20 +29480,20 @@
       </c>
       <c r="L364" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N364" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O364" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P364" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29560,20 +29560,20 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M365" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N365" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O365" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P365" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N366" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O366" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P366" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O367" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P367" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29807,13 +29807,13 @@
         <v>240</v>
       </c>
       <c r="N368" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O368" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P368" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N369" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O369" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P369" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29964,16 +29964,16 @@
         </is>
       </c>
       <c r="M370" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N370" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O370" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P370" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30047,13 +30047,13 @@
         <v>240</v>
       </c>
       <c r="N371" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O371" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P371" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N372" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O372" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P372" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30207,13 +30207,13 @@
         <v>240</v>
       </c>
       <c r="N373" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O373" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P373" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30367,13 +30367,13 @@
         <v>300</v>
       </c>
       <c r="N375" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O375" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P375" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30447,13 +30447,13 @@
         <v>240</v>
       </c>
       <c r="N376" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O376" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P376" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30524,16 +30524,16 @@
         </is>
       </c>
       <c r="M377" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O377" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P377" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30607,13 +30607,13 @@
         <v>300</v>
       </c>
       <c r="N378" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O378" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P378" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N379" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O379" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P379" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="M380" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N380" t="n">
         <v>13500</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N381" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O381" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P381" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30927,13 +30927,13 @@
         <v>300</v>
       </c>
       <c r="N382" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P382" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31007,13 +31007,13 @@
         <v>240</v>
       </c>
       <c r="N383" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O383" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P383" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31084,16 +31084,16 @@
         </is>
       </c>
       <c r="M384" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N384" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O384" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P384" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N385" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O385" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N386" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O386" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P386" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N387" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O387" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P387" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N388" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P388" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,16 +31484,16 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N389" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O389" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P389" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O390" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P390" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O391" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N392" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O392" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N393" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O393" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P393" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N394" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O394" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P394" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N395" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O395" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P395" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32047,13 +32047,13 @@
         <v>240</v>
       </c>
       <c r="N396" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O396" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P396" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N397" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O397" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P397" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N398" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O398" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P398" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32280,20 +32280,20 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M399" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O399" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P399" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32360,20 +32360,20 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M400" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N400" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O400" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P400" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32440,20 +32440,20 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M401" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N401" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O401" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P401" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N402" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O402" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P402" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N403" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O403" t="n">
         <v>18000</v>
       </c>
-      <c r="O403" t="n">
-        <v>19000</v>
-      </c>
       <c r="P403" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N404" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O404" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P404" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N405" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O405" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P405" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N406" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O406" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P406" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N407" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O407" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P407" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N408" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O408" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P408" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N409" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O409" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P409" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N410" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O410" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P410" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N411" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O411" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P411" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33327,13 +33327,13 @@
         <v>160</v>
       </c>
       <c r="N412" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O412" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P412" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N413" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O413" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P413" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N414" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O414" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P414" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N415" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P415" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33644,7 +33644,7 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N416" t="n">
         <v>15500</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -33724,7 +33724,7 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N417" t="n">
         <v>13500</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N419" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O419" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P419" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N420" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O420" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P420" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -34040,20 +34040,20 @@
       </c>
       <c r="L421" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M421" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N421" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O421" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P421" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -34120,20 +34120,20 @@
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M422" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N422" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O422" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P422" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,68 +34167,308 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E423" t="n">
+        <v>4</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J423" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M423" t="n">
+        <v>160</v>
+      </c>
+      <c r="N423" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O423" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P423" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R423" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S423" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T423" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>8</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D424" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E423" t="n">
-        <v>4</v>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G423" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I423" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J423" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L423" t="inlineStr">
+      <c r="E424" t="n">
+        <v>4</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M424" t="n">
+        <v>240</v>
+      </c>
+      <c r="N424" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O424" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P424" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R424" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S424" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T424" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>8</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D425" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E425" t="n">
+        <v>4</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J425" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M425" t="n">
+        <v>300</v>
+      </c>
+      <c r="N425" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O425" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P425" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R425" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S425" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T425" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>8</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D426" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E426" t="n">
+        <v>4</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J426" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L426" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M423" t="n">
+      <c r="M426" t="n">
         <v>300</v>
       </c>
-      <c r="N423" t="n">
+      <c r="N426" t="n">
         <v>10500</v>
       </c>
-      <c r="O423" t="n">
+      <c r="O426" t="n">
         <v>11000</v>
       </c>
-      <c r="P423" t="n">
+      <c r="P426" t="n">
         <v>10750</v>
       </c>
-      <c r="Q423" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R423" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S423" t="n">
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R426" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S426" t="n">
         <v>1536</v>
       </c>
-      <c r="T423" t="n">
+      <c r="T426" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T429"/>
+  <dimension ref="A1:T432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="D289" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E289" t="n">
         <v>4</v>
@@ -23484,16 +23484,16 @@
         </is>
       </c>
       <c r="M289" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N289" t="n">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="O289" t="n">
-        <v>15500</v>
+        <v>14000</v>
       </c>
       <c r="P289" t="n">
-        <v>15250</v>
+        <v>13750</v>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         </is>
       </c>
       <c r="S289" t="n">
-        <v>2179</v>
+        <v>1964</v>
       </c>
       <c r="T289" t="n">
         <v>7</v>
@@ -23527,7 +23527,7 @@
         </is>
       </c>
       <c r="D290" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -23564,16 +23564,16 @@
         </is>
       </c>
       <c r="M290" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N290" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O290" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P290" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q290" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         </is>
       </c>
       <c r="S290" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T290" t="n">
         <v>7</v>
@@ -23607,7 +23607,7 @@
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>44168</v>
+        <v>44488</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -23647,13 +23647,13 @@
         <v>300</v>
       </c>
       <c r="N291" t="n">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="O291" t="n">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="P291" t="n">
-        <v>10750</v>
+        <v>9750</v>
       </c>
       <c r="Q291" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         </is>
       </c>
       <c r="S291" t="n">
-        <v>1536</v>
+        <v>1393</v>
       </c>
       <c r="T291" t="n">
         <v>7</v>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E292" t="n">
         <v>4</v>
@@ -23720,20 +23720,20 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M292" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N292" t="n">
-        <v>26500</v>
+        <v>15000</v>
       </c>
       <c r="O292" t="n">
-        <v>27000</v>
+        <v>15500</v>
       </c>
       <c r="P292" t="n">
-        <v>26750</v>
+        <v>15250</v>
       </c>
       <c r="Q292" t="inlineStr">
         <is>
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="S292" t="n">
-        <v>3821</v>
+        <v>2179</v>
       </c>
       <c r="T292" t="n">
         <v>7</v>
@@ -23767,7 +23767,7 @@
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>44434</v>
+        <v>44168</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -23800,20 +23800,20 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M293" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="N293" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O293" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P293" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q293" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         </is>
       </c>
       <c r="S293" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T293" t="n">
         <v>7</v>
@@ -23847,7 +23847,7 @@
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>44161</v>
+        <v>44168</v>
       </c>
       <c r="E294" t="n">
         <v>4</v>
@@ -23880,20 +23880,20 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M294" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N294" t="n">
-        <v>14500</v>
+        <v>10500</v>
       </c>
       <c r="O294" t="n">
-        <v>15000</v>
+        <v>11000</v>
       </c>
       <c r="P294" t="n">
-        <v>14750</v>
+        <v>10750</v>
       </c>
       <c r="Q294" t="inlineStr">
         <is>
@@ -23906,7 +23906,7 @@
         </is>
       </c>
       <c r="S294" t="n">
-        <v>2107</v>
+        <v>1536</v>
       </c>
       <c r="T294" t="n">
         <v>7</v>
@@ -23927,7 +23927,7 @@
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -23964,16 +23964,16 @@
         </is>
       </c>
       <c r="M295" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N295" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O295" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P295" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q295" t="inlineStr">
         <is>
@@ -23986,7 +23986,7 @@
         </is>
       </c>
       <c r="S295" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T295" t="n">
         <v>7</v>
@@ -24007,7 +24007,7 @@
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>44161</v>
+        <v>44434</v>
       </c>
       <c r="E296" t="n">
         <v>4</v>
@@ -24044,16 +24044,16 @@
         </is>
       </c>
       <c r="M296" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="N296" t="n">
-        <v>10500</v>
+        <v>20500</v>
       </c>
       <c r="O296" t="n">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="P296" t="n">
-        <v>10750</v>
+        <v>20750</v>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
@@ -24066,7 +24066,7 @@
         </is>
       </c>
       <c r="S296" t="n">
-        <v>1536</v>
+        <v>2964</v>
       </c>
       <c r="T296" t="n">
         <v>7</v>
@@ -24087,7 +24087,7 @@
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E297" t="n">
         <v>4</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="M297" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N297" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O297" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P297" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="S297" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T297" t="n">
         <v>7</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E298" t="n">
         <v>4</v>
@@ -24204,16 +24204,16 @@
         </is>
       </c>
       <c r="M298" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N298" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O298" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P298" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         </is>
       </c>
       <c r="S298" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T298" t="n">
         <v>7</v>
@@ -24247,7 +24247,7 @@
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>44351</v>
+        <v>44161</v>
       </c>
       <c r="E299" t="n">
         <v>4</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="M299" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N299" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O299" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P299" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         </is>
       </c>
       <c r="S299" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T299" t="n">
         <v>7</v>
@@ -24327,7 +24327,7 @@
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E300" t="n">
         <v>4</v>
@@ -24364,16 +24364,16 @@
         </is>
       </c>
       <c r="M300" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N300" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O300" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P300" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
         </is>
       </c>
       <c r="S300" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T300" t="n">
         <v>7</v>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E301" t="n">
         <v>4</v>
@@ -24444,7 +24444,7 @@
         </is>
       </c>
       <c r="M301" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N301" t="n">
         <v>15500</v>
@@ -24487,7 +24487,7 @@
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>44214</v>
+        <v>44351</v>
       </c>
       <c r="E302" t="n">
         <v>4</v>
@@ -24524,7 +24524,7 @@
         </is>
       </c>
       <c r="M302" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N302" t="n">
         <v>12500</v>
@@ -24567,7 +24567,7 @@
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E303" t="n">
         <v>4</v>
@@ -24607,13 +24607,13 @@
         <v>240</v>
       </c>
       <c r="N303" t="n">
-        <v>14000</v>
+        <v>17500</v>
       </c>
       <c r="O303" t="n">
-        <v>14500</v>
+        <v>18000</v>
       </c>
       <c r="P303" t="n">
-        <v>14250</v>
+        <v>17750</v>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S303" t="n">
-        <v>2036</v>
+        <v>2536</v>
       </c>
       <c r="T303" t="n">
         <v>7</v>
@@ -24647,7 +24647,7 @@
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E304" t="n">
         <v>4</v>
@@ -24684,16 +24684,16 @@
         </is>
       </c>
       <c r="M304" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N304" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O304" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P304" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="S304" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T304" t="n">
         <v>7</v>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>44280</v>
+        <v>44214</v>
       </c>
       <c r="E305" t="n">
         <v>4</v>
@@ -24764,16 +24764,16 @@
         </is>
       </c>
       <c r="M305" t="n">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="N305" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="O305" t="n">
-        <v>10500</v>
+        <v>13000</v>
       </c>
       <c r="P305" t="n">
-        <v>10244</v>
+        <v>12750</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         </is>
       </c>
       <c r="S305" t="n">
-        <v>1463</v>
+        <v>1821</v>
       </c>
       <c r="T305" t="n">
         <v>7</v>
@@ -24807,7 +24807,7 @@
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E306" t="n">
         <v>4</v>
@@ -24840,20 +24840,20 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M306" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="N306" t="n">
-        <v>26000</v>
+        <v>14000</v>
       </c>
       <c r="O306" t="n">
-        <v>27000</v>
+        <v>14500</v>
       </c>
       <c r="P306" t="n">
-        <v>26500</v>
+        <v>14250</v>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         </is>
       </c>
       <c r="S306" t="n">
-        <v>3786</v>
+        <v>2036</v>
       </c>
       <c r="T306" t="n">
         <v>7</v>
@@ -24887,7 +24887,7 @@
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>44445</v>
+        <v>44280</v>
       </c>
       <c r="E307" t="n">
         <v>4</v>
@@ -24920,20 +24920,20 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M307" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N307" t="n">
-        <v>20000</v>
+        <v>12000</v>
       </c>
       <c r="O307" t="n">
-        <v>21000</v>
+        <v>12500</v>
       </c>
       <c r="P307" t="n">
-        <v>20500</v>
+        <v>12250</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="S307" t="n">
-        <v>2929</v>
+        <v>1750</v>
       </c>
       <c r="T307" t="n">
         <v>7</v>
@@ -24967,7 +24967,7 @@
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>44229</v>
+        <v>44280</v>
       </c>
       <c r="E308" t="n">
         <v>4</v>
@@ -25000,20 +25000,20 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M308" t="n">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N308" t="n">
-        <v>16500</v>
+        <v>10000</v>
       </c>
       <c r="O308" t="n">
-        <v>17000</v>
+        <v>10500</v>
       </c>
       <c r="P308" t="n">
-        <v>16750</v>
+        <v>10244</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
@@ -25026,7 +25026,7 @@
         </is>
       </c>
       <c r="S308" t="n">
-        <v>2393</v>
+        <v>1463</v>
       </c>
       <c r="T308" t="n">
         <v>7</v>
@@ -25047,7 +25047,7 @@
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E309" t="n">
         <v>4</v>
@@ -25084,16 +25084,16 @@
         </is>
       </c>
       <c r="M309" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="N309" t="n">
-        <v>14500</v>
+        <v>26000</v>
       </c>
       <c r="O309" t="n">
-        <v>15000</v>
+        <v>27000</v>
       </c>
       <c r="P309" t="n">
-        <v>14750</v>
+        <v>26500</v>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         </is>
       </c>
       <c r="S309" t="n">
-        <v>2107</v>
+        <v>3786</v>
       </c>
       <c r="T309" t="n">
         <v>7</v>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>44229</v>
+        <v>44445</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
@@ -25164,16 +25164,16 @@
         </is>
       </c>
       <c r="M310" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="N310" t="n">
-        <v>12500</v>
+        <v>20000</v>
       </c>
       <c r="O310" t="n">
-        <v>13000</v>
+        <v>21000</v>
       </c>
       <c r="P310" t="n">
-        <v>12750</v>
+        <v>20500</v>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
@@ -25186,7 +25186,7 @@
         </is>
       </c>
       <c r="S310" t="n">
-        <v>1821</v>
+        <v>2929</v>
       </c>
       <c r="T310" t="n">
         <v>7</v>
@@ -25207,7 +25207,7 @@
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E311" t="n">
         <v>4</v>
@@ -25247,13 +25247,13 @@
         <v>300</v>
       </c>
       <c r="N311" t="n">
-        <v>18500</v>
+        <v>16500</v>
       </c>
       <c r="O311" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="P311" t="n">
-        <v>18750</v>
+        <v>16750</v>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
@@ -25266,7 +25266,7 @@
         </is>
       </c>
       <c r="S311" t="n">
-        <v>2679</v>
+        <v>2393</v>
       </c>
       <c r="T311" t="n">
         <v>7</v>
@@ -25287,7 +25287,7 @@
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E312" t="n">
         <v>4</v>
@@ -25324,16 +25324,16 @@
         </is>
       </c>
       <c r="M312" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="N312" t="n">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="O312" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="P312" t="n">
-        <v>15750</v>
+        <v>14750</v>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="S312" t="n">
-        <v>2250</v>
+        <v>2107</v>
       </c>
       <c r="T312" t="n">
         <v>7</v>
@@ -25367,7 +25367,7 @@
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>44344</v>
+        <v>44229</v>
       </c>
       <c r="E313" t="n">
         <v>4</v>
@@ -25447,7 +25447,7 @@
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E314" t="n">
         <v>4</v>
@@ -25484,16 +25484,16 @@
         </is>
       </c>
       <c r="M314" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N314" t="n">
-        <v>25500</v>
+        <v>18500</v>
       </c>
       <c r="O314" t="n">
-        <v>26000</v>
+        <v>19000</v>
       </c>
       <c r="P314" t="n">
-        <v>25750</v>
+        <v>18750</v>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         </is>
       </c>
       <c r="S314" t="n">
-        <v>3679</v>
+        <v>2679</v>
       </c>
       <c r="T314" t="n">
         <v>7</v>
@@ -25527,7 +25527,7 @@
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E315" t="n">
         <v>4</v>
@@ -25564,16 +25564,16 @@
         </is>
       </c>
       <c r="M315" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="N315" t="n">
-        <v>21500</v>
+        <v>15500</v>
       </c>
       <c r="O315" t="n">
-        <v>22000</v>
+        <v>16000</v>
       </c>
       <c r="P315" t="n">
-        <v>21750</v>
+        <v>15750</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         </is>
       </c>
       <c r="S315" t="n">
-        <v>3107</v>
+        <v>2250</v>
       </c>
       <c r="T315" t="n">
         <v>7</v>
@@ -25607,7 +25607,7 @@
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>44407</v>
+        <v>44344</v>
       </c>
       <c r="E316" t="n">
         <v>4</v>
@@ -25647,13 +25647,13 @@
         <v>240</v>
       </c>
       <c r="N316" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O316" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P316" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
@@ -25666,7 +25666,7 @@
         </is>
       </c>
       <c r="S316" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T316" t="n">
         <v>7</v>
@@ -25687,7 +25687,7 @@
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E317" t="n">
         <v>4</v>
@@ -25727,13 +25727,13 @@
         <v>200</v>
       </c>
       <c r="N317" t="n">
-        <v>18000</v>
+        <v>25500</v>
       </c>
       <c r="O317" t="n">
-        <v>18500</v>
+        <v>26000</v>
       </c>
       <c r="P317" t="n">
-        <v>18250</v>
+        <v>25750</v>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="S317" t="n">
-        <v>2607</v>
+        <v>3679</v>
       </c>
       <c r="T317" t="n">
         <v>7</v>
@@ -25767,7 +25767,7 @@
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E318" t="n">
         <v>4</v>
@@ -25804,16 +25804,16 @@
         </is>
       </c>
       <c r="M318" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N318" t="n">
-        <v>16000</v>
+        <v>21500</v>
       </c>
       <c r="O318" t="n">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="P318" t="n">
-        <v>16250</v>
+        <v>21750</v>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
         </is>
       </c>
       <c r="S318" t="n">
-        <v>2321</v>
+        <v>3107</v>
       </c>
       <c r="T318" t="n">
         <v>7</v>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>44358</v>
+        <v>44407</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -25884,16 +25884,16 @@
         </is>
       </c>
       <c r="M319" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N319" t="n">
-        <v>13000</v>
+        <v>17500</v>
       </c>
       <c r="O319" t="n">
-        <v>13500</v>
+        <v>18000</v>
       </c>
       <c r="P319" t="n">
-        <v>13250</v>
+        <v>17750</v>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
@@ -25906,7 +25906,7 @@
         </is>
       </c>
       <c r="S319" t="n">
-        <v>1893</v>
+        <v>2536</v>
       </c>
       <c r="T319" t="n">
         <v>7</v>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N320" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="O320" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="P320" t="n">
-        <v>15750</v>
+        <v>18250</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2250</v>
+        <v>2607</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26040,11 +26040,11 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M321" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N321" t="n">
         <v>16000</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26120,20 +26120,20 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M322" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N322" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O322" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="P322" t="n">
-        <v>14250</v>
+        <v>13250</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>2036</v>
+        <v>1893</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26200,20 +26200,20 @@
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M323" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N323" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O323" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P323" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26284,16 +26284,16 @@
         </is>
       </c>
       <c r="M324" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N324" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O324" t="n">
         <v>16500</v>
       </c>
-      <c r="O324" t="n">
-        <v>17000</v>
-      </c>
       <c r="P324" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         </is>
       </c>
       <c r="S324" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T324" t="n">
         <v>7</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26367,13 +26367,13 @@
         <v>240</v>
       </c>
       <c r="N325" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O325" t="n">
         <v>14500</v>
       </c>
-      <c r="O325" t="n">
-        <v>15000</v>
-      </c>
       <c r="P325" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26447,13 +26447,13 @@
         <v>200</v>
       </c>
       <c r="N326" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O326" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P326" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="N327" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="O327" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P327" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2786</v>
+        <v>2393</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26604,16 +26604,16 @@
         </is>
       </c>
       <c r="M328" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N328" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O328" t="n">
         <v>15000</v>
       </c>
       <c r="P328" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26684,16 +26684,16 @@
         </is>
       </c>
       <c r="M329" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N329" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O329" t="n">
         <v>12000</v>
       </c>
-      <c r="O329" t="n">
-        <v>13000</v>
-      </c>
       <c r="P329" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1786</v>
+        <v>1679</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N330" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O330" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P330" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N331" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O331" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>1821</v>
+        <v>2071</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N332" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O332" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P332" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1393</v>
+        <v>1786</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N333" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O333" t="n">
         <v>15000</v>
       </c>
-      <c r="O333" t="n">
-        <v>15500</v>
-      </c>
       <c r="P333" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N334" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O334" t="n">
         <v>13000</v>
       </c>
-      <c r="O334" t="n">
-        <v>13500</v>
-      </c>
       <c r="P334" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27167,13 +27167,13 @@
         <v>200</v>
       </c>
       <c r="N335" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O335" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P335" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1607</v>
+        <v>1393</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N336" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O336" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P336" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27327,13 +27327,13 @@
         <v>300</v>
       </c>
       <c r="N337" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O337" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P337" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27404,16 +27404,16 @@
         </is>
       </c>
       <c r="M338" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O338" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="P338" t="n">
-        <v>13250</v>
+        <v>11250</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N339" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O339" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P339" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27564,16 +27564,16 @@
         </is>
       </c>
       <c r="M340" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O340" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P340" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2250</v>
+        <v>2321</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N341" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O341" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P341" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1679</v>
+        <v>1893</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N342" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="O342" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P342" t="n">
-        <v>21750</v>
+        <v>17750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>3107</v>
+        <v>2536</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N343" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O343" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P343" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N344" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O344" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P344" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N345" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="O345" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P345" t="n">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>2679</v>
+        <v>3107</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28047,13 +28047,13 @@
         <v>300</v>
       </c>
       <c r="N346" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O346" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P346" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N347" t="n">
         <v>12500</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N348" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="O348" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="P348" t="n">
-        <v>30500</v>
+        <v>18750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>4357</v>
+        <v>2679</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28287,13 +28287,13 @@
         <v>300</v>
       </c>
       <c r="N349" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O349" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P349" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,16 +28364,16 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N350" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O350" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P350" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q350" t="inlineStr">
         <is>
@@ -28386,7 +28386,7 @@
         </is>
       </c>
       <c r="S350" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T350" t="n">
         <v>7</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N351" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="O351" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="P351" t="n">
-        <v>24750</v>
+        <v>30500</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>3536</v>
+        <v>4357</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28524,16 +28524,16 @@
         </is>
       </c>
       <c r="M352" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="O352" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="P352" t="n">
-        <v>22750</v>
+        <v>26500</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>3250</v>
+        <v>3786</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N353" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O353" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P353" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N354" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O354" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P354" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N355" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O355" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P355" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N356" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O356" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P356" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N357" t="n">
         <v>30000</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,7 +29004,7 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N358" t="n">
         <v>25000</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N359" t="n">
         <v>20000</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N360" t="n">
         <v>30000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,16 +29244,16 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N361" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O361" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P361" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q361" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         </is>
       </c>
       <c r="S361" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T361" t="n">
         <v>7</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,16 +29324,16 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N362" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O362" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P362" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q362" t="inlineStr">
         <is>
@@ -29346,7 +29346,7 @@
         </is>
       </c>
       <c r="S362" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T362" t="n">
         <v>7</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,16 +29404,16 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N363" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O363" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P363" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q363" t="inlineStr">
         <is>
@@ -29426,7 +29426,7 @@
         </is>
       </c>
       <c r="S363" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T363" t="n">
         <v>7</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N364" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O364" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P364" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N365" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O365" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P365" t="n">
-        <v>10750</v>
+        <v>20646</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>1536</v>
+        <v>2949</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N366" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O366" t="n">
         <v>15000</v>
       </c>
-      <c r="O366" t="n">
-        <v>16000</v>
-      </c>
       <c r="P366" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29720,20 +29720,20 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M367" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N367" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O367" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P367" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29800,20 +29800,20 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M368" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N368" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O368" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P368" t="n">
-        <v>16500</v>
+        <v>10750</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>2357</v>
+        <v>1536</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N369" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O369" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P369" t="n">
-        <v>19250</v>
+        <v>15500</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2750</v>
+        <v>2214</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N370" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O370" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P370" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N371" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O371" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P371" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N372" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O372" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P372" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30204,16 +30204,16 @@
         </is>
       </c>
       <c r="M373" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N373" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O373" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P373" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30287,13 +30287,13 @@
         <v>240</v>
       </c>
       <c r="N374" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O374" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P374" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N375" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O375" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P375" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N376" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O376" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P376" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30527,13 +30527,13 @@
         <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O377" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P377" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N378" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O378" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P378" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30687,13 +30687,13 @@
         <v>240</v>
       </c>
       <c r="N379" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O379" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P379" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30847,13 +30847,13 @@
         <v>300</v>
       </c>
       <c r="N381" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O381" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P381" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30927,13 +30927,13 @@
         <v>240</v>
       </c>
       <c r="N382" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O382" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P382" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31004,16 +31004,16 @@
         </is>
       </c>
       <c r="M383" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N383" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O383" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P383" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q383" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         </is>
       </c>
       <c r="S383" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T383" t="n">
         <v>7</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31087,13 +31087,13 @@
         <v>300</v>
       </c>
       <c r="N384" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O384" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P384" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31164,16 +31164,16 @@
         </is>
       </c>
       <c r="M385" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O385" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P385" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,7 +31244,7 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N386" t="n">
         <v>13500</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31324,16 +31324,16 @@
         </is>
       </c>
       <c r="M387" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N387" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O387" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P387" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31407,13 +31407,13 @@
         <v>300</v>
       </c>
       <c r="N388" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O388" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P388" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31487,13 +31487,13 @@
         <v>240</v>
       </c>
       <c r="N389" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O389" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P389" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q389" t="inlineStr">
         <is>
@@ -31506,7 +31506,7 @@
         </is>
       </c>
       <c r="S389" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T389" t="n">
         <v>7</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N390" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O390" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P390" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31644,16 +31644,16 @@
         </is>
       </c>
       <c r="M391" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O391" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P391" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31724,16 +31724,16 @@
         </is>
       </c>
       <c r="M392" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O392" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P392" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N393" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O393" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P393" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N394" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O394" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P394" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N395" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O395" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P395" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N396" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O396" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P396" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N397" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O397" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P397" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N398" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O398" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P398" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N399" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O399" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P399" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N400" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P400" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N401" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O401" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P401" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32527,13 +32527,13 @@
         <v>240</v>
       </c>
       <c r="N402" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O402" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P402" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N403" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O403" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N404" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O404" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P404" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32760,20 +32760,20 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M405" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N405" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O405" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P405" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32840,20 +32840,20 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M406" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N406" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O406" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P406" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32920,20 +32920,20 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M407" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N407" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O407" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P407" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N408" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O408" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P408" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N409" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O409" t="n">
         <v>18000</v>
       </c>
-      <c r="O409" t="n">
-        <v>19000</v>
-      </c>
       <c r="P409" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N410" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O410" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P410" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N411" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O411" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P411" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N412" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O412" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P412" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N413" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O413" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P413" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N414" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O414" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P414" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N415" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O415" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P415" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N416" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O416" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P416" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N417" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O417" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P417" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -33807,13 +33807,13 @@
         <v>160</v>
       </c>
       <c r="N418" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O418" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P418" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N419" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O419" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P419" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N420" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O420" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P420" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N421" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P421" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -34124,7 +34124,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N422" t="n">
         <v>15500</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -34204,7 +34204,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N423" t="n">
         <v>13500</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N425" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O425" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P425" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N426" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O426" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P426" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -34520,20 +34520,20 @@
       </c>
       <c r="L427" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M427" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N427" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O427" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P427" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -34600,20 +34600,20 @@
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M428" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N428" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O428" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P428" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,68 +34647,308 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E429" t="n">
+        <v>4</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J429" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M429" t="n">
+        <v>160</v>
+      </c>
+      <c r="N429" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O429" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P429" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R429" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S429" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T429" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>8</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D430" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E429" t="n">
-        <v>4</v>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G429" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I429" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J429" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L429" t="inlineStr">
+      <c r="E430" t="n">
+        <v>4</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M430" t="n">
+        <v>240</v>
+      </c>
+      <c r="N430" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O430" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P430" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R430" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S430" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T430" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>8</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E431" t="n">
+        <v>4</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J431" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M431" t="n">
+        <v>300</v>
+      </c>
+      <c r="N431" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O431" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P431" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q431" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R431" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S431" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T431" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>8</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D432" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E432" t="n">
+        <v>4</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M429" t="n">
+      <c r="M432" t="n">
         <v>300</v>
       </c>
-      <c r="N429" t="n">
+      <c r="N432" t="n">
         <v>10500</v>
       </c>
-      <c r="O429" t="n">
+      <c r="O432" t="n">
         <v>11000</v>
       </c>
-      <c r="P429" t="n">
+      <c r="P432" t="n">
         <v>10750</v>
       </c>
-      <c r="Q429" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R429" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S429" t="n">
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S432" t="n">
         <v>1536</v>
       </c>
-      <c r="T429" t="n">
+      <c r="T432" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T432"/>
+  <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25927,7 +25927,7 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E320" t="n">
         <v>4</v>
@@ -25964,16 +25964,16 @@
         </is>
       </c>
       <c r="M320" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N320" t="n">
-        <v>18000</v>
+        <v>13500</v>
       </c>
       <c r="O320" t="n">
-        <v>18500</v>
+        <v>14000</v>
       </c>
       <c r="P320" t="n">
-        <v>18250</v>
+        <v>13750</v>
       </c>
       <c r="Q320" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         </is>
       </c>
       <c r="S320" t="n">
-        <v>2607</v>
+        <v>1964</v>
       </c>
       <c r="T320" t="n">
         <v>7</v>
@@ -26007,7 +26007,7 @@
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E321" t="n">
         <v>4</v>
@@ -26044,16 +26044,16 @@
         </is>
       </c>
       <c r="M321" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N321" t="n">
-        <v>16000</v>
+        <v>11500</v>
       </c>
       <c r="O321" t="n">
-        <v>16500</v>
+        <v>12000</v>
       </c>
       <c r="P321" t="n">
-        <v>16250</v>
+        <v>11750</v>
       </c>
       <c r="Q321" t="inlineStr">
         <is>
@@ -26066,7 +26066,7 @@
         </is>
       </c>
       <c r="S321" t="n">
-        <v>2321</v>
+        <v>1679</v>
       </c>
       <c r="T321" t="n">
         <v>7</v>
@@ -26087,7 +26087,7 @@
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>44358</v>
+        <v>44489</v>
       </c>
       <c r="E322" t="n">
         <v>4</v>
@@ -26124,16 +26124,16 @@
         </is>
       </c>
       <c r="M322" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N322" t="n">
-        <v>13000</v>
+        <v>9500</v>
       </c>
       <c r="O322" t="n">
-        <v>13500</v>
+        <v>10000</v>
       </c>
       <c r="P322" t="n">
-        <v>13250</v>
+        <v>9750</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="S322" t="n">
-        <v>1893</v>
+        <v>1393</v>
       </c>
       <c r="T322" t="n">
         <v>7</v>
@@ -26167,7 +26167,7 @@
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>44165</v>
+        <v>44358</v>
       </c>
       <c r="E323" t="n">
         <v>4</v>
@@ -26204,16 +26204,16 @@
         </is>
       </c>
       <c r="M323" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N323" t="n">
-        <v>15500</v>
+        <v>18000</v>
       </c>
       <c r="O323" t="n">
-        <v>16000</v>
+        <v>18500</v>
       </c>
       <c r="P323" t="n">
-        <v>15750</v>
+        <v>18250</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
@@ -26226,7 +26226,7 @@
         </is>
       </c>
       <c r="S323" t="n">
-        <v>2250</v>
+        <v>2607</v>
       </c>
       <c r="T323" t="n">
         <v>7</v>
@@ -26247,7 +26247,7 @@
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E324" t="n">
         <v>4</v>
@@ -26280,11 +26280,11 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M324" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N324" t="n">
         <v>16000</v>
@@ -26327,7 +26327,7 @@
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>44231</v>
+        <v>44358</v>
       </c>
       <c r="E325" t="n">
         <v>4</v>
@@ -26360,20 +26360,20 @@
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M325" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N325" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="O325" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="P325" t="n">
-        <v>14250</v>
+        <v>13250</v>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
@@ -26386,7 +26386,7 @@
         </is>
       </c>
       <c r="S325" t="n">
-        <v>2036</v>
+        <v>1893</v>
       </c>
       <c r="T325" t="n">
         <v>7</v>
@@ -26407,7 +26407,7 @@
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>44231</v>
+        <v>44165</v>
       </c>
       <c r="E326" t="n">
         <v>4</v>
@@ -26440,20 +26440,20 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M326" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N326" t="n">
-        <v>12000</v>
+        <v>15500</v>
       </c>
       <c r="O326" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="P326" t="n">
-        <v>12250</v>
+        <v>15750</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
@@ -26466,7 +26466,7 @@
         </is>
       </c>
       <c r="S326" t="n">
-        <v>1750</v>
+        <v>2250</v>
       </c>
       <c r="T326" t="n">
         <v>7</v>
@@ -26487,7 +26487,7 @@
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E327" t="n">
         <v>4</v>
@@ -26524,16 +26524,16 @@
         </is>
       </c>
       <c r="M327" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="N327" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O327" t="n">
         <v>16500</v>
       </c>
-      <c r="O327" t="n">
-        <v>17000</v>
-      </c>
       <c r="P327" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="S327" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T327" t="n">
         <v>7</v>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E328" t="n">
         <v>4</v>
@@ -26607,13 +26607,13 @@
         <v>240</v>
       </c>
       <c r="N328" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O328" t="n">
         <v>14500</v>
       </c>
-      <c r="O328" t="n">
-        <v>15000</v>
-      </c>
       <c r="P328" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         </is>
       </c>
       <c r="S328" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T328" t="n">
         <v>7</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>44320</v>
+        <v>44231</v>
       </c>
       <c r="E329" t="n">
         <v>4</v>
@@ -26687,13 +26687,13 @@
         <v>200</v>
       </c>
       <c r="N329" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O329" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P329" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         </is>
       </c>
       <c r="S329" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T329" t="n">
         <v>7</v>
@@ -26727,7 +26727,7 @@
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E330" t="n">
         <v>4</v>
@@ -26764,16 +26764,16 @@
         </is>
       </c>
       <c r="M330" t="n">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="N330" t="n">
-        <v>19000</v>
+        <v>16500</v>
       </c>
       <c r="O330" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P330" t="n">
-        <v>19500</v>
+        <v>16750</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         </is>
       </c>
       <c r="S330" t="n">
-        <v>2786</v>
+        <v>2393</v>
       </c>
       <c r="T330" t="n">
         <v>7</v>
@@ -26807,7 +26807,7 @@
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E331" t="n">
         <v>4</v>
@@ -26844,16 +26844,16 @@
         </is>
       </c>
       <c r="M331" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="N331" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="O331" t="n">
         <v>15000</v>
       </c>
       <c r="P331" t="n">
-        <v>14500</v>
+        <v>14750</v>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
@@ -26866,7 +26866,7 @@
         </is>
       </c>
       <c r="S331" t="n">
-        <v>2071</v>
+        <v>2107</v>
       </c>
       <c r="T331" t="n">
         <v>7</v>
@@ -26887,7 +26887,7 @@
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>44474</v>
+        <v>44320</v>
       </c>
       <c r="E332" t="n">
         <v>4</v>
@@ -26924,16 +26924,16 @@
         </is>
       </c>
       <c r="M332" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N332" t="n">
+        <v>11500</v>
+      </c>
+      <c r="O332" t="n">
         <v>12000</v>
       </c>
-      <c r="O332" t="n">
-        <v>13000</v>
-      </c>
       <c r="P332" t="n">
-        <v>12500</v>
+        <v>11750</v>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="S332" t="n">
-        <v>1786</v>
+        <v>1679</v>
       </c>
       <c r="T332" t="n">
         <v>7</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E333" t="n">
         <v>4</v>
@@ -27004,16 +27004,16 @@
         </is>
       </c>
       <c r="M333" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="N333" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O333" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P333" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
@@ -27026,7 +27026,7 @@
         </is>
       </c>
       <c r="S333" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T333" t="n">
         <v>7</v>
@@ -27047,7 +27047,7 @@
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E334" t="n">
         <v>4</v>
@@ -27084,16 +27084,16 @@
         </is>
       </c>
       <c r="M334" t="n">
-        <v>200</v>
+        <v>320</v>
       </c>
       <c r="N334" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="O334" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P334" t="n">
-        <v>12750</v>
+        <v>14500</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
@@ -27106,7 +27106,7 @@
         </is>
       </c>
       <c r="S334" t="n">
-        <v>1821</v>
+        <v>2071</v>
       </c>
       <c r="T334" t="n">
         <v>7</v>
@@ -27127,7 +27127,7 @@
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>44252</v>
+        <v>44474</v>
       </c>
       <c r="E335" t="n">
         <v>4</v>
@@ -27164,16 +27164,16 @@
         </is>
       </c>
       <c r="M335" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N335" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="O335" t="n">
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="P335" t="n">
-        <v>9750</v>
+        <v>12500</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
@@ -27186,7 +27186,7 @@
         </is>
       </c>
       <c r="S335" t="n">
-        <v>1393</v>
+        <v>1786</v>
       </c>
       <c r="T335" t="n">
         <v>7</v>
@@ -27207,7 +27207,7 @@
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E336" t="n">
         <v>4</v>
@@ -27244,16 +27244,16 @@
         </is>
       </c>
       <c r="M336" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N336" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O336" t="n">
         <v>15000</v>
       </c>
-      <c r="O336" t="n">
-        <v>15500</v>
-      </c>
       <c r="P336" t="n">
-        <v>15250</v>
+        <v>14750</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
@@ -27266,7 +27266,7 @@
         </is>
       </c>
       <c r="S336" t="n">
-        <v>2179</v>
+        <v>2107</v>
       </c>
       <c r="T336" t="n">
         <v>7</v>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E337" t="n">
         <v>4</v>
@@ -27324,16 +27324,16 @@
         </is>
       </c>
       <c r="M337" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N337" t="n">
+        <v>12500</v>
+      </c>
+      <c r="O337" t="n">
         <v>13000</v>
       </c>
-      <c r="O337" t="n">
-        <v>13500</v>
-      </c>
       <c r="P337" t="n">
-        <v>13250</v>
+        <v>12750</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="S337" t="n">
-        <v>1893</v>
+        <v>1821</v>
       </c>
       <c r="T337" t="n">
         <v>7</v>
@@ -27367,7 +27367,7 @@
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>44204</v>
+        <v>44252</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
@@ -27407,13 +27407,13 @@
         <v>200</v>
       </c>
       <c r="N338" t="n">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="O338" t="n">
-        <v>11500</v>
+        <v>10000</v>
       </c>
       <c r="P338" t="n">
-        <v>11250</v>
+        <v>9750</v>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         </is>
       </c>
       <c r="S338" t="n">
-        <v>1607</v>
+        <v>1393</v>
       </c>
       <c r="T338" t="n">
         <v>7</v>
@@ -27447,7 +27447,7 @@
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E339" t="n">
         <v>4</v>
@@ -27484,16 +27484,16 @@
         </is>
       </c>
       <c r="M339" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N339" t="n">
-        <v>18500</v>
+        <v>15000</v>
       </c>
       <c r="O339" t="n">
-        <v>19000</v>
+        <v>15500</v>
       </c>
       <c r="P339" t="n">
-        <v>18750</v>
+        <v>15250</v>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
@@ -27506,7 +27506,7 @@
         </is>
       </c>
       <c r="S339" t="n">
-        <v>2679</v>
+        <v>2179</v>
       </c>
       <c r="T339" t="n">
         <v>7</v>
@@ -27527,7 +27527,7 @@
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E340" t="n">
         <v>4</v>
@@ -27567,13 +27567,13 @@
         <v>300</v>
       </c>
       <c r="N340" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="O340" t="n">
-        <v>16500</v>
+        <v>13500</v>
       </c>
       <c r="P340" t="n">
-        <v>16250</v>
+        <v>13250</v>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
@@ -27586,7 +27586,7 @@
         </is>
       </c>
       <c r="S340" t="n">
-        <v>2321</v>
+        <v>1893</v>
       </c>
       <c r="T340" t="n">
         <v>7</v>
@@ -27607,7 +27607,7 @@
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>44362</v>
+        <v>44204</v>
       </c>
       <c r="E341" t="n">
         <v>4</v>
@@ -27644,16 +27644,16 @@
         </is>
       </c>
       <c r="M341" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="N341" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="O341" t="n">
-        <v>13500</v>
+        <v>11500</v>
       </c>
       <c r="P341" t="n">
-        <v>13250</v>
+        <v>11250</v>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
@@ -27666,7 +27666,7 @@
         </is>
       </c>
       <c r="S341" t="n">
-        <v>1893</v>
+        <v>1607</v>
       </c>
       <c r="T341" t="n">
         <v>7</v>
@@ -27687,7 +27687,7 @@
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E342" t="n">
         <v>4</v>
@@ -27724,16 +27724,16 @@
         </is>
       </c>
       <c r="M342" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="N342" t="n">
-        <v>17500</v>
+        <v>18500</v>
       </c>
       <c r="O342" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="P342" t="n">
-        <v>17750</v>
+        <v>18750</v>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         </is>
       </c>
       <c r="S342" t="n">
-        <v>2536</v>
+        <v>2679</v>
       </c>
       <c r="T342" t="n">
         <v>7</v>
@@ -27767,7 +27767,7 @@
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E343" t="n">
         <v>4</v>
@@ -27804,16 +27804,16 @@
         </is>
       </c>
       <c r="M343" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N343" t="n">
-        <v>15500</v>
+        <v>16000</v>
       </c>
       <c r="O343" t="n">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="P343" t="n">
-        <v>15750</v>
+        <v>16250</v>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         </is>
       </c>
       <c r="S343" t="n">
-        <v>2250</v>
+        <v>2321</v>
       </c>
       <c r="T343" t="n">
         <v>7</v>
@@ -27847,7 +27847,7 @@
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>44186</v>
+        <v>44362</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -27884,16 +27884,16 @@
         </is>
       </c>
       <c r="M344" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="N344" t="n">
-        <v>11500</v>
+        <v>13000</v>
       </c>
       <c r="O344" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="P344" t="n">
-        <v>11750</v>
+        <v>13250</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
@@ -27906,7 +27906,7 @@
         </is>
       </c>
       <c r="S344" t="n">
-        <v>1679</v>
+        <v>1893</v>
       </c>
       <c r="T344" t="n">
         <v>7</v>
@@ -27927,7 +27927,7 @@
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E345" t="n">
         <v>4</v>
@@ -27964,16 +27964,16 @@
         </is>
       </c>
       <c r="M345" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N345" t="n">
-        <v>21500</v>
+        <v>17500</v>
       </c>
       <c r="O345" t="n">
-        <v>22000</v>
+        <v>18000</v>
       </c>
       <c r="P345" t="n">
-        <v>21750</v>
+        <v>17750</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         </is>
       </c>
       <c r="S345" t="n">
-        <v>3107</v>
+        <v>2536</v>
       </c>
       <c r="T345" t="n">
         <v>7</v>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E346" t="n">
         <v>4</v>
@@ -28044,16 +28044,16 @@
         </is>
       </c>
       <c r="M346" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N346" t="n">
-        <v>19500</v>
+        <v>15500</v>
       </c>
       <c r="O346" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="P346" t="n">
-        <v>19750</v>
+        <v>15750</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         </is>
       </c>
       <c r="S346" t="n">
-        <v>2821</v>
+        <v>2250</v>
       </c>
       <c r="T346" t="n">
         <v>7</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>44372</v>
+        <v>44186</v>
       </c>
       <c r="E347" t="n">
         <v>4</v>
@@ -28124,16 +28124,16 @@
         </is>
       </c>
       <c r="M347" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N347" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O347" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P347" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         </is>
       </c>
       <c r="S347" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T347" t="n">
         <v>7</v>
@@ -28167,7 +28167,7 @@
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E348" t="n">
         <v>4</v>
@@ -28204,16 +28204,16 @@
         </is>
       </c>
       <c r="M348" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N348" t="n">
-        <v>18500</v>
+        <v>21500</v>
       </c>
       <c r="O348" t="n">
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="P348" t="n">
-        <v>18750</v>
+        <v>21750</v>
       </c>
       <c r="Q348" t="inlineStr">
         <is>
@@ -28226,7 +28226,7 @@
         </is>
       </c>
       <c r="S348" t="n">
-        <v>2679</v>
+        <v>3107</v>
       </c>
       <c r="T348" t="n">
         <v>7</v>
@@ -28247,7 +28247,7 @@
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E349" t="n">
         <v>4</v>
@@ -28287,13 +28287,13 @@
         <v>300</v>
       </c>
       <c r="N349" t="n">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="O349" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="P349" t="n">
-        <v>15750</v>
+        <v>19750</v>
       </c>
       <c r="Q349" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="S349" t="n">
-        <v>2250</v>
+        <v>2821</v>
       </c>
       <c r="T349" t="n">
         <v>7</v>
@@ -28327,7 +28327,7 @@
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>44350</v>
+        <v>44372</v>
       </c>
       <c r="E350" t="n">
         <v>4</v>
@@ -28364,7 +28364,7 @@
         </is>
       </c>
       <c r="M350" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N350" t="n">
         <v>12500</v>
@@ -28407,7 +28407,7 @@
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E351" t="n">
         <v>4</v>
@@ -28444,16 +28444,16 @@
         </is>
       </c>
       <c r="M351" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N351" t="n">
-        <v>30000</v>
+        <v>18500</v>
       </c>
       <c r="O351" t="n">
-        <v>31000</v>
+        <v>19000</v>
       </c>
       <c r="P351" t="n">
-        <v>30500</v>
+        <v>18750</v>
       </c>
       <c r="Q351" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         </is>
       </c>
       <c r="S351" t="n">
-        <v>4357</v>
+        <v>2679</v>
       </c>
       <c r="T351" t="n">
         <v>7</v>
@@ -28487,7 +28487,7 @@
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E352" t="n">
         <v>4</v>
@@ -28527,13 +28527,13 @@
         <v>300</v>
       </c>
       <c r="N352" t="n">
-        <v>26000</v>
+        <v>15500</v>
       </c>
       <c r="O352" t="n">
-        <v>27000</v>
+        <v>16000</v>
       </c>
       <c r="P352" t="n">
-        <v>26500</v>
+        <v>15750</v>
       </c>
       <c r="Q352" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         </is>
       </c>
       <c r="S352" t="n">
-        <v>3786</v>
+        <v>2250</v>
       </c>
       <c r="T352" t="n">
         <v>7</v>
@@ -28567,7 +28567,7 @@
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>44448</v>
+        <v>44350</v>
       </c>
       <c r="E353" t="n">
         <v>4</v>
@@ -28604,16 +28604,16 @@
         </is>
       </c>
       <c r="M353" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N353" t="n">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="O353" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P353" t="n">
-        <v>20500</v>
+        <v>12750</v>
       </c>
       <c r="Q353" t="inlineStr">
         <is>
@@ -28626,7 +28626,7 @@
         </is>
       </c>
       <c r="S353" t="n">
-        <v>2929</v>
+        <v>1821</v>
       </c>
       <c r="T353" t="n">
         <v>7</v>
@@ -28647,7 +28647,7 @@
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E354" t="n">
         <v>4</v>
@@ -28684,16 +28684,16 @@
         </is>
       </c>
       <c r="M354" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N354" t="n">
-        <v>24500</v>
+        <v>30000</v>
       </c>
       <c r="O354" t="n">
-        <v>25000</v>
+        <v>31000</v>
       </c>
       <c r="P354" t="n">
-        <v>24750</v>
+        <v>30500</v>
       </c>
       <c r="Q354" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         </is>
       </c>
       <c r="S354" t="n">
-        <v>3536</v>
+        <v>4357</v>
       </c>
       <c r="T354" t="n">
         <v>7</v>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E355" t="n">
         <v>4</v>
@@ -28764,16 +28764,16 @@
         </is>
       </c>
       <c r="M355" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N355" t="n">
-        <v>22500</v>
+        <v>26000</v>
       </c>
       <c r="O355" t="n">
-        <v>23000</v>
+        <v>27000</v>
       </c>
       <c r="P355" t="n">
-        <v>22750</v>
+        <v>26500</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         </is>
       </c>
       <c r="S355" t="n">
-        <v>3250</v>
+        <v>3786</v>
       </c>
       <c r="T355" t="n">
         <v>7</v>
@@ -28807,7 +28807,7 @@
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>44385</v>
+        <v>44448</v>
       </c>
       <c r="E356" t="n">
         <v>4</v>
@@ -28844,16 +28844,16 @@
         </is>
       </c>
       <c r="M356" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N356" t="n">
-        <v>16500</v>
+        <v>20000</v>
       </c>
       <c r="O356" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P356" t="n">
-        <v>16750</v>
+        <v>20500</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
@@ -28866,7 +28866,7 @@
         </is>
       </c>
       <c r="S356" t="n">
-        <v>2393</v>
+        <v>2929</v>
       </c>
       <c r="T356" t="n">
         <v>7</v>
@@ -28887,7 +28887,7 @@
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E357" t="n">
         <v>4</v>
@@ -28924,16 +28924,16 @@
         </is>
       </c>
       <c r="M357" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N357" t="n">
-        <v>30000</v>
+        <v>24500</v>
       </c>
       <c r="O357" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="P357" t="n">
-        <v>30500</v>
+        <v>24750</v>
       </c>
       <c r="Q357" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         </is>
       </c>
       <c r="S357" t="n">
-        <v>4357</v>
+        <v>3536</v>
       </c>
       <c r="T357" t="n">
         <v>7</v>
@@ -28967,7 +28967,7 @@
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E358" t="n">
         <v>4</v>
@@ -29004,16 +29004,16 @@
         </is>
       </c>
       <c r="M358" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N358" t="n">
-        <v>25000</v>
+        <v>22500</v>
       </c>
       <c r="O358" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P358" t="n">
-        <v>25500</v>
+        <v>22750</v>
       </c>
       <c r="Q358" t="inlineStr">
         <is>
@@ -29026,7 +29026,7 @@
         </is>
       </c>
       <c r="S358" t="n">
-        <v>3643</v>
+        <v>3250</v>
       </c>
       <c r="T358" t="n">
         <v>7</v>
@@ -29047,7 +29047,7 @@
         </is>
       </c>
       <c r="D359" s="2" t="n">
-        <v>44452</v>
+        <v>44385</v>
       </c>
       <c r="E359" t="n">
         <v>4</v>
@@ -29084,16 +29084,16 @@
         </is>
       </c>
       <c r="M359" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N359" t="n">
-        <v>20000</v>
+        <v>16500</v>
       </c>
       <c r="O359" t="n">
-        <v>21000</v>
+        <v>17000</v>
       </c>
       <c r="P359" t="n">
-        <v>20500</v>
+        <v>16750</v>
       </c>
       <c r="Q359" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         </is>
       </c>
       <c r="S359" t="n">
-        <v>2929</v>
+        <v>2393</v>
       </c>
       <c r="T359" t="n">
         <v>7</v>
@@ -29127,7 +29127,7 @@
         </is>
       </c>
       <c r="D360" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E360" t="n">
         <v>4</v>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="M360" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="N360" t="n">
         <v>30000</v>
@@ -29207,7 +29207,7 @@
         </is>
       </c>
       <c r="D361" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E361" t="n">
         <v>4</v>
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="M361" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N361" t="n">
         <v>25000</v>
@@ -29287,7 +29287,7 @@
         </is>
       </c>
       <c r="D362" s="2" t="n">
-        <v>44453</v>
+        <v>44452</v>
       </c>
       <c r="E362" t="n">
         <v>4</v>
@@ -29324,7 +29324,7 @@
         </is>
       </c>
       <c r="M362" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N362" t="n">
         <v>20000</v>
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="D363" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="M363" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N363" t="n">
         <v>30000</v>
@@ -29447,7 +29447,7 @@
         </is>
       </c>
       <c r="D364" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E364" t="n">
         <v>4</v>
@@ -29484,16 +29484,16 @@
         </is>
       </c>
       <c r="M364" t="n">
-        <v>540</v>
+        <v>300</v>
       </c>
       <c r="N364" t="n">
-        <v>26500</v>
+        <v>25000</v>
       </c>
       <c r="O364" t="n">
-        <v>27000</v>
+        <v>26000</v>
       </c>
       <c r="P364" t="n">
-        <v>26750</v>
+        <v>25500</v>
       </c>
       <c r="Q364" t="inlineStr">
         <is>
@@ -29506,7 +29506,7 @@
         </is>
       </c>
       <c r="S364" t="n">
-        <v>3821</v>
+        <v>3643</v>
       </c>
       <c r="T364" t="n">
         <v>7</v>
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="D365" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E365" t="n">
         <v>4</v>
@@ -29564,16 +29564,16 @@
         </is>
       </c>
       <c r="M365" t="n">
-        <v>480</v>
+        <v>200</v>
       </c>
       <c r="N365" t="n">
-        <v>19500</v>
+        <v>20000</v>
       </c>
       <c r="O365" t="n">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="P365" t="n">
-        <v>20646</v>
+        <v>20500</v>
       </c>
       <c r="Q365" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         </is>
       </c>
       <c r="S365" t="n">
-        <v>2949</v>
+        <v>2929</v>
       </c>
       <c r="T365" t="n">
         <v>7</v>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="D366" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E366" t="n">
         <v>4</v>
@@ -29644,16 +29644,16 @@
         </is>
       </c>
       <c r="M366" t="n">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="N366" t="n">
-        <v>14500</v>
+        <v>30000</v>
       </c>
       <c r="O366" t="n">
-        <v>15000</v>
+        <v>31000</v>
       </c>
       <c r="P366" t="n">
-        <v>14750</v>
+        <v>30500</v>
       </c>
       <c r="Q366" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="S366" t="n">
-        <v>2107</v>
+        <v>4357</v>
       </c>
       <c r="T366" t="n">
         <v>7</v>
@@ -29687,7 +29687,7 @@
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E367" t="n">
         <v>4</v>
@@ -29724,16 +29724,16 @@
         </is>
       </c>
       <c r="M367" t="n">
-        <v>300</v>
+        <v>540</v>
       </c>
       <c r="N367" t="n">
-        <v>12500</v>
+        <v>26500</v>
       </c>
       <c r="O367" t="n">
-        <v>13000</v>
+        <v>27000</v>
       </c>
       <c r="P367" t="n">
-        <v>12750</v>
+        <v>26750</v>
       </c>
       <c r="Q367" t="inlineStr">
         <is>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="S367" t="n">
-        <v>1821</v>
+        <v>3821</v>
       </c>
       <c r="T367" t="n">
         <v>7</v>
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44159</v>
+        <v>44435</v>
       </c>
       <c r="E368" t="n">
         <v>4</v>
@@ -29804,16 +29804,16 @@
         </is>
       </c>
       <c r="M368" t="n">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="N368" t="n">
-        <v>10500</v>
+        <v>19500</v>
       </c>
       <c r="O368" t="n">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="P368" t="n">
-        <v>10750</v>
+        <v>20646</v>
       </c>
       <c r="Q368" t="inlineStr">
         <is>
@@ -29826,7 +29826,7 @@
         </is>
       </c>
       <c r="S368" t="n">
-        <v>1536</v>
+        <v>2949</v>
       </c>
       <c r="T368" t="n">
         <v>7</v>
@@ -29847,7 +29847,7 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="E369" t="n">
         <v>4</v>
@@ -29884,16 +29884,16 @@
         </is>
       </c>
       <c r="M369" t="n">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="N369" t="n">
+        <v>14500</v>
+      </c>
+      <c r="O369" t="n">
         <v>15000</v>
       </c>
-      <c r="O369" t="n">
-        <v>16000</v>
-      </c>
       <c r="P369" t="n">
-        <v>15500</v>
+        <v>14750</v>
       </c>
       <c r="Q369" t="inlineStr">
         <is>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="S369" t="n">
-        <v>2214</v>
+        <v>2107</v>
       </c>
       <c r="T369" t="n">
         <v>7</v>
@@ -29927,7 +29927,7 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E370" t="n">
         <v>4</v>
@@ -29960,20 +29960,20 @@
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M370" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N370" t="n">
-        <v>19000</v>
+        <v>12500</v>
       </c>
       <c r="O370" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P370" t="n">
-        <v>19500</v>
+        <v>12750</v>
       </c>
       <c r="Q370" t="inlineStr">
         <is>
@@ -29986,7 +29986,7 @@
         </is>
       </c>
       <c r="S370" t="n">
-        <v>2786</v>
+        <v>1821</v>
       </c>
       <c r="T370" t="n">
         <v>7</v>
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44334</v>
+        <v>44159</v>
       </c>
       <c r="E371" t="n">
         <v>4</v>
@@ -30040,20 +30040,20 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M371" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N371" t="n">
-        <v>16000</v>
+        <v>10500</v>
       </c>
       <c r="O371" t="n">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="P371" t="n">
-        <v>16500</v>
+        <v>10750</v>
       </c>
       <c r="Q371" t="inlineStr">
         <is>
@@ -30066,7 +30066,7 @@
         </is>
       </c>
       <c r="S371" t="n">
-        <v>2357</v>
+        <v>1536</v>
       </c>
       <c r="T371" t="n">
         <v>7</v>
@@ -30087,7 +30087,7 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44476</v>
+        <v>44166</v>
       </c>
       <c r="E372" t="n">
         <v>4</v>
@@ -30124,16 +30124,16 @@
         </is>
       </c>
       <c r="M372" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N372" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="O372" t="n">
-        <v>19500</v>
+        <v>16000</v>
       </c>
       <c r="P372" t="n">
-        <v>19250</v>
+        <v>15500</v>
       </c>
       <c r="Q372" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         </is>
       </c>
       <c r="S372" t="n">
-        <v>2750</v>
+        <v>2214</v>
       </c>
       <c r="T372" t="n">
         <v>7</v>
@@ -30167,7 +30167,7 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -30200,20 +30200,20 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M373" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N373" t="n">
-        <v>14500</v>
+        <v>19000</v>
       </c>
       <c r="O373" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P373" t="n">
-        <v>14750</v>
+        <v>19500</v>
       </c>
       <c r="Q373" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         </is>
       </c>
       <c r="S373" t="n">
-        <v>2107</v>
+        <v>2786</v>
       </c>
       <c r="T373" t="n">
         <v>7</v>
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44476</v>
+        <v>44334</v>
       </c>
       <c r="E374" t="n">
         <v>4</v>
@@ -30280,20 +30280,20 @@
       </c>
       <c r="L374" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M374" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N374" t="n">
-        <v>12500</v>
+        <v>16000</v>
       </c>
       <c r="O374" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P374" t="n">
-        <v>12750</v>
+        <v>16500</v>
       </c>
       <c r="Q374" t="inlineStr">
         <is>
@@ -30306,7 +30306,7 @@
         </is>
       </c>
       <c r="S374" t="n">
-        <v>1821</v>
+        <v>2357</v>
       </c>
       <c r="T374" t="n">
         <v>7</v>
@@ -30327,7 +30327,7 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E375" t="n">
         <v>4</v>
@@ -30364,16 +30364,16 @@
         </is>
       </c>
       <c r="M375" t="n">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="N375" t="n">
-        <v>24500</v>
+        <v>19000</v>
       </c>
       <c r="O375" t="n">
-        <v>25000</v>
+        <v>19500</v>
       </c>
       <c r="P375" t="n">
-        <v>24750</v>
+        <v>19250</v>
       </c>
       <c r="Q375" t="inlineStr">
         <is>
@@ -30386,7 +30386,7 @@
         </is>
       </c>
       <c r="S375" t="n">
-        <v>3536</v>
+        <v>2750</v>
       </c>
       <c r="T375" t="n">
         <v>7</v>
@@ -30407,7 +30407,7 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E376" t="n">
         <v>4</v>
@@ -30444,16 +30444,16 @@
         </is>
       </c>
       <c r="M376" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N376" t="n">
-        <v>22500</v>
+        <v>14500</v>
       </c>
       <c r="O376" t="n">
-        <v>23000</v>
+        <v>15000</v>
       </c>
       <c r="P376" t="n">
-        <v>22750</v>
+        <v>14750</v>
       </c>
       <c r="Q376" t="inlineStr">
         <is>
@@ -30466,7 +30466,7 @@
         </is>
       </c>
       <c r="S376" t="n">
-        <v>3250</v>
+        <v>2107</v>
       </c>
       <c r="T376" t="n">
         <v>7</v>
@@ -30487,7 +30487,7 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44386</v>
+        <v>44476</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
@@ -30527,13 +30527,13 @@
         <v>240</v>
       </c>
       <c r="N377" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O377" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P377" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q377" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         </is>
       </c>
       <c r="S377" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T377" t="n">
         <v>7</v>
@@ -30567,7 +30567,7 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E378" t="n">
         <v>4</v>
@@ -30604,16 +30604,16 @@
         </is>
       </c>
       <c r="M378" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N378" t="n">
-        <v>15500</v>
+        <v>24500</v>
       </c>
       <c r="O378" t="n">
-        <v>16000</v>
+        <v>25000</v>
       </c>
       <c r="P378" t="n">
-        <v>15750</v>
+        <v>24750</v>
       </c>
       <c r="Q378" t="inlineStr">
         <is>
@@ -30626,7 +30626,7 @@
         </is>
       </c>
       <c r="S378" t="n">
-        <v>2250</v>
+        <v>3536</v>
       </c>
       <c r="T378" t="n">
         <v>7</v>
@@ -30647,7 +30647,7 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -30684,16 +30684,16 @@
         </is>
       </c>
       <c r="M379" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N379" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O379" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P379" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q379" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         </is>
       </c>
       <c r="S379" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T379" t="n">
         <v>7</v>
@@ -30727,7 +30727,7 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E380" t="n">
         <v>4</v>
@@ -30767,13 +30767,13 @@
         <v>240</v>
       </c>
       <c r="N380" t="n">
-        <v>10500</v>
+        <v>16500</v>
       </c>
       <c r="O380" t="n">
-        <v>11000</v>
+        <v>17000</v>
       </c>
       <c r="P380" t="n">
-        <v>10750</v>
+        <v>16750</v>
       </c>
       <c r="Q380" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         </is>
       </c>
       <c r="S380" t="n">
-        <v>1536</v>
+        <v>2393</v>
       </c>
       <c r="T380" t="n">
         <v>7</v>
@@ -30807,7 +30807,7 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E381" t="n">
         <v>4</v>
@@ -30844,16 +30844,16 @@
         </is>
       </c>
       <c r="M381" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N381" t="n">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="O381" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="P381" t="n">
-        <v>14750</v>
+        <v>15750</v>
       </c>
       <c r="Q381" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         </is>
       </c>
       <c r="S381" t="n">
-        <v>2107</v>
+        <v>2250</v>
       </c>
       <c r="T381" t="n">
         <v>7</v>
@@ -30887,7 +30887,7 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -30927,13 +30927,13 @@
         <v>240</v>
       </c>
       <c r="N382" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="O382" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="P382" t="n">
-        <v>12750</v>
+        <v>13750</v>
       </c>
       <c r="Q382" t="inlineStr">
         <is>
@@ -30946,7 +30946,7 @@
         </is>
       </c>
       <c r="S382" t="n">
-        <v>1821</v>
+        <v>1964</v>
       </c>
       <c r="T382" t="n">
         <v>7</v>
@@ -30967,7 +30967,7 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44306</v>
+        <v>44263</v>
       </c>
       <c r="E383" t="n">
         <v>4</v>
@@ -31047,7 +31047,7 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E384" t="n">
         <v>4</v>
@@ -31087,13 +31087,13 @@
         <v>300</v>
       </c>
       <c r="N384" t="n">
-        <v>19500</v>
+        <v>14500</v>
       </c>
       <c r="O384" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P384" t="n">
-        <v>19750</v>
+        <v>14750</v>
       </c>
       <c r="Q384" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         </is>
       </c>
       <c r="S384" t="n">
-        <v>2821</v>
+        <v>2107</v>
       </c>
       <c r="T384" t="n">
         <v>7</v>
@@ -31127,7 +31127,7 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E385" t="n">
         <v>4</v>
@@ -31167,13 +31167,13 @@
         <v>240</v>
       </c>
       <c r="N385" t="n">
-        <v>17500</v>
+        <v>12500</v>
       </c>
       <c r="O385" t="n">
-        <v>18000</v>
+        <v>13000</v>
       </c>
       <c r="P385" t="n">
-        <v>17750</v>
+        <v>12750</v>
       </c>
       <c r="Q385" t="inlineStr">
         <is>
@@ -31186,7 +31186,7 @@
         </is>
       </c>
       <c r="S385" t="n">
-        <v>2536</v>
+        <v>1821</v>
       </c>
       <c r="T385" t="n">
         <v>7</v>
@@ -31207,7 +31207,7 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E386" t="n">
         <v>4</v>
@@ -31244,16 +31244,16 @@
         </is>
       </c>
       <c r="M386" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N386" t="n">
-        <v>13500</v>
+        <v>10500</v>
       </c>
       <c r="O386" t="n">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="P386" t="n">
-        <v>13750</v>
+        <v>10750</v>
       </c>
       <c r="Q386" t="inlineStr">
         <is>
@@ -31266,7 +31266,7 @@
         </is>
       </c>
       <c r="S386" t="n">
-        <v>1964</v>
+        <v>1536</v>
       </c>
       <c r="T386" t="n">
         <v>7</v>
@@ -31287,7 +31287,7 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E387" t="n">
         <v>4</v>
@@ -31327,13 +31327,13 @@
         <v>300</v>
       </c>
       <c r="N387" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="O387" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P387" t="n">
-        <v>17750</v>
+        <v>19750</v>
       </c>
       <c r="Q387" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         </is>
       </c>
       <c r="S387" t="n">
-        <v>2536</v>
+        <v>2821</v>
       </c>
       <c r="T387" t="n">
         <v>7</v>
@@ -31367,7 +31367,7 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E388" t="n">
         <v>4</v>
@@ -31404,16 +31404,16 @@
         </is>
       </c>
       <c r="M388" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N388" t="n">
-        <v>15500</v>
+        <v>17500</v>
       </c>
       <c r="O388" t="n">
-        <v>16000</v>
+        <v>18000</v>
       </c>
       <c r="P388" t="n">
-        <v>15750</v>
+        <v>17750</v>
       </c>
       <c r="Q388" t="inlineStr">
         <is>
@@ -31426,7 +31426,7 @@
         </is>
       </c>
       <c r="S388" t="n">
-        <v>2250</v>
+        <v>2536</v>
       </c>
       <c r="T388" t="n">
         <v>7</v>
@@ -31447,7 +31447,7 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="M389" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N389" t="n">
         <v>13500</v>
@@ -31527,7 +31527,7 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -31564,16 +31564,16 @@
         </is>
       </c>
       <c r="M390" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N390" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O390" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P390" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q390" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         </is>
       </c>
       <c r="S390" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T390" t="n">
         <v>7</v>
@@ -31607,7 +31607,7 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -31647,13 +31647,13 @@
         <v>300</v>
       </c>
       <c r="N391" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O391" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P391" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q391" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         </is>
       </c>
       <c r="S391" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T391" t="n">
         <v>7</v>
@@ -31687,7 +31687,7 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E392" t="n">
         <v>4</v>
@@ -31727,13 +31727,13 @@
         <v>240</v>
       </c>
       <c r="N392" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O392" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P392" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q392" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         </is>
       </c>
       <c r="S392" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T392" t="n">
         <v>7</v>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N393" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O393" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P393" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N394" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O394" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P394" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N395" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O395" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P395" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N396" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O396" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P396" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32124,16 +32124,16 @@
         </is>
       </c>
       <c r="M397" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N397" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P397" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32204,16 +32204,16 @@
         </is>
       </c>
       <c r="M398" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N398" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O398" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P398" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N399" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O399" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P399" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N400" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O400" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N401" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O401" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P401" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N402" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O402" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P402" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N403" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O403" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P403" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N404" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O404" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P404" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32767,13 +32767,13 @@
         <v>240</v>
       </c>
       <c r="N405" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O405" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P405" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N406" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O406" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P406" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N407" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O407" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P407" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33000,20 +33000,20 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M408" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N408" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O408" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P408" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33080,20 +33080,20 @@
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M409" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N409" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O409" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P409" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33160,20 +33160,20 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M410" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N410" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O410" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P410" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33244,16 +33244,16 @@
         </is>
       </c>
       <c r="M411" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N411" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O411" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P411" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N412" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O412" t="n">
         <v>18000</v>
       </c>
-      <c r="O412" t="n">
-        <v>19000</v>
-      </c>
       <c r="P412" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N413" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O413" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P413" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33484,16 +33484,16 @@
         </is>
       </c>
       <c r="M414" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N414" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O414" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P414" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33564,16 +33564,16 @@
         </is>
       </c>
       <c r="M415" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N415" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O415" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P415" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33644,16 +33644,16 @@
         </is>
       </c>
       <c r="M416" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N416" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O416" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P416" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N417" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O417" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P417" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N418" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O418" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P418" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N419" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O419" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P419" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N420" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O420" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P420" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -34047,13 +34047,13 @@
         <v>160</v>
       </c>
       <c r="N421" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O421" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P421" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N422" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O422" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P422" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N423" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O423" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P423" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N424" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O424" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P424" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -34364,7 +34364,7 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N425" t="n">
         <v>15500</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -34444,7 +34444,7 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N426" t="n">
         <v>13500</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N428" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O428" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P428" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N429" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O429" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P429" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -34760,20 +34760,20 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M430" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N430" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O430" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P430" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -34840,20 +34840,20 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M431" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N431" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O431" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P431" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q431" t="inlineStr">
         <is>
@@ -34866,7 +34866,7 @@
         </is>
       </c>
       <c r="S431" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T431" t="n">
         <v>7</v>
@@ -34887,68 +34887,308 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E432" t="n">
+        <v>4</v>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H432" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I432" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M432" t="n">
+        <v>160</v>
+      </c>
+      <c r="N432" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O432" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P432" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q432" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R432" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S432" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T432" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>8</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D433" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E432" t="n">
-        <v>4</v>
-      </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G432" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I432" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J432" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L432" t="inlineStr">
+      <c r="E433" t="n">
+        <v>4</v>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G433" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I433" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M433" t="n">
+        <v>240</v>
+      </c>
+      <c r="N433" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O433" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P433" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q433" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R433" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S433" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T433" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>8</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D434" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E434" t="n">
+        <v>4</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M434" t="n">
+        <v>300</v>
+      </c>
+      <c r="N434" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O434" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P434" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R434" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S434" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T434" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>8</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D435" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E435" t="n">
+        <v>4</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M432" t="n">
+      <c r="M435" t="n">
         <v>300</v>
       </c>
-      <c r="N432" t="n">
+      <c r="N435" t="n">
         <v>10500</v>
       </c>
-      <c r="O432" t="n">
+      <c r="O435" t="n">
         <v>11000</v>
       </c>
-      <c r="P432" t="n">
+      <c r="P435" t="n">
         <v>10750</v>
       </c>
-      <c r="Q432" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R432" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S432" t="n">
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R435" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S435" t="n">
         <v>1536</v>
       </c>
-      <c r="T432" t="n">
+      <c r="T435" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T438"/>
+  <dimension ref="A1:T441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31767,7 +31767,7 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -31804,16 +31804,16 @@
         </is>
       </c>
       <c r="M393" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N393" t="n">
-        <v>17500</v>
+        <v>13500</v>
       </c>
       <c r="O393" t="n">
-        <v>18000</v>
+        <v>14000</v>
       </c>
       <c r="P393" t="n">
-        <v>17750</v>
+        <v>13750</v>
       </c>
       <c r="Q393" t="inlineStr">
         <is>
@@ -31826,7 +31826,7 @@
         </is>
       </c>
       <c r="S393" t="n">
-        <v>2536</v>
+        <v>1964</v>
       </c>
       <c r="T393" t="n">
         <v>7</v>
@@ -31847,7 +31847,7 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -31884,16 +31884,16 @@
         </is>
       </c>
       <c r="M394" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N394" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O394" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P394" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q394" t="inlineStr">
         <is>
@@ -31906,7 +31906,7 @@
         </is>
       </c>
       <c r="S394" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T394" t="n">
         <v>7</v>
@@ -31927,7 +31927,7 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E395" t="n">
         <v>4</v>
@@ -31964,16 +31964,16 @@
         </is>
       </c>
       <c r="M395" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N395" t="n">
-        <v>13500</v>
+        <v>9500</v>
       </c>
       <c r="O395" t="n">
-        <v>14000</v>
+        <v>10000</v>
       </c>
       <c r="P395" t="n">
-        <v>13750</v>
+        <v>9750</v>
       </c>
       <c r="Q395" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         </is>
       </c>
       <c r="S395" t="n">
-        <v>1964</v>
+        <v>1393</v>
       </c>
       <c r="T395" t="n">
         <v>7</v>
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E396" t="n">
         <v>4</v>
@@ -32044,16 +32044,16 @@
         </is>
       </c>
       <c r="M396" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N396" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O396" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P396" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q396" t="inlineStr">
         <is>
@@ -32066,7 +32066,7 @@
         </is>
       </c>
       <c r="S396" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T396" t="n">
         <v>7</v>
@@ -32087,7 +32087,7 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E397" t="n">
         <v>4</v>
@@ -32127,13 +32127,13 @@
         <v>300</v>
       </c>
       <c r="N397" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O397" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P397" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q397" t="inlineStr">
         <is>
@@ -32146,7 +32146,7 @@
         </is>
       </c>
       <c r="S397" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T397" t="n">
         <v>7</v>
@@ -32167,7 +32167,7 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E398" t="n">
         <v>4</v>
@@ -32207,13 +32207,13 @@
         <v>240</v>
       </c>
       <c r="N398" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="O398" t="n">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="P398" t="n">
-        <v>10750</v>
+        <v>13750</v>
       </c>
       <c r="Q398" t="inlineStr">
         <is>
@@ -32226,7 +32226,7 @@
         </is>
       </c>
       <c r="S398" t="n">
-        <v>1536</v>
+        <v>1964</v>
       </c>
       <c r="T398" t="n">
         <v>7</v>
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -32284,16 +32284,16 @@
         </is>
       </c>
       <c r="M399" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N399" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O399" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P399" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q399" t="inlineStr">
         <is>
@@ -32306,7 +32306,7 @@
         </is>
       </c>
       <c r="S399" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T399" t="n">
         <v>7</v>
@@ -32327,7 +32327,7 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E400" t="n">
         <v>4</v>
@@ -32364,16 +32364,16 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N400" t="n">
-        <v>16500</v>
+        <v>12500</v>
       </c>
       <c r="O400" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="P400" t="n">
-        <v>16750</v>
+        <v>12750</v>
       </c>
       <c r="Q400" t="inlineStr">
         <is>
@@ -32386,7 +32386,7 @@
         </is>
       </c>
       <c r="S400" t="n">
-        <v>2393</v>
+        <v>1821</v>
       </c>
       <c r="T400" t="n">
         <v>7</v>
@@ -32407,7 +32407,7 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E401" t="n">
         <v>4</v>
@@ -32444,16 +32444,16 @@
         </is>
       </c>
       <c r="M401" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N401" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O401" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P401" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q401" t="inlineStr">
         <is>
@@ -32466,7 +32466,7 @@
         </is>
       </c>
       <c r="S401" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T401" t="n">
         <v>7</v>
@@ -32487,7 +32487,7 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E402" t="n">
         <v>4</v>
@@ -32524,16 +32524,16 @@
         </is>
       </c>
       <c r="M402" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N402" t="n">
-        <v>14500</v>
+        <v>18500</v>
       </c>
       <c r="O402" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="P402" t="n">
-        <v>14750</v>
+        <v>18750</v>
       </c>
       <c r="Q402" t="inlineStr">
         <is>
@@ -32546,7 +32546,7 @@
         </is>
       </c>
       <c r="S402" t="n">
-        <v>2107</v>
+        <v>2679</v>
       </c>
       <c r="T402" t="n">
         <v>7</v>
@@ -32567,7 +32567,7 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E403" t="n">
         <v>4</v>
@@ -32604,16 +32604,16 @@
         </is>
       </c>
       <c r="M403" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N403" t="n">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="O403" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="P403" t="n">
-        <v>12750</v>
+        <v>16750</v>
       </c>
       <c r="Q403" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         </is>
       </c>
       <c r="S403" t="n">
-        <v>1821</v>
+        <v>2393</v>
       </c>
       <c r="T403" t="n">
         <v>7</v>
@@ -32647,7 +32647,7 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44298</v>
+        <v>44357</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -32684,16 +32684,16 @@
         </is>
       </c>
       <c r="M404" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N404" t="n">
-        <v>10500</v>
+        <v>12500</v>
       </c>
       <c r="O404" t="n">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="P404" t="n">
-        <v>10750</v>
+        <v>12750</v>
       </c>
       <c r="Q404" t="inlineStr">
         <is>
@@ -32706,7 +32706,7 @@
         </is>
       </c>
       <c r="S404" t="n">
-        <v>1536</v>
+        <v>1821</v>
       </c>
       <c r="T404" t="n">
         <v>7</v>
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E405" t="n">
         <v>4</v>
@@ -32764,16 +32764,16 @@
         </is>
       </c>
       <c r="M405" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N405" t="n">
-        <v>26500</v>
+        <v>14500</v>
       </c>
       <c r="O405" t="n">
-        <v>27000</v>
+        <v>15000</v>
       </c>
       <c r="P405" t="n">
-        <v>26750</v>
+        <v>14750</v>
       </c>
       <c r="Q405" t="inlineStr">
         <is>
@@ -32786,7 +32786,7 @@
         </is>
       </c>
       <c r="S405" t="n">
-        <v>3821</v>
+        <v>2107</v>
       </c>
       <c r="T405" t="n">
         <v>7</v>
@@ -32807,7 +32807,7 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E406" t="n">
         <v>4</v>
@@ -32844,16 +32844,16 @@
         </is>
       </c>
       <c r="M406" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N406" t="n">
-        <v>21500</v>
+        <v>12500</v>
       </c>
       <c r="O406" t="n">
-        <v>22000</v>
+        <v>13000</v>
       </c>
       <c r="P406" t="n">
-        <v>21750</v>
+        <v>12750</v>
       </c>
       <c r="Q406" t="inlineStr">
         <is>
@@ -32866,7 +32866,7 @@
         </is>
       </c>
       <c r="S406" t="n">
-        <v>3107</v>
+        <v>1821</v>
       </c>
       <c r="T406" t="n">
         <v>7</v>
@@ -32887,7 +32887,7 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E407" t="n">
         <v>4</v>
@@ -32924,16 +32924,16 @@
         </is>
       </c>
       <c r="M407" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N407" t="n">
-        <v>17500</v>
+        <v>10500</v>
       </c>
       <c r="O407" t="n">
-        <v>18000</v>
+        <v>11000</v>
       </c>
       <c r="P407" t="n">
-        <v>17750</v>
+        <v>10750</v>
       </c>
       <c r="Q407" t="inlineStr">
         <is>
@@ -32946,7 +32946,7 @@
         </is>
       </c>
       <c r="S407" t="n">
-        <v>2536</v>
+        <v>1536</v>
       </c>
       <c r="T407" t="n">
         <v>7</v>
@@ -32967,7 +32967,7 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -33004,16 +33004,16 @@
         </is>
       </c>
       <c r="M408" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N408" t="n">
-        <v>19500</v>
+        <v>26500</v>
       </c>
       <c r="O408" t="n">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="P408" t="n">
-        <v>19750</v>
+        <v>26750</v>
       </c>
       <c r="Q408" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         </is>
       </c>
       <c r="S408" t="n">
-        <v>2821</v>
+        <v>3821</v>
       </c>
       <c r="T408" t="n">
         <v>7</v>
@@ -33047,7 +33047,7 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E409" t="n">
         <v>4</v>
@@ -33084,16 +33084,16 @@
         </is>
       </c>
       <c r="M409" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N409" t="n">
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="O409" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="P409" t="n">
-        <v>16750</v>
+        <v>21750</v>
       </c>
       <c r="Q409" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         </is>
       </c>
       <c r="S409" t="n">
-        <v>2393</v>
+        <v>3107</v>
       </c>
       <c r="T409" t="n">
         <v>7</v>
@@ -33127,7 +33127,7 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E410" t="n">
         <v>4</v>
@@ -33164,16 +33164,16 @@
         </is>
       </c>
       <c r="M410" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N410" t="n">
-        <v>11500</v>
+        <v>17500</v>
       </c>
       <c r="O410" t="n">
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="P410" t="n">
-        <v>11750</v>
+        <v>17750</v>
       </c>
       <c r="Q410" t="inlineStr">
         <is>
@@ -33186,7 +33186,7 @@
         </is>
       </c>
       <c r="S410" t="n">
-        <v>1679</v>
+        <v>2536</v>
       </c>
       <c r="T410" t="n">
         <v>7</v>
@@ -33207,7 +33207,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E411" t="n">
         <v>4</v>
@@ -33247,13 +33247,13 @@
         <v>240</v>
       </c>
       <c r="N411" t="n">
-        <v>24000</v>
+        <v>19500</v>
       </c>
       <c r="O411" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="P411" t="n">
-        <v>24500</v>
+        <v>19750</v>
       </c>
       <c r="Q411" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         </is>
       </c>
       <c r="S411" t="n">
-        <v>3500</v>
+        <v>2821</v>
       </c>
       <c r="T411" t="n">
         <v>7</v>
@@ -33287,7 +33287,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E412" t="n">
         <v>4</v>
@@ -33324,16 +33324,16 @@
         </is>
       </c>
       <c r="M412" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N412" t="n">
-        <v>22000</v>
+        <v>16500</v>
       </c>
       <c r="O412" t="n">
-        <v>23000</v>
+        <v>17000</v>
       </c>
       <c r="P412" t="n">
-        <v>22500</v>
+        <v>16750</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         </is>
       </c>
       <c r="S412" t="n">
-        <v>3214</v>
+        <v>2393</v>
       </c>
       <c r="T412" t="n">
         <v>7</v>
@@ -33367,7 +33367,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E413" t="n">
         <v>4</v>
@@ -33404,16 +33404,16 @@
         </is>
       </c>
       <c r="M413" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N413" t="n">
-        <v>15000</v>
+        <v>11500</v>
       </c>
       <c r="O413" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P413" t="n">
-        <v>15500</v>
+        <v>11750</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         </is>
       </c>
       <c r="S413" t="n">
-        <v>2214</v>
+        <v>1679</v>
       </c>
       <c r="T413" t="n">
         <v>7</v>
@@ -33447,7 +33447,7 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E414" t="n">
         <v>4</v>
@@ -33480,20 +33480,20 @@
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M414" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N414" t="n">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="O414" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="P414" t="n">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -33506,7 +33506,7 @@
         </is>
       </c>
       <c r="S414" t="n">
-        <v>3357</v>
+        <v>3500</v>
       </c>
       <c r="T414" t="n">
         <v>7</v>
@@ -33527,7 +33527,7 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E415" t="n">
         <v>4</v>
@@ -33560,20 +33560,20 @@
       </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M415" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N415" t="n">
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="O415" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P415" t="n">
-        <v>17500</v>
+        <v>22500</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
@@ -33586,7 +33586,7 @@
         </is>
       </c>
       <c r="S415" t="n">
-        <v>2500</v>
+        <v>3214</v>
       </c>
       <c r="T415" t="n">
         <v>7</v>
@@ -33607,7 +33607,7 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="E416" t="n">
         <v>4</v>
@@ -33640,20 +33640,20 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M416" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N416" t="n">
-        <v>22000</v>
+        <v>15000</v>
       </c>
       <c r="O416" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P416" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         </is>
       </c>
       <c r="S416" t="n">
-        <v>3214</v>
+        <v>2214</v>
       </c>
       <c r="T416" t="n">
         <v>7</v>
@@ -33687,7 +33687,7 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E417" t="n">
         <v>4</v>
@@ -33724,16 +33724,16 @@
         </is>
       </c>
       <c r="M417" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N417" t="n">
-        <v>20000</v>
+        <v>23000</v>
       </c>
       <c r="O417" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="P417" t="n">
-        <v>20500</v>
+        <v>23500</v>
       </c>
       <c r="Q417" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         </is>
       </c>
       <c r="S417" t="n">
-        <v>2929</v>
+        <v>3357</v>
       </c>
       <c r="T417" t="n">
         <v>7</v>
@@ -33767,7 +33767,7 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E418" t="n">
         <v>4</v>
@@ -33804,16 +33804,16 @@
         </is>
       </c>
       <c r="M418" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N418" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O418" t="n">
         <v>18000</v>
       </c>
-      <c r="O418" t="n">
-        <v>19000</v>
-      </c>
       <c r="P418" t="n">
-        <v>18500</v>
+        <v>17500</v>
       </c>
       <c r="Q418" t="inlineStr">
         <is>
@@ -33826,7 +33826,7 @@
         </is>
       </c>
       <c r="S418" t="n">
-        <v>2643</v>
+        <v>2500</v>
       </c>
       <c r="T418" t="n">
         <v>7</v>
@@ -33847,7 +33847,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E419" t="n">
         <v>4</v>
@@ -33884,16 +33884,16 @@
         </is>
       </c>
       <c r="M419" t="n">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="N419" t="n">
-        <v>17500</v>
+        <v>22000</v>
       </c>
       <c r="O419" t="n">
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="P419" t="n">
-        <v>17750</v>
+        <v>22500</v>
       </c>
       <c r="Q419" t="inlineStr">
         <is>
@@ -33906,7 +33906,7 @@
         </is>
       </c>
       <c r="S419" t="n">
-        <v>2536</v>
+        <v>3214</v>
       </c>
       <c r="T419" t="n">
         <v>7</v>
@@ -33927,7 +33927,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E420" t="n">
         <v>4</v>
@@ -33964,16 +33964,16 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N420" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O420" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P420" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q420" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         </is>
       </c>
       <c r="S420" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T420" t="n">
         <v>7</v>
@@ -34007,7 +34007,7 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E421" t="n">
         <v>4</v>
@@ -34044,16 +34044,16 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="N421" t="n">
-        <v>11500</v>
+        <v>18000</v>
       </c>
       <c r="O421" t="n">
-        <v>12000</v>
+        <v>19000</v>
       </c>
       <c r="P421" t="n">
-        <v>11750</v>
+        <v>18500</v>
       </c>
       <c r="Q421" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         </is>
       </c>
       <c r="S421" t="n">
-        <v>1679</v>
+        <v>2643</v>
       </c>
       <c r="T421" t="n">
         <v>7</v>
@@ -34087,7 +34087,7 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E422" t="n">
         <v>4</v>
@@ -34124,16 +34124,16 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="N422" t="n">
-        <v>14500</v>
+        <v>17500</v>
       </c>
       <c r="O422" t="n">
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="P422" t="n">
-        <v>14750</v>
+        <v>17750</v>
       </c>
       <c r="Q422" t="inlineStr">
         <is>
@@ -34146,7 +34146,7 @@
         </is>
       </c>
       <c r="S422" t="n">
-        <v>2107</v>
+        <v>2536</v>
       </c>
       <c r="T422" t="n">
         <v>7</v>
@@ -34167,7 +34167,7 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E423" t="n">
         <v>4</v>
@@ -34204,16 +34204,16 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="N423" t="n">
-        <v>12500</v>
+        <v>15500</v>
       </c>
       <c r="O423" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="P423" t="n">
-        <v>12750</v>
+        <v>15750</v>
       </c>
       <c r="Q423" t="inlineStr">
         <is>
@@ -34226,7 +34226,7 @@
         </is>
       </c>
       <c r="S423" t="n">
-        <v>1821</v>
+        <v>2250</v>
       </c>
       <c r="T423" t="n">
         <v>7</v>
@@ -34247,7 +34247,7 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44270</v>
+        <v>44187</v>
       </c>
       <c r="E424" t="n">
         <v>4</v>
@@ -34284,16 +34284,16 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="N424" t="n">
-        <v>9500</v>
+        <v>11500</v>
       </c>
       <c r="O424" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="P424" t="n">
-        <v>9750</v>
+        <v>11750</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         </is>
       </c>
       <c r="S424" t="n">
-        <v>1393</v>
+        <v>1679</v>
       </c>
       <c r="T424" t="n">
         <v>7</v>
@@ -34327,7 +34327,7 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E425" t="n">
         <v>4</v>
@@ -34364,16 +34364,16 @@
         </is>
       </c>
       <c r="M425" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N425" t="n">
-        <v>30000</v>
+        <v>14500</v>
       </c>
       <c r="O425" t="n">
-        <v>31000</v>
+        <v>15000</v>
       </c>
       <c r="P425" t="n">
-        <v>30500</v>
+        <v>14750</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -34386,7 +34386,7 @@
         </is>
       </c>
       <c r="S425" t="n">
-        <v>4357</v>
+        <v>2107</v>
       </c>
       <c r="T425" t="n">
         <v>7</v>
@@ -34407,7 +34407,7 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E426" t="n">
         <v>4</v>
@@ -34444,16 +34444,16 @@
         </is>
       </c>
       <c r="M426" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="N426" t="n">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="O426" t="n">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="P426" t="n">
-        <v>25500</v>
+        <v>12750</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         </is>
       </c>
       <c r="S426" t="n">
-        <v>3643</v>
+        <v>1821</v>
       </c>
       <c r="T426" t="n">
         <v>7</v>
@@ -34487,7 +34487,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E427" t="n">
         <v>4</v>
@@ -34527,13 +34527,13 @@
         <v>160</v>
       </c>
       <c r="N427" t="n">
-        <v>20000</v>
+        <v>9500</v>
       </c>
       <c r="O427" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P427" t="n">
-        <v>20500</v>
+        <v>9750</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         </is>
       </c>
       <c r="S427" t="n">
-        <v>2929</v>
+        <v>1393</v>
       </c>
       <c r="T427" t="n">
         <v>7</v>
@@ -34567,7 +34567,7 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E428" t="n">
         <v>4</v>
@@ -34604,16 +34604,16 @@
         </is>
       </c>
       <c r="M428" t="n">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="N428" t="n">
-        <v>15500</v>
+        <v>30000</v>
       </c>
       <c r="O428" t="n">
-        <v>16000</v>
+        <v>31000</v>
       </c>
       <c r="P428" t="n">
-        <v>15750</v>
+        <v>30500</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
@@ -34626,7 +34626,7 @@
         </is>
       </c>
       <c r="S428" t="n">
-        <v>2250</v>
+        <v>4357</v>
       </c>
       <c r="T428" t="n">
         <v>7</v>
@@ -34647,7 +34647,7 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E429" t="n">
         <v>4</v>
@@ -34684,16 +34684,16 @@
         </is>
       </c>
       <c r="M429" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N429" t="n">
-        <v>13500</v>
+        <v>25000</v>
       </c>
       <c r="O429" t="n">
-        <v>14000</v>
+        <v>26000</v>
       </c>
       <c r="P429" t="n">
-        <v>13750</v>
+        <v>25500</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
@@ -34706,7 +34706,7 @@
         </is>
       </c>
       <c r="S429" t="n">
-        <v>1964</v>
+        <v>3643</v>
       </c>
       <c r="T429" t="n">
         <v>7</v>
@@ -34727,7 +34727,7 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E430" t="n">
         <v>4</v>
@@ -34764,16 +34764,16 @@
         </is>
       </c>
       <c r="M430" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N430" t="n">
-        <v>11500</v>
+        <v>20000</v>
       </c>
       <c r="O430" t="n">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="P430" t="n">
-        <v>11750</v>
+        <v>20500</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
@@ -34786,7 +34786,7 @@
         </is>
       </c>
       <c r="S430" t="n">
-        <v>1679</v>
+        <v>2929</v>
       </c>
       <c r="T430" t="n">
         <v>7</v>
@@ -34807,7 +34807,7 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E431" t="n">
         <v>4</v>
@@ -34844,7 +34844,7 @@
         </is>
       </c>
       <c r="M431" t="n">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="N431" t="n">
         <v>15500</v>
@@ -34887,7 +34887,7 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E432" t="n">
         <v>4</v>
@@ -34924,7 +34924,7 @@
         </is>
       </c>
       <c r="M432" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N432" t="n">
         <v>13500</v>
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44193</v>
+        <v>44201</v>
       </c>
       <c r="E433" t="n">
         <v>4</v>
@@ -35047,7 +35047,7 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E434" t="n">
         <v>4</v>
@@ -35084,16 +35084,16 @@
         </is>
       </c>
       <c r="M434" t="n">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="N434" t="n">
-        <v>22500</v>
+        <v>15500</v>
       </c>
       <c r="O434" t="n">
-        <v>23000</v>
+        <v>16000</v>
       </c>
       <c r="P434" t="n">
-        <v>22750</v>
+        <v>15750</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
@@ -35106,7 +35106,7 @@
         </is>
       </c>
       <c r="S434" t="n">
-        <v>3250</v>
+        <v>2250</v>
       </c>
       <c r="T434" t="n">
         <v>7</v>
@@ -35127,7 +35127,7 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E435" t="n">
         <v>4</v>
@@ -35164,16 +35164,16 @@
         </is>
       </c>
       <c r="M435" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="N435" t="n">
-        <v>20500</v>
+        <v>13500</v>
       </c>
       <c r="O435" t="n">
-        <v>21000</v>
+        <v>14000</v>
       </c>
       <c r="P435" t="n">
-        <v>20750</v>
+        <v>13750</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
@@ -35186,7 +35186,7 @@
         </is>
       </c>
       <c r="S435" t="n">
-        <v>2964</v>
+        <v>1964</v>
       </c>
       <c r="T435" t="n">
         <v>7</v>
@@ -35207,7 +35207,7 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44312</v>
+        <v>44193</v>
       </c>
       <c r="E436" t="n">
         <v>4</v>
@@ -35240,20 +35240,20 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M436" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N436" t="n">
-        <v>15500</v>
+        <v>11500</v>
       </c>
       <c r="O436" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="P436" t="n">
-        <v>15750</v>
+        <v>11750</v>
       </c>
       <c r="Q436" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         </is>
       </c>
       <c r="S436" t="n">
-        <v>2250</v>
+        <v>1679</v>
       </c>
       <c r="T436" t="n">
         <v>7</v>
@@ -35287,7 +35287,7 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E437" t="n">
         <v>4</v>
@@ -35320,20 +35320,20 @@
       </c>
       <c r="L437" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M437" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N437" t="n">
-        <v>13500</v>
+        <v>22500</v>
       </c>
       <c r="O437" t="n">
-        <v>14000</v>
+        <v>23000</v>
       </c>
       <c r="P437" t="n">
-        <v>13750</v>
+        <v>22750</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         </is>
       </c>
       <c r="S437" t="n">
-        <v>1964</v>
+        <v>3250</v>
       </c>
       <c r="T437" t="n">
         <v>7</v>
@@ -35367,68 +35367,308 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
+        <v>44389</v>
+      </c>
+      <c r="E438" t="n">
+        <v>4</v>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G438" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J438" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M438" t="n">
+        <v>160</v>
+      </c>
+      <c r="N438" t="n">
+        <v>20500</v>
+      </c>
+      <c r="O438" t="n">
+        <v>21000</v>
+      </c>
+      <c r="P438" t="n">
+        <v>20750</v>
+      </c>
+      <c r="Q438" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R438" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S438" t="n">
+        <v>2964</v>
+      </c>
+      <c r="T438" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>8</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="n">
         <v>44312</v>
       </c>
-      <c r="E438" t="n">
-        <v>4</v>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>Fruta</t>
-        </is>
-      </c>
-      <c r="G438" t="n">
-        <v>100101</v>
-      </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>Berries</t>
-        </is>
-      </c>
-      <c r="I438" t="n">
-        <v>100112025</v>
-      </c>
-      <c r="J438" t="inlineStr">
-        <is>
-          <t>Frutilla</t>
-        </is>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="L438" t="inlineStr">
+      <c r="E439" t="n">
+        <v>4</v>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G439" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H439" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I439" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J439" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>Especial</t>
+        </is>
+      </c>
+      <c r="M439" t="n">
+        <v>240</v>
+      </c>
+      <c r="N439" t="n">
+        <v>15500</v>
+      </c>
+      <c r="O439" t="n">
+        <v>16000</v>
+      </c>
+      <c r="P439" t="n">
+        <v>15750</v>
+      </c>
+      <c r="Q439" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R439" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S439" t="n">
+        <v>2250</v>
+      </c>
+      <c r="T439" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>8</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D440" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E440" t="n">
+        <v>4</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G440" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H440" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I440" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J440" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M440" t="n">
+        <v>300</v>
+      </c>
+      <c r="N440" t="n">
+        <v>13500</v>
+      </c>
+      <c r="O440" t="n">
+        <v>14000</v>
+      </c>
+      <c r="P440" t="n">
+        <v>13750</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R440" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S440" t="n">
+        <v>1964</v>
+      </c>
+      <c r="T440" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>8</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Terminal La Palmera de La Serena</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="D441" s="2" t="n">
+        <v>44312</v>
+      </c>
+      <c r="E441" t="n">
+        <v>4</v>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G441" t="n">
+        <v>100101</v>
+      </c>
+      <c r="H441" t="inlineStr">
+        <is>
+          <t>Berries</t>
+        </is>
+      </c>
+      <c r="I441" t="n">
+        <v>100112025</v>
+      </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>Frutilla</t>
+        </is>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M438" t="n">
+      <c r="M441" t="n">
         <v>300</v>
       </c>
-      <c r="N438" t="n">
+      <c r="N441" t="n">
         <v>10500</v>
       </c>
-      <c r="O438" t="n">
+      <c r="O441" t="n">
         <v>11000</v>
       </c>
-      <c r="P438" t="n">
+      <c r="P441" t="n">
         <v>10750</v>
       </c>
-      <c r="Q438" t="inlineStr">
-        <is>
-          <t>$/bandeja 7 kilos</t>
-        </is>
-      </c>
-      <c r="R438" t="inlineStr">
-        <is>
-          <t>Provincia de Melipilla</t>
-        </is>
-      </c>
-      <c r="S438" t="n">
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>$/bandeja 7 kilos</t>
+        </is>
+      </c>
+      <c r="R441" t="inlineStr">
+        <is>
+          <t>Provincia de Melipilla</t>
+        </is>
+      </c>
+      <c r="S441" t="n">
         <v>1536</v>
       </c>
-      <c r="T438" t="n">
+      <c r="T441" t="n">
         <v>7</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Terminal La Palmera de La Serena - Frutilla.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T441"/>
+  <dimension ref="A1:T444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17687,7 +17687,7 @@
         </is>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44428</v>
+        <v>44494</v>
       </c>
       <c r="E217" t="n">
         <v>4</v>
@@ -17724,16 +17724,16 @@
         </is>
       </c>
       <c r="M217" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N217" t="n">
-        <v>30000</v>
+        <v>12500</v>
       </c>
       <c r="O217" t="n">
-        <v>31000</v>
+        <v>13000</v>
       </c>
       <c r="P217" t="n">
-        <v>30500</v>
+        <v>12750</v>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="S217" t="n">
-        <v>4357</v>
+        <v>1821</v>
       </c>
       <c r="T217" t="n">
         <v>7</v>
@@ -17767,7 +17767,7 @@
         </is>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44428</v>
+        <v>44494</v>
       </c>
       <c r="E218" t="n">
         <v>4</v>
@@ -17804,16 +17804,16 @@
         </is>
       </c>
       <c r="M218" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N218" t="n">
-        <v>25000</v>
+        <v>10500</v>
       </c>
       <c r="O218" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P218" t="n">
-        <v>25500</v>
+        <v>10750</v>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
         </is>
       </c>
       <c r="S218" t="n">
-        <v>3643</v>
+        <v>1536</v>
       </c>
       <c r="T218" t="n">
         <v>7</v>
@@ -17847,7 +17847,7 @@
         </is>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44428</v>
+        <v>44494</v>
       </c>
       <c r="E219" t="n">
         <v>4</v>
@@ -17884,16 +17884,16 @@
         </is>
       </c>
       <c r="M219" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="N219" t="n">
-        <v>20000</v>
+        <v>8500</v>
       </c>
       <c r="O219" t="n">
-        <v>21000</v>
+        <v>9000</v>
       </c>
       <c r="P219" t="n">
-        <v>20500</v>
+        <v>8750</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         </is>
       </c>
       <c r="S219" t="n">
-        <v>2929</v>
+        <v>1250</v>
       </c>
       <c r="T219" t="n">
         <v>7</v>
@@ -17927,7 +17927,7 @@
         </is>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
@@ -17960,20 +17960,20 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M220" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N220" t="n">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="O220" t="n">
-        <v>14500</v>
+        <v>31000</v>
       </c>
       <c r="P220" t="n">
-        <v>14250</v>
+        <v>30500</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         </is>
       </c>
       <c r="S220" t="n">
-        <v>2036</v>
+        <v>4357</v>
       </c>
       <c r="T220" t="n">
         <v>7</v>
@@ -18007,7 +18007,7 @@
         </is>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44224</v>
+        <v>44428</v>
       </c>
       <c r="E221" t="n">
         <v>4</v>
@@ -18040,20 +18040,20 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N221" t="n">
-        <v>11000</v>
+        <v>25000</v>
       </c>
       <c r="O221" t="n">
-        <v>11500</v>
+        <v>26000</v>
       </c>
       <c r="P221" t="n">
-        <v>11250</v>
+        <v>25500</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
@@ -18066,7 +18066,7 @@
         </is>
       </c>
       <c r="S221" t="n">
-        <v>1607</v>
+        <v>3643</v>
       </c>
       <c r="T221" t="n">
         <v>7</v>
@@ -18087,7 +18087,7 @@
         </is>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44264</v>
+        <v>44428</v>
       </c>
       <c r="E222" t="n">
         <v>4</v>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M222" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N222" t="n">
-        <v>15500</v>
+        <v>20000</v>
       </c>
       <c r="O222" t="n">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="P222" t="n">
-        <v>15750</v>
+        <v>20500</v>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="S222" t="n">
-        <v>2250</v>
+        <v>2929</v>
       </c>
       <c r="T222" t="n">
         <v>7</v>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -18204,16 +18204,16 @@
         </is>
       </c>
       <c r="M223" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="N223" t="n">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="O223" t="n">
-        <v>14000</v>
+        <v>14500</v>
       </c>
       <c r="P223" t="n">
-        <v>13750</v>
+        <v>14250</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="S223" t="n">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="T223" t="n">
         <v>7</v>
@@ -18247,7 +18247,7 @@
         </is>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44264</v>
+        <v>44224</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -18284,16 +18284,16 @@
         </is>
       </c>
       <c r="M224" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N224" t="n">
-        <v>10500</v>
+        <v>11000</v>
       </c>
       <c r="O224" t="n">
-        <v>11000</v>
+        <v>11500</v>
       </c>
       <c r="P224" t="n">
-        <v>10750</v>
+        <v>11250</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         </is>
       </c>
       <c r="S224" t="n">
-        <v>1536</v>
+        <v>1607</v>
       </c>
       <c r="T224" t="n">
         <v>7</v>
@@ -18327,7 +18327,7 @@
         </is>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E225" t="n">
         <v>4</v>
@@ -18364,16 +18364,16 @@
         </is>
       </c>
       <c r="M225" t="n">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="N225" t="n">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="O225" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="P225" t="n">
-        <v>16750</v>
+        <v>15750</v>
       </c>
       <c r="Q225" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         </is>
       </c>
       <c r="S225" t="n">
-        <v>2393</v>
+        <v>2250</v>
       </c>
       <c r="T225" t="n">
         <v>7</v>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E226" t="n">
         <v>4</v>
@@ -18444,16 +18444,16 @@
         </is>
       </c>
       <c r="M226" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="N226" t="n">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="O226" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="P226" t="n">
-        <v>14750</v>
+        <v>13750</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         </is>
       </c>
       <c r="S226" t="n">
-        <v>2107</v>
+        <v>1964</v>
       </c>
       <c r="T226" t="n">
         <v>7</v>
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44315</v>
+        <v>44264</v>
       </c>
       <c r="E227" t="n">
         <v>4</v>
@@ -18524,16 +18524,16 @@
         </is>
       </c>
       <c r="M227" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N227" t="n">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="O227" t="n">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="P227" t="n">
-        <v>11750</v>
+        <v>10750</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="S227" t="n">
-        <v>1679</v>
+        <v>1536</v>
       </c>
       <c r="T227" t="n">
         <v>7</v>
@@ -18567,7 +18567,7 @@
         </is>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E228" t="n">
         <v>4</v>
@@ -18604,16 +18604,16 @@
         </is>
       </c>
       <c r="M228" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N228" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O228" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P228" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         </is>
       </c>
       <c r="S228" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T228" t="n">
         <v>7</v>
@@ -18647,7 +18647,7 @@
         </is>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E229" t="n">
         <v>4</v>
@@ -18684,16 +18684,16 @@
         </is>
       </c>
       <c r="M229" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N229" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O229" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P229" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
@@ -18706,7 +18706,7 @@
         </is>
       </c>
       <c r="S229" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T229" t="n">
         <v>7</v>
@@ -18727,7 +18727,7 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44293</v>
+        <v>44315</v>
       </c>
       <c r="E230" t="n">
         <v>4</v>
@@ -18764,16 +18764,16 @@
         </is>
       </c>
       <c r="M230" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N230" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O230" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P230" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -18786,7 +18786,7 @@
         </is>
       </c>
       <c r="S230" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T230" t="n">
         <v>7</v>
@@ -18807,7 +18807,7 @@
         </is>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E231" t="n">
         <v>4</v>
@@ -18844,16 +18844,16 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N231" t="n">
-        <v>18500</v>
+        <v>14500</v>
       </c>
       <c r="O231" t="n">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="P231" t="n">
-        <v>18750</v>
+        <v>14750</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
@@ -18866,7 +18866,7 @@
         </is>
       </c>
       <c r="S231" t="n">
-        <v>2679</v>
+        <v>2107</v>
       </c>
       <c r="T231" t="n">
         <v>7</v>
@@ -18887,7 +18887,7 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E232" t="n">
         <v>4</v>
@@ -18924,16 +18924,16 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N232" t="n">
-        <v>15500</v>
+        <v>12500</v>
       </c>
       <c r="O232" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="P232" t="n">
-        <v>15750</v>
+        <v>12750</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="S232" t="n">
-        <v>2250</v>
+        <v>1821</v>
       </c>
       <c r="T232" t="n">
         <v>7</v>
@@ -18967,7 +18967,7 @@
         </is>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44343</v>
+        <v>44293</v>
       </c>
       <c r="E233" t="n">
         <v>4</v>
@@ -19007,13 +19007,13 @@
         <v>200</v>
       </c>
       <c r="N233" t="n">
-        <v>12500</v>
+        <v>10500</v>
       </c>
       <c r="O233" t="n">
-        <v>13000</v>
+        <v>11000</v>
       </c>
       <c r="P233" t="n">
-        <v>12750</v>
+        <v>10750</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
@@ -19026,7 +19026,7 @@
         </is>
       </c>
       <c r="S233" t="n">
-        <v>1821</v>
+        <v>1536</v>
       </c>
       <c r="T233" t="n">
         <v>7</v>
@@ -19047,7 +19047,7 @@
         </is>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E234" t="n">
         <v>4</v>
@@ -19084,16 +19084,16 @@
         </is>
       </c>
       <c r="M234" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="N234" t="n">
-        <v>15500</v>
+        <v>18500</v>
       </c>
       <c r="O234" t="n">
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="P234" t="n">
-        <v>15750</v>
+        <v>18750</v>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         </is>
       </c>
       <c r="S234" t="n">
-        <v>2250</v>
+        <v>2679</v>
       </c>
       <c r="T234" t="n">
         <v>7</v>
@@ -19127,7 +19127,7 @@
         </is>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E235" t="n">
         <v>4</v>
@@ -19167,13 +19167,13 @@
         <v>300</v>
       </c>
       <c r="N235" t="n">
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="O235" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="P235" t="n">
-        <v>13750</v>
+        <v>15750</v>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
@@ -19186,7 +19186,7 @@
         </is>
       </c>
       <c r="S235" t="n">
-        <v>1964</v>
+        <v>2250</v>
       </c>
       <c r="T235" t="n">
         <v>7</v>
@@ -19207,7 +19207,7 @@
         </is>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44195</v>
+        <v>44343</v>
       </c>
       <c r="E236" t="n">
         <v>4</v>
@@ -19244,16 +19244,16 @@
         </is>
       </c>
       <c r="M236" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="N236" t="n">
-        <v>11500</v>
+        <v>12500</v>
       </c>
       <c r="O236" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="P236" t="n">
-        <v>11750</v>
+        <v>12750</v>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
@@ -19266,7 +19266,7 @@
         </is>
       </c>
       <c r="S236" t="n">
-        <v>1679</v>
+        <v>1821</v>
       </c>
       <c r="T236" t="n">
         <v>7</v>
@@ -19287,7 +19287,7 @@
         </is>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E237" t="n">
         <v>4</v>
@@ -19324,16 +19324,16 @@
         </is>
       </c>
       <c r="M237" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N237" t="n">
-        <v>14000</v>
+        <v>15500</v>
       </c>
       <c r="O237" t="n">
-        <v>14500</v>
+        <v>16000</v>
       </c>
       <c r="P237" t="n">
-        <v>14250</v>
+        <v>15750</v>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="S237" t="n">
-        <v>2036</v>
+        <v>2250</v>
       </c>
       <c r="T237" t="n">
         <v>7</v>
@@ -19367,7 +19367,7 @@
         </is>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E238" t="n">
         <v>4</v>
@@ -19404,16 +19404,16 @@
         </is>
       </c>
       <c r="M238" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N238" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="O238" t="n">
-        <v>12500</v>
+        <v>14000</v>
       </c>
       <c r="P238" t="n">
-        <v>12250</v>
+        <v>13750</v>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         </is>
       </c>
       <c r="S238" t="n">
-        <v>1750</v>
+        <v>1964</v>
       </c>
       <c r="T238" t="n">
         <v>7</v>
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44484</v>
+        <v>44195</v>
       </c>
       <c r="E239" t="n">
         <v>4</v>
@@ -19484,16 +19484,16 @@
         </is>
       </c>
       <c r="M239" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="N239" t="n">
-        <v>9000</v>
+        <v>11500</v>
       </c>
       <c r="O239" t="n">
-        <v>9500</v>
+        <v>12000</v>
       </c>
       <c r="P239" t="n">
-        <v>9250</v>
+        <v>11750</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         </is>
       </c>
       <c r="S239" t="n">
-        <v>1321</v>
+        <v>1679</v>
       </c>
       <c r="T239" t="n">
         <v>7</v>
@@ -19527,7 +19527,7 @@
         </is>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E240" t="n">
         <v>4</v>
@@ -19564,16 +19564,16 @@
         </is>
       </c>
       <c r="M240" t="n">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="N240" t="n">
-        <v>28500</v>
+        <v>14000</v>
       </c>
       <c r="O240" t="n">
-        <v>29000</v>
+        <v>14500</v>
       </c>
       <c r="P240" t="n">
-        <v>28750</v>
+        <v>14250</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
@@ -19586,7 +19586,7 @@
         </is>
       </c>
       <c r="S240" t="n">
-        <v>4107</v>
+        <v>2036</v>
       </c>
       <c r="T240" t="n">
         <v>7</v>
@@ -19607,7 +19607,7 @@
         </is>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E241" t="n">
         <v>4</v>
@@ -19644,16 +19644,16 @@
         </is>
       </c>
       <c r="M241" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="N241" t="n">
-        <v>23500</v>
+        <v>12000</v>
       </c>
       <c r="O241" t="n">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="P241" t="n">
-        <v>23750</v>
+        <v>12250</v>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="S241" t="n">
-        <v>3393</v>
+        <v>1750</v>
       </c>
       <c r="T241" t="n">
         <v>7</v>
@@ -19687,7 +19687,7 @@
         </is>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44421</v>
+        <v>44484</v>
       </c>
       <c r="E242" t="n">
         <v>4</v>
@@ -19724,16 +19724,16 @@
         </is>
       </c>
       <c r="M242" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N242" t="n">
-        <v>17500</v>
+        <v>9000</v>
       </c>
       <c r="O242" t="n">
-        <v>18000</v>
+        <v>9500</v>
       </c>
       <c r="P242" t="n">
-        <v>17750</v>
+        <v>9250</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="S242" t="n">
-        <v>2536</v>
+        <v>1321</v>
       </c>
       <c r="T242" t="n">
         <v>7</v>
@@ -19767,7 +19767,7 @@
         </is>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E243" t="n">
         <v>4</v>
@@ -19804,16 +19804,16 @@
         </is>
       </c>
       <c r="M243" t="n">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="N243" t="n">
-        <v>14500</v>
+        <v>28500</v>
       </c>
       <c r="O243" t="n">
-        <v>15000</v>
+        <v>29000</v>
       </c>
       <c r="P243" t="n">
-        <v>14750</v>
+        <v>28750</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         </is>
       </c>
       <c r="S243" t="n">
-        <v>2107</v>
+        <v>4107</v>
       </c>
       <c r="T243" t="n">
         <v>7</v>
@@ -19847,7 +19847,7 @@
         </is>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E244" t="n">
         <v>4</v>
@@ -19884,16 +19884,16 @@
         </is>
       </c>
       <c r="M244" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N244" t="n">
-        <v>12500</v>
+        <v>23500</v>
       </c>
       <c r="O244" t="n">
-        <v>13000</v>
+        <v>24000</v>
       </c>
       <c r="P244" t="n">
-        <v>12750</v>
+        <v>23750</v>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         </is>
       </c>
       <c r="S244" t="n">
-        <v>1821</v>
+        <v>3393</v>
       </c>
       <c r="T244" t="n">
         <v>7</v>
@@ -19927,7 +19927,7 @@
         </is>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44294</v>
+        <v>44421</v>
       </c>
       <c r="E245" t="n">
         <v>4</v>
@@ -19967,13 +19967,13 @@
         <v>240</v>
       </c>
       <c r="N245" t="n">
-        <v>10500</v>
+        <v>17500</v>
       </c>
       <c r="O245" t="n">
-        <v>11000</v>
+        <v>18000</v>
       </c>
       <c r="P245" t="n">
-        <v>10750</v>
+        <v>17750</v>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="S245" t="n">
-        <v>1536</v>
+        <v>2536</v>
       </c>
       <c r="T245" t="n">
         <v>7</v>
@@ -20007,7 +20007,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E246" t="n">
         <v>4</v>
@@ -20044,16 +20044,16 @@
         </is>
       </c>
       <c r="M246" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N246" t="n">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="O246" t="n">
-        <v>16500</v>
+        <v>15000</v>
       </c>
       <c r="P246" t="n">
-        <v>16250</v>
+        <v>14750</v>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         </is>
       </c>
       <c r="S246" t="n">
-        <v>2321</v>
+        <v>2107</v>
       </c>
       <c r="T246" t="n">
         <v>7</v>
@@ -20087,7 +20087,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E247" t="n">
         <v>4</v>
@@ -20124,16 +20124,16 @@
         </is>
       </c>
       <c r="M247" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N247" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="O247" t="n">
-        <v>14500</v>
+        <v>13000</v>
       </c>
       <c r="P247" t="n">
-        <v>14250</v>
+        <v>12750</v>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="S247" t="n">
-        <v>2036</v>
+        <v>1821</v>
       </c>
       <c r="T247" t="n">
         <v>7</v>
@@ -20167,7 +20167,7 @@
         </is>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44232</v>
+        <v>44294</v>
       </c>
       <c r="E248" t="n">
         <v>4</v>
@@ -20207,13 +20207,13 @@
         <v>240</v>
       </c>
       <c r="N248" t="n">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="O248" t="n">
-        <v>12500</v>
+        <v>11000</v>
       </c>
       <c r="P248" t="n">
-        <v>12250</v>
+        <v>10750</v>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         </is>
       </c>
       <c r="S248" t="n">
-        <v>1750</v>
+        <v>1536</v>
       </c>
       <c r="T248" t="n">
         <v>7</v>
@@ -20247,7 +20247,7 @@
         </is>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E249" t="n">
         <v>4</v>
@@ -20284,16 +20284,16 @@
         </is>
       </c>
       <c r="M249" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N249" t="n">
+        <v>16000</v>
+      </c>
+      <c r="O249" t="n">
         <v>16500</v>
       </c>
-      <c r="O249" t="n">
-        <v>17000</v>
-      </c>
       <c r="P249" t="n">
-        <v>16750</v>
+        <v>16250</v>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="S249" t="n">
-        <v>2393</v>
+        <v>2321</v>
       </c>
       <c r="T249" t="n">
         <v>7</v>
@@ -20327,7 +20327,7 @@
         </is>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E250" t="n">
         <v>4</v>
@@ -20364,16 +20364,16 @@
         </is>
       </c>
       <c r="M250" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N250" t="n">
+        <v>14000</v>
+      </c>
+      <c r="O250" t="n">
         <v>14500</v>
       </c>
-      <c r="O250" t="n">
-        <v>15000</v>
-      </c>
       <c r="P250" t="n">
-        <v>14750</v>
+        <v>14250</v>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
@@ -20386,7 +20386,7 @@
         </is>
       </c>
       <c r="S250" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="T250" t="n">
         <v>7</v>
@@ -20407,7 +20407,7 @@
         </is>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44316</v>
+        <v>44232</v>
       </c>
       <c r="E251" t="n">
         <v>4</v>
@@ -20444,16 +20444,16 @@
         </is>
       </c>
       <c r="M251" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="N251" t="n">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="O251" t="n">
-        <v>12000</v>
+        <v>12500</v>
       </c>
       <c r="P251" t="n">
-        <v>11750</v>
+        <v>12250</v>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         </is>
       </c>
       <c r="S251" t="n">
-        <v>1679</v>
+        <v>1750</v>
       </c>
       <c r="T251" t="n">
         <v>7</v>
@@ -20487,7 +20487,7 @@
         </is>
       </c>
       <c r="D252" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E252" t="n">
         <v>4</v>
@@ -20524,16 +20524,16 @@
         </is>
       </c>
       <c r="M252" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N252" t="n">
-        <v>14500</v>
+        <v>16500</v>
       </c>
       <c r="O252" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="P252" t="n">
-        <v>14750</v>
+        <v>16750</v>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="S252" t="n">
-        <v>2107</v>
+        <v>2393</v>
       </c>
       <c r="T252" t="n">
         <v>7</v>
@@ -20567,7 +20567,7 @@
         </is>
       </c>
       <c r="D253" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E253" t="n">
         <v>4</v>
@@ -20604,16 +20604,16 @@
         </is>
       </c>
       <c r="M253" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N253" t="n">
-        <v>12500</v>
+        <v>14500</v>
       </c>
       <c r="O253" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P253" t="n">
-        <v>12750</v>
+        <v>14750</v>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
@@ -20626,7 +20626,7 @@
         </is>
       </c>
       <c r="S253" t="n">
-        <v>1821</v>
+        <v>2107</v>
       </c>
       <c r="T253" t="n">
         <v>7</v>
@@ -20647,7 +20647,7 @@
         </is>
       </c>
       <c r="D254" s="2" t="n">
-        <v>44169</v>
+        <v>44316</v>
       </c>
       <c r="E254" t="n">
         <v>4</v>
@@ -20687,13 +20687,13 @@
         <v>200</v>
       </c>
       <c r="N254" t="n">
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="O254" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="P254" t="n">
-        <v>10750</v>
+        <v>11750</v>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         </is>
       </c>
       <c r="S254" t="n">
-        <v>1536</v>
+        <v>1679</v>
       </c>
       <c r="T254" t="n">
         <v>7</v>
@@ -20727,7 +20727,7 @@
         </is>
       </c>
       <c r="D255" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E255" t="n">
         <v>4</v>
@@ -20764,16 +20764,16 @@
         </is>
       </c>
       <c r="M255" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N255" t="n">
-        <v>25500</v>
+        <v>14500</v>
       </c>
       <c r="O255" t="n">
-        <v>26000</v>
+        <v>15000</v>
       </c>
       <c r="P255" t="n">
-        <v>25750</v>
+        <v>14750</v>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         </is>
       </c>
       <c r="S255" t="n">
-        <v>3679</v>
+        <v>2107</v>
       </c>
       <c r="T255" t="n">
         <v>7</v>
@@ -20807,7 +20807,7 @@
         </is>
       </c>
       <c r="D256" s="2" t="n">
-        <v>44410</v>
+        <v>44169</v>
       </c>
       <c r="E256" t="n">
         <v>4</v>
@@ -20844,16 +20844,16 @@
         </is>
       </c>
       <c r="M256" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="N256" t="n">
-        <v>20500</v>
+        <v>12500</v>
       </c>
       <c r="O256" t="n">
-        <v>21000</v>
+        <v>13000</v>
       </c>
       <c r="P256" t="n">
-        <v>20750</v>
+        <v>12750</v>
       </c>
       <c r="Q256" t="inlineStr">
         <is>
@@ -20866,7 +20866,7 @@
         </is>
       </c>
       <c r="S256" t="n">
-        <v>2964</v>
+        <v>1821</v>
       </c>
       <c r="T256" t="n">
         <v>7</v>
@@ -20887,7 +20887,7 @@
         </is>
       </c>
       <c r="D257" s="2" t="n">
-        <v>44427</v>
+        <v>44169</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -20920,20 +20920,20 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M257" t="n">
         <v>200</v>
       </c>
       <c r="N257" t="n">
-        <v>25500</v>
+        <v>10500</v>
       </c>
       <c r="O257" t="n">
-        <v>26000</v>
+        <v>11000</v>
       </c>
       <c r="P257" t="n">
-        <v>25750</v>
+        <v>10750</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="S257" t="n">
-        <v>3679</v>
+        <v>1536</v>
       </c>
       <c r="T257" t="n">
         <v>7</v>
@@ -20967,7 +20967,7 @@
         </is>
       </c>
       <c r="D258" s="2" t="n">
-        <v>44427</v>
+        <v>44410</v>
       </c>
       <c r="E258" t="n">
         <v>4</v>
@@ -21000,20 +21000,20 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M258" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N258" t="n">
-        <v>19500</v>
+        <v>25500</v>
       </c>
       <c r="O258" t="n">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="P258" t="n">
-        <v>19750</v>
+        <v>25750</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         </is>
       </c>
       <c r="S258" t="n">
-        <v>2821</v>
+        <v>3679</v>
       </c>
       <c r="T258" t="n">
         <v>7</v>
@@ -21047,7 +21047,7 @@
         </is>
       </c>
       <c r="D259" s="2" t="n">
-        <v>44319</v>
+        <v>44410</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -21080,20 +21080,20 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M259" t="n">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="N259" t="n">
-        <v>16500</v>
+        <v>20500</v>
       </c>
       <c r="O259" t="n">
-        <v>17000</v>
+        <v>21000</v>
       </c>
       <c r="P259" t="n">
-        <v>16750</v>
+        <v>20750</v>
       </c>
       <c r="Q259" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         </is>
       </c>
       <c r="S259" t="n">
-        <v>2393</v>
+        <v>2964</v>
       </c>
       <c r="T259" t="n">
         <v>7</v>
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="D260" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E260" t="n">
         <v>4</v>
@@ -21164,16 +21164,16 @@
         </is>
       </c>
       <c r="M260" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N260" t="n">
-        <v>14500</v>
+        <v>25500</v>
       </c>
       <c r="O260" t="n">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="P260" t="n">
-        <v>14750</v>
+        <v>25750</v>
       </c>
       <c r="Q260" t="inlineStr">
         <is>
@@ -21186,7 +21186,7 @@
         </is>
       </c>
       <c r="S260" t="n">
-        <v>2107</v>
+        <v>3679</v>
       </c>
       <c r="T260" t="n">
         <v>7</v>
@@ -21207,7 +21207,7 @@
         </is>
       </c>
       <c r="D261" s="2" t="n">
-        <v>44319</v>
+        <v>44427</v>
       </c>
       <c r="E261" t="n">
         <v>4</v>
@@ -21244,16 +21244,16 @@
         </is>
       </c>
       <c r="M261" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="N261" t="n">
-        <v>11500</v>
+        <v>19500</v>
       </c>
       <c r="O261" t="n">
-        <v>12000</v>
+        <v>20000</v>
       </c>
       <c r="P261" t="n">
-        <v>11750</v>
+        <v>19750</v>
       </c>
       <c r="Q261" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         </is>
       </c>
       <c r="S261" t="n">
-        <v>1679</v>
+        <v>2821</v>
       </c>
       <c r="T261" t="n">
         <v>7</v>
@@ -21287,7 +21287,7 @@
         </is>
       </c>
       <c r="D262" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E262" t="n">
         <v>4</v>
@@ -21324,16 +21324,16 @@
         </is>
       </c>
       <c r="M262" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="N262" t="n">
-        <v>19500</v>
+        <v>16500</v>
       </c>
       <c r="O262" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="P262" t="n">
-        <v>19750</v>
+        <v>16750</v>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="S262" t="n">
-        <v>2821</v>
+        <v>2393</v>
       </c>
       <c r="T262" t="n">
         <v>7</v>
@@ -21367,7 +21367,7 @@
         </is>
       </c>
       <c r="D263" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E263" t="n">
         <v>4</v>
@@ -21447,7 +21447,7 @@
         </is>
       </c>
       <c r="D264" s="2" t="n">
-        <v>44473</v>
+        <v>44319</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -21487,13 +21487,13 @@
         <v>240</v>
       </c>
       <c r="N264" t="n">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="O264" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="P264" t="n">
-        <v>12750</v>
+        <v>11750</v>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
@@ -21506,7 +21506,7 @@
         </is>
       </c>
       <c r="S264" t="n">
-        <v>1821</v>
+        <v>1679</v>
       </c>
       <c r="T264" t="n">
         <v>7</v>
@@ -21527,7 +21527,7 @@
         </is>
       </c>
       <c r="D265" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E265" t="n">
         <v>4</v>
@@ -21564,16 +21564,16 @@
         </is>
       </c>
       <c r="M265" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N265" t="n">
-        <v>14000</v>
+        <v>19500</v>
       </c>
       <c r="O265" t="n">
-        <v>14500</v>
+        <v>20000</v>
       </c>
       <c r="P265" t="n">
-        <v>14250</v>
+        <v>19750</v>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
@@ -21586,7 +21586,7 @@
         </is>
       </c>
       <c r="S265" t="n">
-        <v>2036</v>
+        <v>2821</v>
       </c>
       <c r="T265" t="n">
         <v>7</v>
@@ -21607,7 +21607,7 @@
         </is>
       </c>
       <c r="D266" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E266" t="n">
         <v>4</v>
@@ -21644,16 +21644,16 @@
         </is>
       </c>
       <c r="M266" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="N266" t="n">
-        <v>12000</v>
+        <v>14500</v>
       </c>
       <c r="O266" t="n">
-        <v>12500</v>
+        <v>15000</v>
       </c>
       <c r="P266" t="n">
-        <v>12250</v>
+        <v>14750</v>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         </is>
       </c>
       <c r="S266" t="n">
-        <v>1750</v>
+        <v>2107</v>
       </c>
       <c r="T266" t="n">
         <v>7</v>
@@ -21687,7 +21687,7 @@
         </is>
       </c>
       <c r="D267" s="2" t="n">
-        <v>44273</v>
+        <v>44473</v>
       </c>
       <c r="E267" t="n">
         <v>4</v>
@@ -21727,13 +21727,13 @@
         <v>240</v>
       </c>
       <c r="N267" t="n">
-        <v>9000</v>
+        <v>12500</v>
       </c>
       <c r="O267" t="n">
-        <v>9500</v>
+        <v>13000</v>
       </c>
       <c r="P267" t="n">
-        <v>9250</v>
+        <v>12750</v>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="S267" t="n">
-        <v>1321</v>
+        <v>1821</v>
       </c>
       <c r="T267" t="n">
         <v>7</v>
@@ -21767,7 +21767,7 @@
         </is>
       </c>
       <c r="D268" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E268" t="n">
         <v>4</v>
@@ -21804,16 +21804,16 @@
         </is>
       </c>
       <c r="M268" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N268" t="n">
-        <v>16500</v>
+        <v>14000</v>
       </c>
       <c r="O268" t="n">
-        <v>17000</v>
+        <v>14500</v>
       </c>
       <c r="P268" t="n">
-        <v>16750</v>
+        <v>14250</v>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         </is>
       </c>
       <c r="S268" t="n">
-        <v>2393</v>
+        <v>2036</v>
       </c>
       <c r="T268" t="n">
         <v>7</v>
@@ -21847,7 +21847,7 @@
         </is>
       </c>
       <c r="D269" s="2" t="n">
-        <v>44236</v>
+        <v>44273</v>
       </c>
       <c r="E269" t="n">
         <v>4</v>
@@ -21887,13 +21887,13 @@
         <v>240</v>
       </c>
       <c r="N269" t="n">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="O269" t="n">
-        <v>14000</v>
+        <v>12500</v>
       </c>
       <c r="P269" t="n">
-        <v>13750</v>
+        <v>12250</v>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
